--- a/data/pca/keyFactor/keyFactor_2014-05-29.xlsx
+++ b/data/pca/keyFactor/keyFactor_2014-05-29.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4286 +417,8570 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>41430</v>
+        <v>41071</v>
       </c>
       <c r="B2">
-        <v>1.000051768000598</v>
+        <v>0.9999962477110175</v>
       </c>
       <c r="C2">
-        <v>0.9988930193669227</v>
+        <v>1.000656203122668</v>
       </c>
       <c r="D2">
-        <v>0.9993841523535254</v>
+        <v>0.9991577165437507</v>
       </c>
       <c r="E2">
-        <v>0.9998804652035886</v>
+        <v>0.9998711676042766</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>41431</v>
+        <v>41072</v>
       </c>
       <c r="B3">
-        <v>1.000127509640051</v>
+        <v>0.9999428004099858</v>
       </c>
       <c r="C3">
-        <v>0.9986894631467733</v>
+        <v>0.9996091679886761</v>
       </c>
       <c r="D3">
-        <v>0.9993475407325454</v>
+        <v>0.9995220303391344</v>
       </c>
       <c r="E3">
-        <v>0.9996933618127344</v>
+        <v>0.9998724894958351</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>41432</v>
+        <v>41073</v>
       </c>
       <c r="B4">
-        <v>0.9985132462408763</v>
+        <v>0.999877454300616</v>
       </c>
       <c r="C4">
-        <v>0.9991319727652681</v>
+        <v>0.9993179032022423</v>
       </c>
       <c r="D4">
-        <v>0.9994226743616529</v>
+        <v>0.9993525144428909</v>
       </c>
       <c r="E4">
-        <v>0.9995761066373045</v>
+        <v>1.000011766405564</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>41435</v>
+        <v>41074</v>
       </c>
       <c r="B5">
-        <v>0.9986360588388655</v>
+        <v>0.998461209595371</v>
       </c>
       <c r="C5">
-        <v>0.9990888213704345</v>
+        <v>0.9992713440202511</v>
       </c>
       <c r="D5">
-        <v>0.9994185186452423</v>
+        <v>0.9990782908628681</v>
       </c>
       <c r="E5">
-        <v>0.9990203762957947</v>
+        <v>0.9997362043104822</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41436</v>
+        <v>41075</v>
       </c>
       <c r="B6">
-        <v>0.9972000259024443</v>
+        <v>1.000047133261458</v>
       </c>
       <c r="C6">
-        <v>0.9987316675652376</v>
+        <v>0.9988176082120652</v>
       </c>
       <c r="D6">
-        <v>0.9992583721270237</v>
+        <v>0.9998518599979226</v>
       </c>
       <c r="E6">
-        <v>0.998636117763041</v>
+        <v>0.999995845936161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41437</v>
+        <v>41078</v>
       </c>
       <c r="B7">
-        <v>0.9974193078355055</v>
+        <v>0.9999171624365835</v>
       </c>
       <c r="C7">
-        <v>0.9978543163080192</v>
+        <v>0.9979174862992881</v>
       </c>
       <c r="D7">
-        <v>0.9988362531746218</v>
+        <v>1.000070047424268</v>
       </c>
       <c r="E7">
-        <v>0.9985907274105408</v>
+        <v>0.9996525879087867</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41438</v>
+        <v>41079</v>
       </c>
       <c r="B8">
-        <v>0.9977950132346157</v>
+        <v>0.9984687449908135</v>
       </c>
       <c r="C8">
-        <v>0.9991167778365223</v>
+        <v>0.9976811477974049</v>
       </c>
       <c r="D8">
-        <v>0.9987104480343894</v>
+        <v>1.001157019772718</v>
       </c>
       <c r="E8">
-        <v>0.9987570107241908</v>
+        <v>0.9993451833673749</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41439</v>
+        <v>41080</v>
       </c>
       <c r="B9">
-        <v>0.9971731912779664</v>
+        <v>1.000057082336686</v>
       </c>
       <c r="C9">
-        <v>0.9985259492595272</v>
+        <v>0.9982056221581913</v>
       </c>
       <c r="D9">
-        <v>0.9985833703371514</v>
+        <v>1.000763944068712</v>
       </c>
       <c r="E9">
-        <v>0.9986482978165381</v>
+        <v>0.9990711838352895</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41442</v>
+        <v>41081</v>
       </c>
       <c r="B10">
-        <v>0.997505886933552</v>
+        <v>0.9986399784084261</v>
       </c>
       <c r="C10">
-        <v>0.999134553184797</v>
+        <v>1.000399240565278</v>
       </c>
       <c r="D10">
-        <v>0.9989449118257056</v>
+        <v>0.9990612694189107</v>
       </c>
       <c r="E10">
-        <v>0.9985798530032581</v>
+        <v>0.9996543439893648</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41443</v>
+        <v>41082</v>
       </c>
       <c r="B11">
-        <v>0.9966555937924073</v>
+        <v>0.9986008232343851</v>
       </c>
       <c r="C11">
-        <v>0.999945428312672</v>
+        <v>1.000560252406782</v>
       </c>
       <c r="D11">
-        <v>0.999014662280739</v>
+        <v>0.9993723324865204</v>
       </c>
       <c r="E11">
-        <v>0.9981486177986878</v>
+        <v>0.999343844270201</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41444</v>
+        <v>41085</v>
       </c>
       <c r="B12">
-        <v>0.9957875144330057</v>
+        <v>0.9985231710034185</v>
       </c>
       <c r="C12">
-        <v>0.9995900122322432</v>
+        <v>1.000593982575928</v>
       </c>
       <c r="D12">
-        <v>0.9991539981249776</v>
+        <v>0.9977564443232511</v>
       </c>
       <c r="E12">
-        <v>0.9985135494754213</v>
+        <v>0.9990701149182181</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41445</v>
+        <v>41086</v>
       </c>
       <c r="B13">
-        <v>0.993033836040871</v>
+        <v>1.000191717745553</v>
       </c>
       <c r="C13">
-        <v>0.9984453958406887</v>
+        <v>1.001033102054858</v>
       </c>
       <c r="D13">
-        <v>0.9986456441923985</v>
+        <v>0.9980815257687355</v>
       </c>
       <c r="E13">
-        <v>0.9991643063107067</v>
+        <v>0.9988097666342008</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41446</v>
+        <v>41087</v>
       </c>
       <c r="B14">
-        <v>0.993659350336398</v>
+        <v>0.9987526674777645</v>
       </c>
       <c r="C14">
-        <v>0.998256155048601</v>
+        <v>1.000814960464705</v>
       </c>
       <c r="D14">
-        <v>0.9986568033482268</v>
+        <v>0.9987340492508159</v>
       </c>
       <c r="E14">
-        <v>0.9988983717030668</v>
+        <v>0.9988583982028814</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41449</v>
+        <v>41088</v>
       </c>
       <c r="B15">
-        <v>0.9920492000718096</v>
+        <v>0.9988183880979827</v>
       </c>
       <c r="C15">
-        <v>0.9973573236671814</v>
+        <v>1.001227039125077</v>
       </c>
       <c r="D15">
-        <v>0.9979214669877159</v>
+        <v>0.9993621519201772</v>
       </c>
       <c r="E15">
-        <v>0.9990764526403592</v>
+        <v>0.9986571322925791</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41450</v>
+        <v>41089</v>
       </c>
       <c r="B16">
-        <v>0.9924690911733489</v>
+        <v>1.000346344425121</v>
       </c>
       <c r="C16">
-        <v>0.9986009566209803</v>
+        <v>1.00001532332144</v>
       </c>
       <c r="D16">
-        <v>0.9980168817123111</v>
+        <v>0.9995007814805522</v>
       </c>
       <c r="E16">
-        <v>0.9992401286730884</v>
+        <v>0.9963816696339768</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>41451</v>
+        <v>41092</v>
       </c>
       <c r="B17">
-        <v>0.9907871847077279</v>
+        <v>1.00030221184552</v>
       </c>
       <c r="C17">
-        <v>0.9989537255459595</v>
+        <v>1.000010189680276</v>
       </c>
       <c r="D17">
-        <v>0.9979157106739356</v>
+        <v>0.9994445967898519</v>
       </c>
       <c r="E17">
-        <v>0.9984610741765017</v>
+        <v>0.9963970900245387</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>41452</v>
+        <v>41093</v>
       </c>
       <c r="B18">
-        <v>0.9915649434371822</v>
+        <v>1.000292876917295</v>
       </c>
       <c r="C18">
-        <v>0.999067451050748</v>
+        <v>0.9979032798682926</v>
       </c>
       <c r="D18">
-        <v>0.9983534029131288</v>
+        <v>1.000215886412293</v>
       </c>
       <c r="E18">
-        <v>0.9985792323435513</v>
+        <v>0.9958281869761196</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>41453</v>
+        <v>41094</v>
       </c>
       <c r="B19">
-        <v>0.9940498049104664</v>
+        <v>0.9988282389143004</v>
       </c>
       <c r="C19">
-        <v>0.9981123265626759</v>
+        <v>0.9977743620078722</v>
       </c>
       <c r="D19">
-        <v>1.000781844963336</v>
+        <v>1.000857915426549</v>
       </c>
       <c r="E19">
-        <v>0.9992327485644885</v>
+        <v>0.9956265735138868</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>41456</v>
+        <v>41095</v>
       </c>
       <c r="B20">
-        <v>0.9940598653228478</v>
+        <v>0.9987178367117323</v>
       </c>
       <c r="C20">
-        <v>0.9980638662002211</v>
+        <v>0.9983819080283214</v>
       </c>
       <c r="D20">
-        <v>1.000752868800841</v>
+        <v>1.000373767955663</v>
       </c>
       <c r="E20">
-        <v>0.9991989737897523</v>
+        <v>0.9963231712200223</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>41457</v>
+        <v>41096</v>
       </c>
       <c r="B21">
-        <v>0.9931435886607448</v>
+        <v>0.9987165908377705</v>
       </c>
       <c r="C21">
-        <v>0.998451926036376</v>
+        <v>0.9997418309575508</v>
       </c>
       <c r="D21">
-        <v>1.001853408030817</v>
+        <v>0.9997392825845826</v>
       </c>
       <c r="E21">
-        <v>0.9991354153854781</v>
+        <v>0.9971685569797023</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>41458</v>
+        <v>41099</v>
       </c>
       <c r="B22">
-        <v>0.9935635538953157</v>
+        <v>0.9986462605668568</v>
       </c>
       <c r="C22">
-        <v>0.9979730413113749</v>
+        <v>1.000042178368592</v>
       </c>
       <c r="D22">
-        <v>1.001678221195056</v>
+        <v>0.9992447595403268</v>
       </c>
       <c r="E22">
-        <v>0.9989320292315019</v>
+        <v>0.9968141917012051</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>41459</v>
+        <v>41100</v>
       </c>
       <c r="B23">
-        <v>0.9935415300369661</v>
+        <v>0.9985950384516299</v>
       </c>
       <c r="C23">
-        <v>0.9980854348719567</v>
+        <v>1.001385538615921</v>
       </c>
       <c r="D23">
-        <v>1.001677524383821</v>
+        <v>0.9987008599182507</v>
       </c>
       <c r="E23">
-        <v>0.9990554024856929</v>
+        <v>0.9965714840786525</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>41460</v>
+        <v>41101</v>
       </c>
       <c r="B24">
-        <v>0.9926988953537196</v>
+        <v>0.9986001557731596</v>
       </c>
       <c r="C24">
-        <v>0.997849584513146</v>
+        <v>1.001795657913552</v>
       </c>
       <c r="D24">
-        <v>1.001727103040844</v>
+        <v>0.9994985895003463</v>
       </c>
       <c r="E24">
-        <v>0.9989673048575942</v>
+        <v>0.9965059089428951</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>41463</v>
+        <v>41102</v>
       </c>
       <c r="B25">
-        <v>0.9925203061993574</v>
+        <v>0.9985423142064022</v>
       </c>
       <c r="C25">
-        <v>0.9984731673958372</v>
+        <v>1.002430693645716</v>
       </c>
       <c r="D25">
-        <v>1.00193291009729</v>
+        <v>0.9985093975031958</v>
       </c>
       <c r="E25">
-        <v>0.9987994457585352</v>
+        <v>0.9968416523164577</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>41464</v>
+        <v>41103</v>
       </c>
       <c r="B26">
-        <v>0.9929845610275658</v>
+        <v>0.9984940907657283</v>
       </c>
       <c r="C26">
-        <v>0.9989441361700189</v>
+        <v>1.001720876911452</v>
       </c>
       <c r="D26">
-        <v>1.002207927289673</v>
+        <v>0.9989647315930541</v>
       </c>
       <c r="E26">
-        <v>0.9979375676121888</v>
+        <v>0.9963581790132864</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>41465</v>
+        <v>41106</v>
       </c>
       <c r="B27">
-        <v>0.9930883222568596</v>
+        <v>0.9985121802496858</v>
       </c>
       <c r="C27">
-        <v>0.9988339098890675</v>
+        <v>1.001875731870906</v>
       </c>
       <c r="D27">
-        <v>1.002547745862439</v>
+        <v>0.9988845665850521</v>
       </c>
       <c r="E27">
-        <v>0.9985201466446394</v>
+        <v>0.9959898777643489</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>41466</v>
+        <v>41107</v>
       </c>
       <c r="B28">
-        <v>0.995386653668914</v>
+        <v>0.9985286496690835</v>
       </c>
       <c r="C28">
-        <v>0.9992555607043788</v>
+        <v>1.002267855432473</v>
       </c>
       <c r="D28">
-        <v>1.002785022872426</v>
+        <v>0.9992727244075355</v>
       </c>
       <c r="E28">
-        <v>0.99835516393927</v>
+        <v>0.9957613862916922</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>41467</v>
+        <v>41108</v>
       </c>
       <c r="B29">
-        <v>0.9946632397562511</v>
+        <v>0.9985083828411078</v>
       </c>
       <c r="C29">
-        <v>0.9991036935414466</v>
+        <v>1.002559817555805</v>
       </c>
       <c r="D29">
-        <v>1.002737680920672</v>
+        <v>0.9995656370365531</v>
       </c>
       <c r="E29">
-        <v>0.9985075468174096</v>
+        <v>0.9957364395872144</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>41470</v>
+        <v>41109</v>
       </c>
       <c r="B30">
-        <v>0.994887690502988</v>
+        <v>0.9967952492551576</v>
       </c>
       <c r="C30">
-        <v>0.9995686777275942</v>
+        <v>1.001855119164155</v>
       </c>
       <c r="D30">
-        <v>1.002651092950921</v>
+        <v>0.9999921218567001</v>
       </c>
       <c r="E30">
-        <v>0.9984936853885549</v>
+        <v>0.9955377002345442</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>41471</v>
+        <v>41110</v>
       </c>
       <c r="B31">
-        <v>0.9964785934964924</v>
+        <v>0.9967410136964763</v>
       </c>
       <c r="C31">
-        <v>0.9987048816996166</v>
+        <v>1.001935389118099</v>
       </c>
       <c r="D31">
-        <v>1.002636690616974</v>
+        <v>0.9993646733217667</v>
       </c>
       <c r="E31">
-        <v>0.9982115775268255</v>
+        <v>0.9955246001945536</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>41472</v>
+        <v>41113</v>
       </c>
       <c r="B32">
-        <v>0.9957593640068242</v>
+        <v>1.021249655260358</v>
       </c>
       <c r="C32">
-        <v>0.9992214628600836</v>
+        <v>1.002154231995873</v>
       </c>
       <c r="D32">
-        <v>1.002692439961755</v>
+        <v>0.9990950090940161</v>
       </c>
       <c r="E32">
-        <v>0.9980966032147047</v>
+        <v>0.9956994075124459</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>41473</v>
+        <v>41114</v>
       </c>
       <c r="B33">
-        <v>0.9955686793250966</v>
+        <v>1.017685214112865</v>
       </c>
       <c r="C33">
-        <v>0.99962813720338</v>
+        <v>1.002450108464346</v>
       </c>
       <c r="D33">
-        <v>1.003000811842643</v>
+        <v>0.998395605941681</v>
       </c>
       <c r="E33">
-        <v>0.9983100119424864</v>
+        <v>0.9961280866781907</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>41474</v>
+        <v>41115</v>
       </c>
       <c r="B34">
-        <v>0.9968233233096373</v>
+        <v>1.017607476734667</v>
       </c>
       <c r="C34">
-        <v>0.9993997354225675</v>
+        <v>1.001851833728107</v>
       </c>
       <c r="D34">
-        <v>1.003037037911182</v>
+        <v>0.9977510638777142</v>
       </c>
       <c r="E34">
-        <v>0.9982993227486139</v>
+        <v>0.9960833692808356</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>41477</v>
+        <v>41116</v>
       </c>
       <c r="B35">
-        <v>0.9990431058924225</v>
+        <v>1.020215476069206</v>
       </c>
       <c r="C35">
-        <v>0.9991473903525691</v>
+        <v>1.000412053680987</v>
       </c>
       <c r="D35">
-        <v>1.002763554681461</v>
+        <v>0.9984719183431882</v>
       </c>
       <c r="E35">
-        <v>0.9980173747349999</v>
+        <v>0.9958780462197048</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>41478</v>
+        <v>41117</v>
       </c>
       <c r="B36">
-        <v>0.9999215627903882</v>
+        <v>1.020139860400617</v>
       </c>
       <c r="C36">
-        <v>0.9989579786008114</v>
+        <v>0.9996608132923382</v>
       </c>
       <c r="D36">
-        <v>1.002851586781254</v>
+        <v>0.9994247621279959</v>
       </c>
       <c r="E36">
-        <v>0.9980245284315571</v>
+        <v>0.9960940492785045</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>41479</v>
+        <v>41120</v>
       </c>
       <c r="B37">
-        <v>0.9984130572041917</v>
+        <v>1.020782259968083</v>
       </c>
       <c r="C37">
-        <v>0.9991094002225783</v>
+        <v>0.9993666669340401</v>
       </c>
       <c r="D37">
-        <v>1.002871663818291</v>
+        <v>0.9990431141406044</v>
       </c>
       <c r="E37">
-        <v>0.9981426584142801</v>
+        <v>0.9959846292938047</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>41480</v>
+        <v>41121</v>
       </c>
       <c r="B38">
-        <v>0.9986302727253837</v>
+        <v>1.020080057592498</v>
       </c>
       <c r="C38">
-        <v>0.9990438477694564</v>
+        <v>1.000197597897512</v>
       </c>
       <c r="D38">
-        <v>1.00276985040421</v>
+        <v>0.9985293903098524</v>
       </c>
       <c r="E38">
-        <v>0.9981148134859609</v>
+        <v>0.9960729317466254</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>41481</v>
+        <v>41122</v>
       </c>
       <c r="B39">
-        <v>0.9991019584935236</v>
+        <v>1.020775599077368</v>
       </c>
       <c r="C39">
-        <v>0.9988564527232461</v>
+        <v>1.000569499400966</v>
       </c>
       <c r="D39">
-        <v>1.002828680626652</v>
+        <v>0.9986538039668778</v>
       </c>
       <c r="E39">
-        <v>0.9980787373789469</v>
+        <v>0.9960126066303726</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>41484</v>
+        <v>41123</v>
       </c>
       <c r="B40">
-        <v>0.998910280364814</v>
+        <v>1.020740154515851</v>
       </c>
       <c r="C40">
-        <v>0.9987647798127132</v>
+        <v>1.001235822323603</v>
       </c>
       <c r="D40">
-        <v>1.003153047687782</v>
+        <v>0.9979651810864699</v>
       </c>
       <c r="E40">
-        <v>0.997842668440539</v>
+        <v>0.9960749842658193</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>41485</v>
+        <v>41124</v>
       </c>
       <c r="B41">
-        <v>0.9985773649841513</v>
+        <v>1.019998598106201</v>
       </c>
       <c r="C41">
-        <v>0.9985298200010111</v>
+        <v>1.000317561787577</v>
       </c>
       <c r="D41">
-        <v>1.002978253911231</v>
+        <v>0.9988383933164041</v>
       </c>
       <c r="E41">
-        <v>0.9980933496700243</v>
+        <v>0.9956455991126599</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>41486</v>
+        <v>41127</v>
       </c>
       <c r="B42">
-        <v>0.9979207542100501</v>
+        <v>1.019953348859565</v>
       </c>
       <c r="C42">
-        <v>0.9982200860476687</v>
+        <v>1.000315729307837</v>
       </c>
       <c r="D42">
-        <v>1.002517100117696</v>
+        <v>0.9987763199007038</v>
       </c>
       <c r="E42">
-        <v>0.998722208106121</v>
+        <v>0.995664797754892</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>41487</v>
+        <v>41128</v>
       </c>
       <c r="B43">
-        <v>0.9973721831576849</v>
+        <v>1.018415392262621</v>
       </c>
       <c r="C43">
-        <v>0.9996561674227895</v>
+        <v>0.9987619241268071</v>
       </c>
       <c r="D43">
-        <v>1.002697708232306</v>
+        <v>0.9998624423887725</v>
       </c>
       <c r="E43">
-        <v>0.9991632606708203</v>
+        <v>0.9957163157262217</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>41488</v>
+        <v>41129</v>
       </c>
       <c r="B44">
-        <v>0.9970003392354911</v>
+        <v>1.018373302938908</v>
       </c>
       <c r="C44">
-        <v>0.9998647171938898</v>
+        <v>0.999262526437787</v>
       </c>
       <c r="D44">
-        <v>1.002412634939632</v>
+        <v>0.999693431209146</v>
       </c>
       <c r="E44">
-        <v>0.999267267805349</v>
+        <v>0.9961518680811052</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>41491</v>
+        <v>41130</v>
       </c>
       <c r="B45">
-        <v>0.9970077199027363</v>
+        <v>1.019957898112083</v>
       </c>
       <c r="C45">
-        <v>0.9998123054685265</v>
+        <v>0.9986679351701471</v>
       </c>
       <c r="D45">
-        <v>1.002379546571563</v>
+        <v>1.000051936953388</v>
       </c>
       <c r="E45">
-        <v>0.9992392118857409</v>
+        <v>0.9962085367745609</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>41492</v>
+        <v>41131</v>
       </c>
       <c r="B46">
-        <v>0.9952380811357805</v>
+        <v>1.019902836277494</v>
       </c>
       <c r="C46">
-        <v>0.9998029020484879</v>
+        <v>0.998262283943287</v>
       </c>
       <c r="D46">
-        <v>1.001647679004174</v>
+        <v>1.000329871703294</v>
       </c>
       <c r="E46">
-        <v>0.9989580831858124</v>
+        <v>0.9967772058770833</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>41493</v>
+        <v>41134</v>
       </c>
       <c r="B47">
-        <v>0.9952170520195291</v>
+        <v>1.019866019779216</v>
       </c>
       <c r="C47">
-        <v>0.9993167669658836</v>
+        <v>0.9987364898047669</v>
       </c>
       <c r="D47">
-        <v>1.001716493491936</v>
+        <v>1.000091949138082</v>
       </c>
       <c r="E47">
-        <v>0.9991847360845206</v>
+        <v>0.9966225959056358</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>41494</v>
+        <v>41135</v>
       </c>
       <c r="B48">
-        <v>0.99784676731671</v>
+        <v>1.019104706927337</v>
       </c>
       <c r="C48">
-        <v>0.9995923745855334</v>
+        <v>0.9989936156712119</v>
       </c>
       <c r="D48">
-        <v>1.001770115406579</v>
+        <v>0.9999832226112905</v>
       </c>
       <c r="E48">
-        <v>0.9995292302656539</v>
+        <v>0.9959505017669686</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>41495</v>
+        <v>41136</v>
       </c>
       <c r="B49">
-        <v>0.9983604200555393</v>
+        <v>1.019048657288632</v>
       </c>
       <c r="C49">
-        <v>0.9996808477649418</v>
+        <v>0.9988131857505957</v>
       </c>
       <c r="D49">
-        <v>1.001149904778596</v>
+        <v>1.000021710040677</v>
       </c>
       <c r="E49">
-        <v>0.9998046539915553</v>
+        <v>0.9958707953531031</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>41498</v>
+        <v>41137</v>
       </c>
       <c r="B50">
-        <v>1.000183801826247</v>
+        <v>1.019717154204148</v>
       </c>
       <c r="C50">
-        <v>0.9998437226890357</v>
+        <v>0.9974499269861012</v>
       </c>
       <c r="D50">
-        <v>1.000128872932534</v>
+        <v>1.00020828134825</v>
       </c>
       <c r="E50">
-        <v>0.9995456151578965</v>
+        <v>0.9957937847077485</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>41499</v>
+        <v>41138</v>
       </c>
       <c r="B51">
-        <v>0.9998332222446232</v>
+        <v>1.018227847272899</v>
       </c>
       <c r="C51">
-        <v>1.000283047642284</v>
+        <v>0.9972319686586932</v>
       </c>
       <c r="D51">
-        <v>1.000098589689639</v>
+        <v>1.000413446038289</v>
       </c>
       <c r="E51">
-        <v>0.999556110292747</v>
+        <v>0.9956127855995747</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>41500</v>
+        <v>41141</v>
       </c>
       <c r="B52">
-        <v>1.001169549722504</v>
+        <v>1.01901663963706</v>
       </c>
       <c r="C52">
-        <v>0.9997651559195211</v>
+        <v>0.9970514493190434</v>
       </c>
       <c r="D52">
-        <v>0.9997325000382433</v>
+        <v>1.000073162684235</v>
       </c>
       <c r="E52">
-        <v>0.9996974454970059</v>
+        <v>0.9955067618172595</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>41501</v>
+        <v>41142</v>
       </c>
       <c r="B53">
-        <v>1.003236981975644</v>
+        <v>1.018181048644586</v>
       </c>
       <c r="C53">
-        <v>0.9991619447313134</v>
+        <v>0.9964221161592806</v>
       </c>
       <c r="D53">
-        <v>0.9996666904378342</v>
+        <v>0.9999956004805464</v>
       </c>
       <c r="E53">
-        <v>0.9999576375979834</v>
+        <v>0.9952448189574663</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>41502</v>
+        <v>41143</v>
       </c>
       <c r="B54">
-        <v>1.002889497477089</v>
+        <v>1.018125173602277</v>
       </c>
       <c r="C54">
-        <v>0.9992602663551837</v>
+        <v>0.9956057560775452</v>
       </c>
       <c r="D54">
-        <v>1.000121485714998</v>
+        <v>0.9994919014376809</v>
       </c>
       <c r="E54">
-        <v>1.000185049779909</v>
+        <v>0.9952795826884172</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>41505</v>
+        <v>41144</v>
       </c>
       <c r="B55">
-        <v>1.002356752954952</v>
+        <v>1.017224119884894</v>
       </c>
       <c r="C55">
-        <v>0.9982217014918233</v>
+        <v>0.9956485050181744</v>
       </c>
       <c r="D55">
-        <v>0.9997485747288356</v>
+        <v>0.9989763567107389</v>
       </c>
       <c r="E55">
-        <v>1.000462243502269</v>
+        <v>0.9954969690197201</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>41506</v>
+        <v>41145</v>
       </c>
       <c r="B56">
-        <v>1.00346304926063</v>
+        <v>1.017179579585828</v>
       </c>
       <c r="C56">
-        <v>0.9983743859987023</v>
+        <v>0.9957479402992555</v>
       </c>
       <c r="D56">
-        <v>0.999606285204755</v>
+        <v>0.9988827025733227</v>
       </c>
       <c r="E56">
-        <v>1.000411370718615</v>
+        <v>0.9953148800818346</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>41507</v>
+        <v>41148</v>
       </c>
       <c r="B57">
-        <v>1.002251460954404</v>
+        <v>1.017173884945054</v>
       </c>
       <c r="C57">
-        <v>0.9979561996726263</v>
+        <v>0.9961212509217995</v>
       </c>
       <c r="D57">
-        <v>0.9995014329057965</v>
+        <v>0.998844166020685</v>
       </c>
       <c r="E57">
-        <v>1.000517990949226</v>
+        <v>0.9955104676570505</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>41508</v>
+        <v>41149</v>
       </c>
       <c r="B58">
-        <v>1.003227745509089</v>
+        <v>1.017115381093075</v>
       </c>
       <c r="C58">
-        <v>0.9986020934555624</v>
+        <v>0.9963422126185716</v>
       </c>
       <c r="D58">
-        <v>0.9997413525957817</v>
+        <v>0.9984824304339656</v>
       </c>
       <c r="E58">
-        <v>1.000180672334195</v>
+        <v>0.99554060079549</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>41509</v>
+        <v>41150</v>
       </c>
       <c r="B59">
-        <v>1.004193916290627</v>
+        <v>1.016172163016303</v>
       </c>
       <c r="C59">
-        <v>0.9987404618588029</v>
+        <v>0.996588862360465</v>
       </c>
       <c r="D59">
-        <v>0.9996706075780433</v>
+        <v>0.9983732367349359</v>
       </c>
       <c r="E59">
-        <v>1.000187608537824</v>
+        <v>0.9954232946528735</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>41512</v>
+        <v>41151</v>
       </c>
       <c r="B60">
-        <v>1.004619848486732</v>
+        <v>1.017145781017223</v>
       </c>
       <c r="C60">
-        <v>0.9984906158611171</v>
+        <v>0.9971363930158597</v>
       </c>
       <c r="D60">
-        <v>0.999516023896771</v>
+        <v>0.9974661640629561</v>
       </c>
       <c r="E60">
-        <v>1.000160033108362</v>
+        <v>0.9955152181690339</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>41513</v>
+        <v>41152</v>
       </c>
       <c r="B61">
-        <v>1.00304817771607</v>
+        <v>1.017970439743551</v>
       </c>
       <c r="C61">
-        <v>0.9974025889574067</v>
+        <v>0.9960492580016164</v>
       </c>
       <c r="D61">
-        <v>0.9995892287546357</v>
+        <v>0.9970758635026509</v>
       </c>
       <c r="E61">
-        <v>0.9997652055362998</v>
+        <v>0.9954313648007007</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>41514</v>
+        <v>41156</v>
       </c>
       <c r="B62">
-        <v>1.002429010545824</v>
+        <v>1.01957546093195</v>
       </c>
       <c r="C62">
-        <v>0.9978559969683316</v>
+        <v>0.9959319269384745</v>
       </c>
       <c r="D62">
-        <v>0.999424276361253</v>
+        <v>0.9970398041446102</v>
       </c>
       <c r="E62">
-        <v>0.999806216990468</v>
+        <v>0.9954255860507313</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>41515</v>
+        <v>41157</v>
       </c>
       <c r="B63">
-        <v>1.002680862788437</v>
+        <v>1.019533010727317</v>
       </c>
       <c r="C63">
-        <v>0.9980582849781001</v>
+        <v>0.9957051495202178</v>
       </c>
       <c r="D63">
-        <v>0.9994649782273529</v>
+        <v>0.9970510956873384</v>
       </c>
       <c r="E63">
-        <v>1.000066294510906</v>
+        <v>0.9952717973587133</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>41516</v>
+        <v>41158</v>
       </c>
       <c r="B64">
-        <v>1.002293258827837</v>
+        <v>1.021591865404171</v>
       </c>
       <c r="C64">
-        <v>0.997826219087191</v>
+        <v>0.9947766252932857</v>
       </c>
       <c r="D64">
-        <v>0.9994927489630164</v>
+        <v>0.9979647592154358</v>
       </c>
       <c r="E64">
-        <v>1.000340983138969</v>
+        <v>0.9951211779485012</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>41520</v>
+        <v>41159</v>
       </c>
       <c r="B65">
-        <v>1.002812416044309</v>
+        <v>1.02030110130712</v>
       </c>
       <c r="C65">
-        <v>0.9981519491690777</v>
+        <v>0.9932960018609849</v>
       </c>
       <c r="D65">
-        <v>0.999567815198366</v>
+        <v>0.9987954899400545</v>
       </c>
       <c r="E65">
-        <v>1.000084628618377</v>
+        <v>0.9954404631473965</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>41521</v>
+        <v>41162</v>
       </c>
       <c r="B66">
-        <v>1.002845227077013</v>
+        <v>1.018891629176127</v>
       </c>
       <c r="C66">
-        <v>0.9985135201389813</v>
+        <v>0.9942118216538589</v>
       </c>
       <c r="D66">
-        <v>0.9991603736143362</v>
+        <v>0.9986006330971505</v>
       </c>
       <c r="E66">
-        <v>1.000048996878674</v>
+        <v>0.9956587006695957</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>41522</v>
+        <v>41163</v>
       </c>
       <c r="B67">
-        <v>1.001943418703352</v>
+        <v>1.018828496214002</v>
       </c>
       <c r="C67">
-        <v>0.9995892925746382</v>
+        <v>0.9940224327937451</v>
       </c>
       <c r="D67">
-        <v>0.9993043453647736</v>
+        <v>0.9988731639008005</v>
       </c>
       <c r="E67">
-        <v>0.99980660214085</v>
+        <v>0.9960285722622755</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>41523</v>
+        <v>41164</v>
       </c>
       <c r="B68">
-        <v>1.002156301015063</v>
+        <v>1.019550024214189</v>
       </c>
       <c r="C68">
-        <v>0.9990613261260523</v>
+        <v>0.993621093789805</v>
       </c>
       <c r="D68">
-        <v>0.9993947534956535</v>
+        <v>0.9988142801900318</v>
       </c>
       <c r="E68">
-        <v>0.9996196741930649</v>
+        <v>0.995941748422322</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>41526</v>
+        <v>41165</v>
       </c>
       <c r="B69">
-        <v>1.001833904687561</v>
+        <v>1.019441203455846</v>
       </c>
       <c r="C69">
-        <v>0.999662031704794</v>
+        <v>0.9922259875234805</v>
       </c>
       <c r="D69">
-        <v>0.9991037697063042</v>
+        <v>0.9989492211463712</v>
       </c>
       <c r="E69">
-        <v>0.9993267530502536</v>
+        <v>0.9957166161355016</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>41527</v>
+        <v>41166</v>
       </c>
       <c r="B70">
-        <v>1.000523730773341</v>
+        <v>1.019330276030926</v>
       </c>
       <c r="C70">
-        <v>0.9998301471884068</v>
+        <v>0.9906871514366894</v>
       </c>
       <c r="D70">
-        <v>0.99970410427996</v>
+        <v>0.9992529906281827</v>
       </c>
       <c r="E70">
-        <v>0.9995704686171304</v>
+        <v>0.9957220111822657</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>41528</v>
+        <v>41169</v>
       </c>
       <c r="B71">
-        <v>1.000616535931717</v>
+        <v>1.017869126018346</v>
       </c>
       <c r="C71">
-        <v>0.9997706666762348</v>
+        <v>0.9911223593810626</v>
       </c>
       <c r="D71">
-        <v>1.000325389348609</v>
+        <v>0.9985364691332739</v>
       </c>
       <c r="E71">
-        <v>0.9999293933349758</v>
+        <v>0.9956213983200828</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>41529</v>
+        <v>41170</v>
       </c>
       <c r="B72">
-        <v>0.9988534886269986</v>
+        <v>1.017828674547016</v>
       </c>
       <c r="C72">
-        <v>0.999411100973297</v>
+        <v>0.9911828851721688</v>
       </c>
       <c r="D72">
-        <v>1.000113477149395</v>
+        <v>0.9981338298588563</v>
       </c>
       <c r="E72">
-        <v>0.9998748435188518</v>
+        <v>0.9960109431627642</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>41530</v>
+        <v>41171</v>
       </c>
       <c r="B73">
-        <v>0.9995058420495735</v>
+        <v>1.018592608561758</v>
       </c>
       <c r="C73">
-        <v>0.9991988886472903</v>
+        <v>0.9908580203344105</v>
       </c>
       <c r="D73">
-        <v>1.000204965426645</v>
+        <v>0.9976099482934648</v>
       </c>
       <c r="E73">
-        <v>0.999987510821537</v>
+        <v>0.9958944892847144</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>41533</v>
+        <v>41172</v>
       </c>
       <c r="B74">
-        <v>0.9994414532365097</v>
+        <v>1.018568155962021</v>
       </c>
       <c r="C74">
-        <v>0.9999482580099454</v>
+        <v>0.9911387477783064</v>
       </c>
       <c r="D74">
-        <v>1.000383041358311</v>
+        <v>0.9972608883937616</v>
       </c>
       <c r="E74">
-        <v>1.000236627525121</v>
+        <v>0.9955924124375549</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>41534</v>
+        <v>41173</v>
       </c>
       <c r="B75">
-        <v>0.9999254952366795</v>
+        <v>1.018517648517545</v>
       </c>
       <c r="C75">
-        <v>0.9999540483200385</v>
+        <v>0.9911313631729854</v>
       </c>
       <c r="D75">
-        <v>1.000165968837169</v>
+        <v>0.9966666830274469</v>
       </c>
       <c r="E75">
-        <v>1.000224394041011</v>
+        <v>0.9949977768388999</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>41535</v>
+        <v>41176</v>
       </c>
       <c r="B76">
-        <v>1.002425638939737</v>
+        <v>1.01774375921866</v>
       </c>
       <c r="C76">
-        <v>0.9990932731673671</v>
+        <v>0.9922962138151784</v>
       </c>
       <c r="D76">
-        <v>1.000380559670381</v>
+        <v>0.9968559901884984</v>
       </c>
       <c r="E76">
-        <v>1.000017402043526</v>
+        <v>0.9948810881411503</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>41536</v>
+        <v>41177</v>
       </c>
       <c r="B77">
-        <v>1.001717171550479</v>
+        <v>1.017707549483229</v>
       </c>
       <c r="C77">
-        <v>0.9993895262013731</v>
+        <v>0.9927435477241857</v>
       </c>
       <c r="D77">
-        <v>1.000193868500776</v>
+        <v>0.9968221086809828</v>
       </c>
       <c r="E77">
-        <v>1.000118011619749</v>
+        <v>0.9954758884584324</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>41537</v>
+        <v>41178</v>
       </c>
       <c r="B78">
-        <v>0.999713331152191</v>
+        <v>1.018527332176945</v>
       </c>
       <c r="C78">
-        <v>0.9985256955217972</v>
+        <v>0.9927302870331485</v>
       </c>
       <c r="D78">
-        <v>1.001650569746441</v>
+        <v>0.996424372319607</v>
       </c>
       <c r="E78">
-        <v>1.000255155771463</v>
+        <v>0.9961914821664738</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>41540</v>
+        <v>41179</v>
       </c>
       <c r="B79">
-        <v>0.999096174748295</v>
+        <v>1.018429363639389</v>
       </c>
       <c r="C79">
-        <v>0.9984705415236572</v>
+        <v>0.9916900661938113</v>
       </c>
       <c r="D79">
-        <v>1.001780785030995</v>
+        <v>0.9966924587230834</v>
       </c>
       <c r="E79">
-        <v>1.000374233393761</v>
+        <v>0.996139814913507</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>41541</v>
+        <v>41180</v>
       </c>
       <c r="B80">
-        <v>0.9991338515101625</v>
+        <v>1.018384901070598</v>
       </c>
       <c r="C80">
-        <v>0.9985357503879437</v>
+        <v>0.9915955424244562</v>
       </c>
       <c r="D80">
-        <v>1.002204647176124</v>
+        <v>0.9965764515703097</v>
       </c>
       <c r="E80">
-        <v>1.000191571385712</v>
+        <v>0.9970367462103155</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>41542</v>
+        <v>41183</v>
       </c>
       <c r="B81">
-        <v>0.9997189308072433</v>
+        <v>1.017559203176556</v>
       </c>
       <c r="C81">
-        <v>0.9980365998154562</v>
+        <v>0.9911954193750478</v>
       </c>
       <c r="D81">
-        <v>1.002532495614705</v>
+        <v>0.9968096951415442</v>
       </c>
       <c r="E81">
-        <v>1.000251341333585</v>
+        <v>0.9971858454690647</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>41543</v>
+        <v>41184</v>
       </c>
       <c r="B82">
-        <v>0.9991926680740895</v>
+        <v>1.017519312869434</v>
       </c>
       <c r="C82">
-        <v>0.9983009992864791</v>
+        <v>0.991158711949367</v>
       </c>
       <c r="D82">
-        <v>1.002699601153002</v>
+        <v>0.9971764103028868</v>
       </c>
       <c r="E82">
-        <v>1.000137104396085</v>
+        <v>0.9976522693523351</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>41544</v>
+        <v>41185</v>
       </c>
       <c r="B83">
-        <v>0.9991814100948346</v>
+        <v>1.017482518062977</v>
       </c>
       <c r="C83">
-        <v>0.9981509345506304</v>
+        <v>0.9913995058013398</v>
       </c>
       <c r="D83">
-        <v>1.00263851423195</v>
+        <v>0.9972111999531609</v>
       </c>
       <c r="E83">
-        <v>0.9998289543979285</v>
+        <v>0.9974083818702305</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>41547</v>
+        <v>41186</v>
       </c>
       <c r="B84">
-        <v>0.9992246101240173</v>
+        <v>1.017393980253594</v>
       </c>
       <c r="C84">
-        <v>0.9974135059146848</v>
+        <v>0.990612293737705</v>
       </c>
       <c r="D84">
-        <v>1.002681245773387</v>
+        <v>0.9971417466465884</v>
       </c>
       <c r="E84">
-        <v>0.9996650147229814</v>
+        <v>0.9974995812533936</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>41548</v>
+        <v>41187</v>
       </c>
       <c r="B85">
-        <v>0.998489210551133</v>
+        <v>1.017344471900437</v>
       </c>
       <c r="C85">
-        <v>0.9983326414416327</v>
+        <v>0.991019376038999</v>
       </c>
       <c r="D85">
-        <v>1.002837868785305</v>
+        <v>0.9970589062156185</v>
       </c>
       <c r="E85">
-        <v>0.9995840990596798</v>
+        <v>0.9975692251120784</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>41549</v>
+        <v>41190</v>
       </c>
       <c r="B86">
-        <v>0.9986316501031427</v>
+        <v>1.017299302205464</v>
       </c>
       <c r="C86">
-        <v>0.9981902060321417</v>
+        <v>0.9910180624178253</v>
       </c>
       <c r="D86">
-        <v>1.002640230638114</v>
+        <v>0.9969960361482545</v>
       </c>
       <c r="E86">
-        <v>0.9998961182520939</v>
+        <v>0.9975890431833466</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>41550</v>
+        <v>41191</v>
       </c>
       <c r="B87">
-        <v>0.9980407119326552</v>
+        <v>1.016481166789993</v>
       </c>
       <c r="C87">
-        <v>0.9974298128627326</v>
+        <v>0.9923535979697217</v>
       </c>
       <c r="D87">
-        <v>1.002733815554842</v>
+        <v>0.9964601018989465</v>
       </c>
       <c r="E87">
-        <v>0.9997117534423364</v>
+        <v>0.9972671869544542</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>41551</v>
+        <v>41192</v>
       </c>
       <c r="B88">
-        <v>0.9978099738982771</v>
+        <v>1.017360254041245</v>
       </c>
       <c r="C88">
-        <v>0.9977888692446429</v>
+        <v>0.9923419914153319</v>
       </c>
       <c r="D88">
-        <v>1.002867965168543</v>
+        <v>0.9959666156064767</v>
       </c>
       <c r="E88">
-        <v>0.9998499376476011</v>
+        <v>0.9974206604023483</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>41554</v>
+        <v>41193</v>
       </c>
       <c r="B89">
-        <v>0.998344836868691</v>
+        <v>1.018146900450603</v>
       </c>
       <c r="C89">
-        <v>0.9977107550387471</v>
+        <v>0.9921046252473871</v>
       </c>
       <c r="D89">
-        <v>1.00242991922689</v>
+        <v>0.9963492228424181</v>
       </c>
       <c r="E89">
-        <v>0.999651728322616</v>
+        <v>0.9974455702308435</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>41555</v>
+        <v>41194</v>
       </c>
       <c r="B90">
-        <v>0.9972711019365952</v>
+        <v>1.018122333222352</v>
       </c>
       <c r="C90">
-        <v>0.9974007513981227</v>
+        <v>0.9924979676483421</v>
       </c>
       <c r="D90">
-        <v>1.002277892494852</v>
+        <v>0.9962839163059074</v>
       </c>
       <c r="E90">
-        <v>0.999616624686149</v>
+        <v>0.9973723393522813</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>41556</v>
+        <v>41197</v>
       </c>
       <c r="B91">
-        <v>0.9975036743563365</v>
+        <v>1.018059067295121</v>
       </c>
       <c r="C91">
-        <v>0.9975650617066478</v>
+        <v>0.9923596048897457</v>
       </c>
       <c r="D91">
-        <v>1.002203637988089</v>
+        <v>0.996493165574091</v>
       </c>
       <c r="E91">
-        <v>0.9994033087005296</v>
+        <v>0.9972852519843197</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>41557</v>
+        <v>41198</v>
       </c>
       <c r="B92">
-        <v>0.9974449815521624</v>
+        <v>1.017960547921112</v>
       </c>
       <c r="C92">
-        <v>0.9988201733525873</v>
+        <v>0.9911557516117141</v>
       </c>
       <c r="D92">
-        <v>1.002486709520391</v>
+        <v>0.9973983716512705</v>
       </c>
       <c r="E92">
-        <v>0.9996714955751654</v>
+        <v>0.9970313419580256</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>41558</v>
+        <v>41199</v>
       </c>
       <c r="B93">
-        <v>0.9966597182876007</v>
+        <v>1.018659971919916</v>
       </c>
       <c r="C93">
-        <v>0.9989543344266303</v>
+        <v>0.9906809946336191</v>
       </c>
       <c r="D93">
-        <v>1.002753811602157</v>
+        <v>0.997643156677112</v>
       </c>
       <c r="E93">
-        <v>0.9998682724254829</v>
+        <v>0.9969807958851102</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>41561</v>
+        <v>41200</v>
       </c>
       <c r="B94">
-        <v>0.9966673488285435</v>
+        <v>1.019356764848526</v>
       </c>
       <c r="C94">
-        <v>0.9989023303550599</v>
+        <v>0.9911535811632478</v>
       </c>
       <c r="D94">
-        <v>1.002721090877431</v>
+        <v>0.9980984399640566</v>
       </c>
       <c r="E94">
-        <v>0.9998396663187108</v>
+        <v>0.9967903831760497</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>41562</v>
+        <v>41201</v>
       </c>
       <c r="B95">
-        <v>0.9975206837357194</v>
+        <v>1.017976811964816</v>
       </c>
       <c r="C95">
-        <v>0.9988756567265461</v>
+        <v>0.9910932725263046</v>
       </c>
       <c r="D95">
-        <v>1.002415883081233</v>
+        <v>0.9972872929800519</v>
       </c>
       <c r="E95">
-        <v>0.9999417224401123</v>
+        <v>0.9969409195446027</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>41563</v>
+        <v>41204</v>
       </c>
       <c r="B96">
-        <v>0.9968245723899715</v>
+        <v>1.017818444666944</v>
       </c>
       <c r="C96">
-        <v>0.9992358529393728</v>
+        <v>0.9908518957962066</v>
       </c>
       <c r="D96">
-        <v>1.002620856388519</v>
+        <v>0.9969078776740969</v>
       </c>
       <c r="E96">
-        <v>1.000038206310626</v>
+        <v>0.9970086374665328</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>41564</v>
+        <v>41205</v>
       </c>
       <c r="B97">
-        <v>0.9983667935619633</v>
+        <v>1.017780053702648</v>
       </c>
       <c r="C97">
-        <v>0.9991599676222384</v>
+        <v>0.9920422247485969</v>
       </c>
       <c r="D97">
-        <v>1.002560241975609</v>
+        <v>0.9961946262590766</v>
       </c>
       <c r="E97">
-        <v>0.9999373180944958</v>
+        <v>0.9972390633101297</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>41565</v>
+        <v>41206</v>
       </c>
       <c r="B98">
-        <v>0.9982188573683459</v>
+        <v>1.017740937834831</v>
       </c>
       <c r="C98">
-        <v>0.9998160515791176</v>
+        <v>0.9924163547824726</v>
       </c>
       <c r="D98">
-        <v>1.002515733554867</v>
+        <v>0.9963262504042578</v>
       </c>
       <c r="E98">
-        <v>1.000279987452793</v>
+        <v>0.9970363157632484</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>41568</v>
+        <v>41207</v>
       </c>
       <c r="B99">
-        <v>0.9991386262570533</v>
+        <v>1.017660400940067</v>
       </c>
       <c r="C99">
-        <v>0.9997311038177217</v>
+        <v>0.991447405993669</v>
       </c>
       <c r="D99">
-        <v>1.002585698179629</v>
+        <v>0.9964521413919711</v>
       </c>
       <c r="E99">
-        <v>1.000605663818986</v>
+        <v>0.9972060343827303</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>41569</v>
+        <v>41208</v>
       </c>
       <c r="B100">
-        <v>1.000505167843099</v>
+        <v>1.017583798844726</v>
       </c>
       <c r="C100">
-        <v>0.9996628097185044</v>
+        <v>0.991530811528257</v>
       </c>
       <c r="D100">
-        <v>1.002679994929507</v>
+        <v>0.9962120890289186</v>
       </c>
       <c r="E100">
-        <v>1.000282227622765</v>
+        <v>0.997087572710167</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>41570</v>
+        <v>41211</v>
       </c>
       <c r="B101">
-        <v>0.9999506184989402</v>
+        <v>1.01841861500451</v>
       </c>
       <c r="C101">
-        <v>0.999879774038048</v>
+        <v>0.99137429514403</v>
       </c>
       <c r="D101">
-        <v>1.002705509034575</v>
+        <v>0.9960687402985237</v>
       </c>
       <c r="E101">
-        <v>1.000598382086739</v>
+        <v>0.9971901015288958</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>41571</v>
+        <v>41212</v>
       </c>
       <c r="B102">
-        <v>1.001929202594601</v>
+        <v>1.018334108304344</v>
       </c>
       <c r="C102">
-        <v>0.9999961129228208</v>
+        <v>0.9909067975921914</v>
       </c>
       <c r="D102">
-        <v>1.002468939356123</v>
+        <v>0.9962958033875535</v>
       </c>
       <c r="E102">
-        <v>1.000457831560029</v>
+        <v>0.9970737399855882</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>41572</v>
+        <v>41213</v>
       </c>
       <c r="B103">
-        <v>1.002309555567783</v>
+        <v>1.019631642873116</v>
       </c>
       <c r="C103">
-        <v>1.000167268362564</v>
+        <v>0.9903109066173096</v>
       </c>
       <c r="D103">
-        <v>1.002649635229762</v>
+        <v>0.9962686314297718</v>
       </c>
       <c r="E103">
-        <v>1.00027884950628</v>
+        <v>0.9974573133209413</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>41575</v>
+        <v>41214</v>
       </c>
       <c r="B104">
-        <v>1.002461979118523</v>
+        <v>1.019578140896415</v>
       </c>
       <c r="C104">
-        <v>0.9997292323594477</v>
+        <v>0.9900468250792152</v>
       </c>
       <c r="D104">
-        <v>1.002501781678078</v>
+        <v>0.9975823120315049</v>
       </c>
       <c r="E104">
-        <v>1.000075015589221</v>
+        <v>0.9980821011147993</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>41576</v>
+        <v>41215</v>
       </c>
       <c r="B105">
-        <v>1.001689562337719</v>
+        <v>1.018960870173065</v>
       </c>
       <c r="C105">
-        <v>1.000305068361378</v>
+        <v>0.9915251718121022</v>
       </c>
       <c r="D105">
-        <v>1.002470100521094</v>
+        <v>0.9975159713592966</v>
       </c>
       <c r="E105">
-        <v>0.9999929905035325</v>
+        <v>0.9982328382140234</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>41577</v>
+        <v>41218</v>
       </c>
       <c r="B106">
-        <v>1.002373651411383</v>
+        <v>1.018901526904753</v>
       </c>
       <c r="C106">
-        <v>0.9999985304989935</v>
+        <v>0.9917250588846197</v>
       </c>
       <c r="D106">
-        <v>1.002551976871829</v>
+        <v>0.9972546665097745</v>
       </c>
       <c r="E106">
-        <v>0.9999949792216494</v>
+        <v>0.9984966327517828</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>41578</v>
+        <v>41219</v>
       </c>
       <c r="B107">
-        <v>1.000934054709067</v>
+        <v>1.018811911463045</v>
       </c>
       <c r="C107">
-        <v>0.9992631861973711</v>
+        <v>0.9912489434992109</v>
       </c>
       <c r="D107">
-        <v>1.00295527070176</v>
+        <v>0.9969404040822957</v>
       </c>
       <c r="E107">
-        <v>0.9999186648086366</v>
+        <v>0.9986987819783226</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>41579</v>
+        <v>41220</v>
       </c>
       <c r="B108">
-        <v>0.9997695864754904</v>
+        <v>1.018089598695943</v>
       </c>
       <c r="C108">
-        <v>0.9994934481659526</v>
+        <v>0.9913192991079991</v>
       </c>
       <c r="D108">
-        <v>1.003186035398773</v>
+        <v>0.9952694051436665</v>
       </c>
       <c r="E108">
-        <v>0.9998316328719397</v>
+        <v>0.9984222226379904</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>41582</v>
+        <v>41221</v>
       </c>
       <c r="B109">
-        <v>1.000695908823699</v>
+        <v>1.018024008078219</v>
       </c>
       <c r="C109">
-        <v>0.9990368272720938</v>
+        <v>0.9908509257733317</v>
       </c>
       <c r="D109">
-        <v>1.004606975326419</v>
+        <v>0.9944087459269303</v>
       </c>
       <c r="E109">
-        <v>1.000134514666726</v>
+        <v>0.9986944954067408</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>41583</v>
+        <v>41222</v>
       </c>
       <c r="B110">
-        <v>1.000352850163309</v>
+        <v>1.018036057170739</v>
       </c>
       <c r="C110">
-        <v>0.9994359938095762</v>
+        <v>0.9911420444888077</v>
       </c>
       <c r="D110">
-        <v>1.004278132525795</v>
+        <v>0.994619393506582</v>
       </c>
       <c r="E110">
-        <v>0.9998432809278779</v>
+        <v>0.9990972965693931</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>41584</v>
+        <v>41225</v>
       </c>
       <c r="B111">
-        <v>1.000567909745586</v>
+        <v>1.01730080637793</v>
       </c>
       <c r="C111">
-        <v>0.9990047604109832</v>
+        <v>0.9915279751183905</v>
       </c>
       <c r="D111">
-        <v>1.004218306263784</v>
+        <v>0.9948449998211676</v>
       </c>
       <c r="E111">
-        <v>1.000037267270423</v>
+        <v>0.999374045806369</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>41585</v>
+        <v>41226</v>
       </c>
       <c r="B112">
-        <v>0.9994656843976163</v>
+        <v>1.017283257382813</v>
       </c>
       <c r="C112">
-        <v>0.9984352743526722</v>
+        <v>0.9919108420048279</v>
       </c>
       <c r="D112">
-        <v>1.004246176008911</v>
+        <v>0.9944175776794555</v>
       </c>
       <c r="E112">
-        <v>1.000107875227213</v>
+        <v>0.9990595489599423</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>41586</v>
+        <v>41227</v>
       </c>
       <c r="B113">
-        <v>0.9997150537403914</v>
+        <v>1.017357623635592</v>
       </c>
       <c r="C113">
-        <v>0.9989294960208736</v>
+        <v>0.9938626079412034</v>
       </c>
       <c r="D113">
-        <v>1.004313720709249</v>
+        <v>0.9939448057449655</v>
       </c>
       <c r="E113">
-        <v>1.000336164028246</v>
+        <v>0.9994814811190372</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>41589</v>
+        <v>41228</v>
       </c>
       <c r="B114">
-        <v>0.9998147722904027</v>
+        <v>1.016629326893862</v>
       </c>
       <c r="C114">
-        <v>0.9988405131549678</v>
+        <v>0.994854110037201</v>
       </c>
       <c r="D114">
-        <v>1.004367272163567</v>
+        <v>0.9939049177112923</v>
       </c>
       <c r="E114">
-        <v>1.000381174324782</v>
+        <v>0.9999476488482306</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>41590</v>
+        <v>41229</v>
       </c>
       <c r="B115">
-        <v>0.9993491187174373</v>
+        <v>1.01660516484936</v>
       </c>
       <c r="C115">
-        <v>0.998742326312995</v>
+        <v>0.9944887890333799</v>
       </c>
       <c r="D115">
-        <v>1.004255660662364</v>
+        <v>0.9943153046771621</v>
       </c>
       <c r="E115">
-        <v>1.000452579262837</v>
+        <v>1.000268772372425</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>41591</v>
+        <v>41232</v>
       </c>
       <c r="B116">
-        <v>0.9993256277005556</v>
+        <v>1.016475308016814</v>
       </c>
       <c r="C116">
-        <v>0.9986279595189483</v>
+        <v>0.9934165614149209</v>
       </c>
       <c r="D116">
-        <v>1.004074945007923</v>
+        <v>0.9950756283597292</v>
       </c>
       <c r="E116">
-        <v>1.000304698136619</v>
+        <v>1.000389957658928</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>41592</v>
+        <v>41233</v>
       </c>
       <c r="B117">
-        <v>1.000100101121142</v>
+        <v>1.018069264201964</v>
       </c>
       <c r="C117">
-        <v>0.9985749749803196</v>
+        <v>0.9935188382621015</v>
       </c>
       <c r="D117">
-        <v>1.00406810188618</v>
+        <v>0.9951412042033186</v>
       </c>
       <c r="E117">
-        <v>1.000762636478665</v>
+        <v>1.000490178009536</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>41593</v>
+        <v>41234</v>
       </c>
       <c r="B118">
-        <v>0.999760357949782</v>
+        <v>1.017299481297124</v>
       </c>
       <c r="C118">
-        <v>0.9988338581906758</v>
+        <v>0.9930821085838724</v>
       </c>
       <c r="D118">
-        <v>1.004282493539941</v>
+        <v>0.9951266510643734</v>
       </c>
       <c r="E118">
-        <v>1.00031114744705</v>
+        <v>1.00102263245949</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>41596</v>
+        <v>41235</v>
       </c>
       <c r="B119">
-        <v>0.9989872720682808</v>
+        <v>1.017249018743285</v>
       </c>
       <c r="C119">
-        <v>0.9985820690386228</v>
+        <v>0.9928197686486541</v>
       </c>
       <c r="D119">
-        <v>1.004709757049255</v>
+        <v>0.9960108145433736</v>
       </c>
       <c r="E119">
-        <v>1.000508630163891</v>
+        <v>1.002531683370209</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>41597</v>
+        <v>41236</v>
       </c>
       <c r="B120">
-        <v>0.9991194050255223</v>
+        <v>1.017954976375874</v>
       </c>
       <c r="C120">
-        <v>0.9982516241075171</v>
+        <v>0.9923606834992009</v>
       </c>
       <c r="D120">
-        <v>1.004757728996089</v>
+        <v>0.9960795397996318</v>
       </c>
       <c r="E120">
-        <v>1.000465966027686</v>
+        <v>1.002152460972345</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>41598</v>
+        <v>41239</v>
       </c>
       <c r="B121">
-        <v>0.9981360846810616</v>
+        <v>1.01789741566314</v>
       </c>
       <c r="C121">
-        <v>0.9983684639434568</v>
+        <v>0.9923947851608544</v>
       </c>
       <c r="D121">
-        <v>1.004729286988167</v>
+        <v>0.995636263321051</v>
       </c>
       <c r="E121">
-        <v>1.000431386804746</v>
+        <v>1.002556341333994</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>41599</v>
+        <v>41240</v>
       </c>
       <c r="B122">
-        <v>0.9980150459128992</v>
+        <v>1.017103440516052</v>
       </c>
       <c r="C122">
-        <v>0.9987813005266075</v>
+        <v>0.9930991252682992</v>
       </c>
       <c r="D122">
-        <v>1.004922714721245</v>
+        <v>0.9953992051615734</v>
       </c>
       <c r="E122">
-        <v>1.000447379405721</v>
+        <v>1.001609882112607</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>41600</v>
+        <v>41241</v>
       </c>
       <c r="B123">
-        <v>0.9976887005346255</v>
+        <v>1.017015009676575</v>
       </c>
       <c r="C123">
-        <v>0.9988914276924361</v>
+        <v>0.9927903926354446</v>
       </c>
       <c r="D123">
-        <v>1.004706139494711</v>
+        <v>0.9956554570553171</v>
       </c>
       <c r="E123">
-        <v>1.000344110430513</v>
+        <v>1.001745246861627</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>41603</v>
+        <v>41242</v>
       </c>
       <c r="B124">
-        <v>0.997891597501347</v>
+        <v>1.016908354275246</v>
       </c>
       <c r="C124">
-        <v>0.9987689359305458</v>
+        <v>0.9927400584892032</v>
       </c>
       <c r="D124">
-        <v>1.004520974202594</v>
+        <v>0.9964245563416096</v>
       </c>
       <c r="E124">
-        <v>1.000220542521645</v>
+        <v>1.001938198635036</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>41604</v>
+        <v>41243</v>
       </c>
       <c r="B125">
-        <v>0.9971260735764526</v>
+        <v>1.016163657064719</v>
       </c>
       <c r="C125">
-        <v>0.9983435468720711</v>
+        <v>0.9928544439712298</v>
       </c>
       <c r="D125">
-        <v>1.003636548037461</v>
+        <v>0.9967260263889839</v>
       </c>
       <c r="E125">
-        <v>1.002812189732819</v>
+        <v>1.001944373771981</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>41605</v>
+        <v>41246</v>
       </c>
       <c r="B126">
-        <v>0.9975252827094013</v>
+        <v>1.016998866651869</v>
       </c>
       <c r="C126">
-        <v>0.9982285675661925</v>
+        <v>0.993519995646442</v>
       </c>
       <c r="D126">
-        <v>1.00355001910844</v>
+        <v>0.9966042647185943</v>
       </c>
       <c r="E126">
-        <v>1.002910113194402</v>
+        <v>1.001977210368973</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>41606</v>
+        <v>41247</v>
       </c>
       <c r="B127">
-        <v>0.9978674236033006</v>
+        <v>1.016152952153088</v>
       </c>
       <c r="C127">
-        <v>0.998308648451545</v>
+        <v>0.9937663498081708</v>
       </c>
       <c r="D127">
-        <v>1.003574784497443</v>
+        <v>0.9963200390503424</v>
       </c>
       <c r="E127">
-        <v>1.003197207446328</v>
+        <v>1.002080692250403</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>41607</v>
+        <v>41248</v>
       </c>
       <c r="B128">
-        <v>0.9982020079986075</v>
+        <v>1.016142892617492</v>
       </c>
       <c r="C128">
-        <v>0.998149832406503</v>
+        <v>0.9944189924436061</v>
       </c>
       <c r="D128">
-        <v>1.003455988809985</v>
+        <v>0.9972348299726278</v>
       </c>
       <c r="E128">
-        <v>1.003588606506799</v>
+        <v>1.00210367957312</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>41610</v>
+        <v>41249</v>
       </c>
       <c r="B129">
-        <v>0.9967079587609038</v>
+        <v>1.016123360075917</v>
       </c>
       <c r="C129">
-        <v>0.9988854029741516</v>
+        <v>0.994292489964709</v>
       </c>
       <c r="D129">
-        <v>1.003671133089192</v>
+        <v>0.9973918171320658</v>
       </c>
       <c r="E129">
-        <v>1.003581256905785</v>
+        <v>1.002043531050105</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>41611</v>
+        <v>41250</v>
       </c>
       <c r="B130">
-        <v>0.996317720129663</v>
+        <v>1.015956912322753</v>
       </c>
       <c r="C130">
-        <v>0.9984903666869841</v>
+        <v>0.9942148300402736</v>
       </c>
       <c r="D130">
-        <v>1.00367617223897</v>
+        <v>0.9971801131214211</v>
       </c>
       <c r="E130">
-        <v>1.003243780034829</v>
+        <v>1.002179639394455</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>41612</v>
+        <v>41253</v>
       </c>
       <c r="B131">
-        <v>0.9971766054926521</v>
+        <v>1.015300826356011</v>
       </c>
       <c r="C131">
-        <v>0.9981835046109172</v>
+        <v>0.9938658940321602</v>
       </c>
       <c r="D131">
-        <v>1.00379318843247</v>
+        <v>0.9974157983780266</v>
       </c>
       <c r="E131">
-        <v>1.003588876002303</v>
+        <v>1.001981010015771</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>41613</v>
+        <v>41254</v>
       </c>
       <c r="B132">
-        <v>0.9962527825048588</v>
+        <v>1.017053675576338</v>
       </c>
       <c r="C132">
-        <v>0.9976859816767615</v>
+        <v>0.9936464327527329</v>
       </c>
       <c r="D132">
-        <v>1.00411676658012</v>
+        <v>0.9980514932221533</v>
       </c>
       <c r="E132">
-        <v>1.003518256049182</v>
+        <v>1.002361609401835</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>41614</v>
+        <v>41255</v>
       </c>
       <c r="B133">
-        <v>0.9962895799485989</v>
+        <v>1.016977658654801</v>
       </c>
       <c r="C133">
-        <v>0.997988991707</v>
+        <v>0.9928046854129894</v>
       </c>
       <c r="D133">
-        <v>1.004206264443107</v>
+        <v>0.9979963903725793</v>
       </c>
       <c r="E133">
-        <v>1.003319757835822</v>
+        <v>1.002950780289694</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>41617</v>
+        <v>41256</v>
       </c>
       <c r="B134">
-        <v>0.9969126268546517</v>
+        <v>1.01619068256169</v>
       </c>
       <c r="C134">
-        <v>0.9977156363075752</v>
+        <v>0.9936529664569587</v>
       </c>
       <c r="D134">
-        <v>1.004383627484497</v>
+        <v>0.9980182179137961</v>
       </c>
       <c r="E134">
-        <v>1.003320185838842</v>
+        <v>1.003402163340666</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>41618</v>
+        <v>41257</v>
       </c>
       <c r="B135">
-        <v>0.9980549902430703</v>
+        <v>1.016097600669755</v>
       </c>
       <c r="C135">
-        <v>0.9974612937445645</v>
+        <v>0.9932788266019492</v>
       </c>
       <c r="D135">
-        <v>1.003787006363268</v>
+        <v>0.998026869223266</v>
       </c>
       <c r="E135">
-        <v>1.00396399215265</v>
+        <v>1.003612731372022</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>41619</v>
+        <v>41260</v>
       </c>
       <c r="B136">
-        <v>0.9967033730404301</v>
+        <v>1.016048762814016</v>
       </c>
       <c r="C136">
-        <v>0.9965136218220406</v>
+        <v>0.9934818553994567</v>
       </c>
       <c r="D136">
-        <v>1.00340295478181</v>
+        <v>0.9980014777396148</v>
       </c>
       <c r="E136">
-        <v>1.003917913478022</v>
+        <v>1.003475586293965</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>41620</v>
+        <v>41261</v>
       </c>
       <c r="B137">
-        <v>0.9963081451829714</v>
+        <v>1.016015730219361</v>
       </c>
       <c r="C137">
-        <v>0.9964873398880001</v>
+        <v>0.9937401401777267</v>
       </c>
       <c r="D137">
-        <v>1.0033977779207</v>
+        <v>0.9986499303827843</v>
       </c>
       <c r="E137">
-        <v>1.003797728956812</v>
+        <v>1.003085047613242</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>41621</v>
+        <v>41262</v>
       </c>
       <c r="B138">
-        <v>0.9963612206180432</v>
+        <v>1.015961555705235</v>
       </c>
       <c r="C138">
-        <v>0.996653334467144</v>
+        <v>0.993589534270183</v>
       </c>
       <c r="D138">
-        <v>1.003113615711356</v>
+        <v>0.9992600275188528</v>
       </c>
       <c r="E138">
-        <v>1.003853787423352</v>
+        <v>1.002864591374383</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>41624</v>
+        <v>41263</v>
       </c>
       <c r="B139">
-        <v>0.9966178854611299</v>
+        <v>1.015916796445148</v>
       </c>
       <c r="C139">
-        <v>0.9970464385924883</v>
+        <v>0.9939926980018242</v>
       </c>
       <c r="D139">
-        <v>1.002952037210277</v>
+        <v>0.9995350894709898</v>
       </c>
       <c r="E139">
-        <v>1.004292707656349</v>
+        <v>1.003178589984139</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>41625</v>
+        <v>41264</v>
       </c>
       <c r="B140">
-        <v>0.996559944921819</v>
+        <v>1.015886874168177</v>
       </c>
       <c r="C140">
-        <v>0.9970342220458773</v>
+        <v>0.9937574981455534</v>
       </c>
       <c r="D140">
-        <v>1.003063683824922</v>
+        <v>0.9985192062146562</v>
       </c>
       <c r="E140">
-        <v>1.004621617332209</v>
+        <v>1.0011189423827</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>41626</v>
+        <v>41267</v>
       </c>
       <c r="B141">
-        <v>0.9964521162422688</v>
+        <v>1.015830061410846</v>
       </c>
       <c r="C141">
-        <v>0.9979101061887575</v>
+        <v>0.9939450261919801</v>
       </c>
       <c r="D141">
-        <v>1.003396328039037</v>
+        <v>0.998273808174894</v>
       </c>
       <c r="E141">
-        <v>1.004484412243652</v>
+        <v>1.000874359749213</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>41627</v>
+        <v>41269</v>
       </c>
       <c r="B142">
-        <v>0.996072407910857</v>
+        <v>1.015784921189037</v>
       </c>
       <c r="C142">
-        <v>0.9984571820903813</v>
+        <v>0.9939442071432105</v>
       </c>
       <c r="D142">
-        <v>1.003309109121636</v>
+        <v>0.9982099619212224</v>
       </c>
       <c r="E142">
-        <v>1.004193997904324</v>
+        <v>1.000894822109949</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>41628</v>
+        <v>41270</v>
       </c>
       <c r="B143">
-        <v>0.9961096575146956</v>
+        <v>1.015758747431361</v>
       </c>
       <c r="C143">
-        <v>0.9990676014453309</v>
+        <v>0.9936813804129706</v>
       </c>
       <c r="D143">
-        <v>1.001854303693425</v>
+        <v>0.9981197376410371</v>
       </c>
       <c r="E143">
-        <v>1.00386908989146</v>
+        <v>1.002103273641895</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>41631</v>
+        <v>41271</v>
       </c>
       <c r="B144">
-        <v>0.9960213202469941</v>
+        <v>1.015739885219565</v>
       </c>
       <c r="C144">
-        <v>0.9994317311759524</v>
+        <v>0.9941003120135588</v>
       </c>
       <c r="D144">
-        <v>1.001692075286299</v>
+        <v>0.9978829230761224</v>
       </c>
       <c r="E144">
-        <v>1.003768274825729</v>
+        <v>1.002223075086068</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>41632</v>
+        <v>41274</v>
       </c>
       <c r="B145">
-        <v>0.9970475108907865</v>
+        <v>1.015641383168177</v>
       </c>
       <c r="C145">
-        <v>0.9995908659534899</v>
+        <v>0.9929513996719452</v>
       </c>
       <c r="D145">
-        <v>1.001409611190841</v>
+        <v>0.9982153722171788</v>
       </c>
       <c r="E145">
-        <v>1.00365200945118</v>
+        <v>1.002092297533454</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>41634</v>
+        <v>41276</v>
       </c>
       <c r="B146">
-        <v>0.9970582690868744</v>
+        <v>1.015551561519104</v>
       </c>
       <c r="C146">
-        <v>0.99954328586246</v>
+        <v>0.9922842114015394</v>
       </c>
       <c r="D146">
-        <v>1.001381617113178</v>
+        <v>0.9986410879891433</v>
       </c>
       <c r="E146">
-        <v>1.003616670199687</v>
+        <v>1.001749675852268</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>41635</v>
+        <v>41277</v>
       </c>
       <c r="B147">
-        <v>0.9977877246394502</v>
+        <v>1.015553490563066</v>
       </c>
       <c r="C147">
-        <v>0.9996143679253452</v>
+        <v>0.9934149929105941</v>
       </c>
       <c r="D147">
-        <v>1.001936087626436</v>
+        <v>0.9990183564310332</v>
       </c>
       <c r="E147">
-        <v>1.003560251885754</v>
+        <v>1.001468147832445</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>41638</v>
+        <v>41278</v>
       </c>
       <c r="B148">
-        <v>0.9967739304534369</v>
+        <v>1.015505841261861</v>
       </c>
       <c r="C148">
-        <v>0.9997398176799631</v>
+        <v>0.9932319420395899</v>
       </c>
       <c r="D148">
-        <v>1.002142906078281</v>
+        <v>0.9995614750631855</v>
       </c>
       <c r="E148">
-        <v>1.003616907939828</v>
+        <v>1.0017259065995</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>41639</v>
+        <v>41281</v>
       </c>
       <c r="B149">
-        <v>0.9973696334437141</v>
+        <v>1.015451579363268</v>
       </c>
       <c r="C149">
-        <v>0.9996382257778516</v>
+        <v>0.9938545526670828</v>
       </c>
       <c r="D149">
-        <v>1.001888064428449</v>
+        <v>0.9996036706737745</v>
       </c>
       <c r="E149">
-        <v>1.003439509764341</v>
+        <v>1.001709365277649</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>41641</v>
+        <v>41282</v>
       </c>
       <c r="B150">
-        <v>0.9987414895274139</v>
+        <v>1.015408060031449</v>
       </c>
       <c r="C150">
-        <v>0.9993000231101411</v>
+        <v>0.9936515963649577</v>
       </c>
       <c r="D150">
-        <v>1.001248798583674</v>
+        <v>0.9994569907785145</v>
       </c>
       <c r="E150">
-        <v>1.003442924475792</v>
+        <v>1.001758325094184</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>41642</v>
+        <v>41283</v>
       </c>
       <c r="B151">
-        <v>0.9982950238203245</v>
+        <v>1.015366236687654</v>
       </c>
       <c r="C151">
-        <v>0.9989702944260161</v>
+        <v>0.9938128068340302</v>
       </c>
       <c r="D151">
-        <v>1.001257524375081</v>
+        <v>0.9994407119897386</v>
       </c>
       <c r="E151">
-        <v>1.003389014185636</v>
+        <v>1.001468269791397</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>41645</v>
+        <v>41284</v>
       </c>
       <c r="B152">
-        <v>0.9985355255067817</v>
+        <v>1.015261171971714</v>
       </c>
       <c r="C152">
-        <v>0.998710699424464</v>
+        <v>0.992927386883583</v>
       </c>
       <c r="D152">
-        <v>1.000706547632973</v>
+        <v>0.999508544691127</v>
       </c>
       <c r="E152">
-        <v>1.003219238911065</v>
+        <v>1.00178864610561</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>41646</v>
+        <v>41285</v>
       </c>
       <c r="B153">
-        <v>0.9988206515018994</v>
+        <v>1.015243361483646</v>
       </c>
       <c r="C153">
-        <v>0.9996808788645076</v>
+        <v>0.9928401836975965</v>
       </c>
       <c r="D153">
-        <v>1.000070746258274</v>
+        <v>0.9998403096168516</v>
       </c>
       <c r="E153">
-        <v>1.003349071626185</v>
+        <v>1.00301247961451</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>41647</v>
+        <v>41288</v>
       </c>
       <c r="B154">
-        <v>0.9987683455073951</v>
+        <v>1.015170851857918</v>
       </c>
       <c r="C154">
-        <v>1.000013587870983</v>
+        <v>0.9928306204119274</v>
       </c>
       <c r="D154">
-        <v>1.000112290457802</v>
+        <v>1.0002115357643</v>
       </c>
       <c r="E154">
-        <v>1.003106562483105</v>
+        <v>1.00401331225533</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>41648</v>
+        <v>41289</v>
       </c>
       <c r="B155">
-        <v>0.9983593733662723</v>
+        <v>1.015121344021734</v>
       </c>
       <c r="C155">
-        <v>1.000362204634355</v>
+        <v>0.9925088147152745</v>
       </c>
       <c r="D155">
-        <v>0.9997778206712382</v>
+        <v>1.000115693990288</v>
       </c>
       <c r="E155">
-        <v>1.003247447452823</v>
+        <v>1.00369385622802</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>41649</v>
+        <v>41290</v>
       </c>
       <c r="B156">
-        <v>0.9995121062337645</v>
+        <v>1.01509991568742</v>
       </c>
       <c r="C156">
-        <v>1.00081127321713</v>
+        <v>0.9927859514376702</v>
       </c>
       <c r="D156">
-        <v>0.9997941591682741</v>
+        <v>0.9999346690768239</v>
       </c>
       <c r="E156">
-        <v>1.003283604887466</v>
+        <v>1.003977205406009</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>41652</v>
+        <v>41291</v>
       </c>
       <c r="B157">
-        <v>1.000278921311195</v>
+        <v>1.015029791682017</v>
       </c>
       <c r="C157">
-        <v>0.9999673505958858</v>
+        <v>0.9926740777188428</v>
       </c>
       <c r="D157">
-        <v>0.9999451562825188</v>
+        <v>1.000470586908141</v>
       </c>
       <c r="E157">
-        <v>1.003156306869804</v>
+        <v>1.003897778186802</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>41653</v>
+        <v>41292</v>
       </c>
       <c r="B158">
-        <v>0.999954614618623</v>
+        <v>1.014985623054019</v>
       </c>
       <c r="C158">
-        <v>1.000261400782078</v>
+        <v>0.9923907640418689</v>
       </c>
       <c r="D158">
-        <v>1.000016123655274</v>
+        <v>1.000886342654769</v>
       </c>
       <c r="E158">
-        <v>1.00320147548907</v>
+        <v>1.004467761561773</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>41654</v>
+        <v>41295</v>
       </c>
       <c r="B159">
-        <v>1.00051281619284</v>
+        <v>1.01492102886053</v>
       </c>
       <c r="C159">
-        <v>1.000890505678991</v>
+        <v>0.9919196882908835</v>
       </c>
       <c r="D159">
-        <v>0.9999919361494343</v>
+        <v>1.001427195635743</v>
       </c>
       <c r="E159">
-        <v>1.003043163496832</v>
+        <v>1.005363427993793</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>41655</v>
+        <v>41296</v>
       </c>
       <c r="B160">
-        <v>1.000977505862447</v>
+        <v>1.014865972778527</v>
       </c>
       <c r="C160">
-        <v>1.001221275412868</v>
+        <v>0.9916207950520004</v>
       </c>
       <c r="D160">
-        <v>1.0000450090331</v>
+        <v>1.001382461198875</v>
       </c>
       <c r="E160">
-        <v>1.002821295506035</v>
+        <v>1.00557160375075</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>41656</v>
+        <v>41297</v>
       </c>
       <c r="B161">
-        <v>1.002160460002338</v>
+        <v>1.014871566175732</v>
       </c>
       <c r="C161">
-        <v>1.001254922198652</v>
+        <v>0.992650300730994</v>
       </c>
       <c r="D161">
-        <v>0.9993801701567964</v>
+        <v>1.00158862953386</v>
       </c>
       <c r="E161">
-        <v>1.002935809012814</v>
+        <v>1.005265250825867</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>41659</v>
+        <v>41298</v>
       </c>
       <c r="B162">
-        <v>1.002949072947234</v>
+        <v>1.014854937882064</v>
       </c>
       <c r="C162">
-        <v>1.001785361932801</v>
+        <v>0.9933672240884377</v>
       </c>
       <c r="D162">
-        <v>0.998713872290913</v>
+        <v>1.002546289337008</v>
       </c>
       <c r="E162">
-        <v>1.002681438659779</v>
+        <v>1.005286499993186</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>41660</v>
+        <v>41299</v>
       </c>
       <c r="B163">
-        <v>1.00260049836587</v>
+        <v>1.014834910786997</v>
       </c>
       <c r="C163">
-        <v>1.001479363015167</v>
+        <v>0.994169697066659</v>
       </c>
       <c r="D163">
-        <v>0.9986160208234609</v>
+        <v>1.002929363820549</v>
       </c>
       <c r="E163">
-        <v>1.002567558590364</v>
+        <v>1.005097744482318</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>41661</v>
+        <v>41302</v>
       </c>
       <c r="B164">
-        <v>1.001745325579345</v>
+        <v>1.014785136281139</v>
       </c>
       <c r="C164">
-        <v>1.002049655835876</v>
+        <v>0.9943226423085015</v>
       </c>
       <c r="D164">
-        <v>0.9977335314546655</v>
+        <v>1.002627152391638</v>
       </c>
       <c r="E164">
-        <v>1.002557526431184</v>
+        <v>1.004338605158218</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>41662</v>
+        <v>41303</v>
       </c>
       <c r="B165">
-        <v>1.002468047229269</v>
+        <v>1.014744629028043</v>
       </c>
       <c r="C165">
-        <v>1.001343144669685</v>
+        <v>0.9941279481973155</v>
       </c>
       <c r="D165">
-        <v>0.9976800628602067</v>
+        <v>1.002306244442058</v>
       </c>
       <c r="E165">
-        <v>1.002629449780809</v>
+        <v>1.004051526384896</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>41663</v>
+        <v>41304</v>
       </c>
       <c r="B166">
-        <v>1.002113430632558</v>
+        <v>1.014695644231034</v>
       </c>
       <c r="C166">
-        <v>1.000038292309807</v>
+        <v>0.9943372694287532</v>
       </c>
       <c r="D166">
-        <v>0.9977412531940598</v>
+        <v>1.001934677862515</v>
       </c>
       <c r="E166">
-        <v>1.002440758896257</v>
+        <v>1.00293588530433</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>41666</v>
+        <v>41305</v>
       </c>
       <c r="B167">
-        <v>1.001299436013753</v>
+        <v>1.014691855787466</v>
       </c>
       <c r="C167">
-        <v>0.9998569607720426</v>
+        <v>0.9951864522925473</v>
       </c>
       <c r="D167">
-        <v>0.9977519812917244</v>
+        <v>1.001184582539328</v>
       </c>
       <c r="E167">
-        <v>1.002319747828185</v>
+        <v>1.002526800140903</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>41667</v>
+        <v>41306</v>
       </c>
       <c r="B168">
-        <v>1.002044019162191</v>
+        <v>1.014609193313866</v>
       </c>
       <c r="C168">
-        <v>1.000448133038982</v>
+        <v>0.9945801184034605</v>
       </c>
       <c r="D168">
-        <v>0.9976583320569423</v>
+        <v>1.001392892053583</v>
       </c>
       <c r="E168">
-        <v>1.002199725901745</v>
+        <v>1.002535101575014</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>41668</v>
+        <v>41309</v>
       </c>
       <c r="B169">
-        <v>1.002970616390844</v>
+        <v>1.014581045088335</v>
       </c>
       <c r="C169">
-        <v>0.9997482768245043</v>
+        <v>0.9945683070877546</v>
       </c>
       <c r="D169">
-        <v>0.9974814879864169</v>
+        <v>1.001435654254316</v>
       </c>
       <c r="E169">
-        <v>1.001812835958241</v>
+        <v>1.004118867854825</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>41669</v>
+        <v>41310</v>
       </c>
       <c r="B170">
-        <v>1.002386279983117</v>
+        <v>1.014516614939896</v>
       </c>
       <c r="C170">
-        <v>1.000478617320553</v>
+        <v>0.9943820459844027</v>
       </c>
       <c r="D170">
-        <v>0.9979249056139866</v>
+        <v>1.001993484194869</v>
       </c>
       <c r="E170">
-        <v>1.001970536492412</v>
+        <v>1.004591808473666</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>41670</v>
+        <v>41311</v>
       </c>
       <c r="B171">
-        <v>1.002388678650693</v>
+        <v>1.01447161395874</v>
       </c>
       <c r="C171">
-        <v>1.000071750607186</v>
+        <v>0.9943061835792703</v>
       </c>
       <c r="D171">
-        <v>0.9983015735078106</v>
+        <v>1.002055653758688</v>
       </c>
       <c r="E171">
-        <v>1.002241405932042</v>
+        <v>1.004584601037342</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>41673</v>
+        <v>41312</v>
       </c>
       <c r="B172">
-        <v>1.0018618365392</v>
+        <v>1.014438201843848</v>
       </c>
       <c r="C172">
-        <v>0.9984797463507754</v>
+        <v>0.9941704765604853</v>
       </c>
       <c r="D172">
-        <v>0.9981448075280529</v>
+        <v>1.001965190660429</v>
       </c>
       <c r="E172">
-        <v>1.001928411729821</v>
+        <v>1.005200148166023</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>41674</v>
+        <v>41313</v>
       </c>
       <c r="B173">
-        <v>1.002149511700366</v>
+        <v>1.014421778345676</v>
       </c>
       <c r="C173">
-        <v>0.9988815971918872</v>
+        <v>0.9942128082829155</v>
       </c>
       <c r="D173">
-        <v>0.9976281817120315</v>
+        <v>1.002045931684476</v>
       </c>
       <c r="E173">
-        <v>1.001902721220337</v>
+        <v>1.00492791271137</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>41675</v>
+        <v>41316</v>
       </c>
       <c r="B174">
-        <v>1.001674715760333</v>
+        <v>1.014386229430394</v>
       </c>
       <c r="C174">
-        <v>0.9993172415049486</v>
+        <v>0.9949656658937407</v>
       </c>
       <c r="D174">
-        <v>0.9977108597408624</v>
+        <v>1.001915827553789</v>
       </c>
       <c r="E174">
-        <v>1.001792952534295</v>
+        <v>1.00453164144733</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>41676</v>
+        <v>41317</v>
       </c>
       <c r="B175">
-        <v>1.001698042000877</v>
+        <v>1.014370194342973</v>
       </c>
       <c r="C175">
-        <v>1.000169039612163</v>
+        <v>0.994734524354597</v>
       </c>
       <c r="D175">
-        <v>0.9979117717327536</v>
+        <v>1.002026620679313</v>
       </c>
       <c r="E175">
-        <v>1.001492970915211</v>
+        <v>1.004146657831658</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>41677</v>
+        <v>41318</v>
       </c>
       <c r="B176">
-        <v>1.00282550146959</v>
+        <v>1.01433384528998</v>
       </c>
       <c r="C176">
-        <v>1.000146081523739</v>
+        <v>0.9951515933851786</v>
       </c>
       <c r="D176">
-        <v>0.9979907969087004</v>
+        <v>1.002003951943424</v>
       </c>
       <c r="E176">
-        <v>1.00152994509824</v>
+        <v>1.003269981905866</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>41680</v>
+        <v>41319</v>
       </c>
       <c r="B177">
-        <v>1.004077417436985</v>
+        <v>1.0142797313151</v>
       </c>
       <c r="C177">
-        <v>0.999766507189041</v>
+        <v>0.9951954324303709</v>
       </c>
       <c r="D177">
-        <v>0.9977035785565802</v>
+        <v>1.001694625466768</v>
       </c>
       <c r="E177">
-        <v>1.001736137145309</v>
+        <v>1.004191763694564</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>41681</v>
+        <v>41320</v>
       </c>
       <c r="B178">
-        <v>1.004994144033245</v>
+        <v>1.014267643479627</v>
       </c>
       <c r="C178">
-        <v>1.000014363440431</v>
+        <v>0.9962516971132614</v>
       </c>
       <c r="D178">
-        <v>0.997864489704584</v>
+        <v>1.001895259903553</v>
       </c>
       <c r="E178">
-        <v>1.002003377108814</v>
+        <v>1.003582967463784</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>41682</v>
+        <v>41324</v>
       </c>
       <c r="B179">
-        <v>1.004069476351916</v>
+        <v>1.01421956454415</v>
       </c>
       <c r="C179">
-        <v>1.000527071391591</v>
+        <v>0.9959781557856534</v>
       </c>
       <c r="D179">
-        <v>0.9980448235569568</v>
+        <v>1.00261325153051</v>
       </c>
       <c r="E179">
-        <v>1.001701254270064</v>
+        <v>1.003532986087746</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>41683</v>
+        <v>41325</v>
       </c>
       <c r="B180">
-        <v>1.005009162341854</v>
+        <v>1.014220191799697</v>
       </c>
       <c r="C180">
-        <v>1.000363644164849</v>
+        <v>0.9975014273554157</v>
       </c>
       <c r="D180">
-        <v>0.998387745551641</v>
+        <v>1.002557947483739</v>
       </c>
       <c r="E180">
-        <v>1.001679270526381</v>
+        <v>1.003221051576519</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>41684</v>
+        <v>41326</v>
       </c>
       <c r="B181">
-        <v>1.005537741711928</v>
+        <v>1.014192338384183</v>
       </c>
       <c r="C181">
-        <v>1.000318320640866</v>
+        <v>0.9972563050333637</v>
       </c>
       <c r="D181">
-        <v>0.9986968629740675</v>
+        <v>1.001494963293329</v>
       </c>
       <c r="E181">
-        <v>1.002004190077001</v>
+        <v>1.003716722751293</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>41688</v>
+        <v>41327</v>
       </c>
       <c r="B182">
-        <v>1.005580135217905</v>
+        <v>1.014149227006047</v>
       </c>
       <c r="C182">
-        <v>1.000437385575717</v>
+        <v>0.9971539390861899</v>
       </c>
       <c r="D182">
-        <v>0.9981683196300646</v>
+        <v>1.002004052024416</v>
       </c>
       <c r="E182">
-        <v>1.001794689183383</v>
+        <v>1.002967473066585</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>41689</v>
+        <v>41330</v>
       </c>
       <c r="B183">
-        <v>1.004981108640057</v>
+        <v>1.014101769220787</v>
       </c>
       <c r="C183">
-        <v>1.000631271993262</v>
+        <v>0.9967527385567809</v>
       </c>
       <c r="D183">
-        <v>0.9985776128408793</v>
+        <v>1.001149487114538</v>
       </c>
       <c r="E183">
-        <v>1.001983573414932</v>
+        <v>1.003294451455445</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>41690</v>
+        <v>41331</v>
       </c>
       <c r="B184">
-        <v>1.006227067952025</v>
+        <v>1.014047461023246</v>
       </c>
       <c r="C184">
-        <v>1.000916674842902</v>
+        <v>0.996385568593689</v>
       </c>
       <c r="D184">
-        <v>0.9981235220554715</v>
+        <v>1.000873667600453</v>
       </c>
       <c r="E184">
-        <v>1.002681194466953</v>
+        <v>1.003343201841515</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>41691</v>
+        <v>41332</v>
       </c>
       <c r="B185">
-        <v>1.005997504247512</v>
+        <v>1.013999849615491</v>
       </c>
       <c r="C185">
-        <v>1.000738078141509</v>
+        <v>0.9967060341754235</v>
       </c>
       <c r="D185">
-        <v>0.998321441438958</v>
+        <v>1.001771645621337</v>
       </c>
       <c r="E185">
-        <v>1.002833697230437</v>
+        <v>1.003150513973497</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>41694</v>
+        <v>41333</v>
       </c>
       <c r="B186">
-        <v>1.005844435345499</v>
+        <v>1.013983878188884</v>
       </c>
       <c r="C186">
-        <v>1.001045599041133</v>
+        <v>0.9969374806392586</v>
       </c>
       <c r="D186">
-        <v>0.9977967248982768</v>
+        <v>1.002567742894855</v>
       </c>
       <c r="E186">
-        <v>1.002471068236099</v>
+        <v>1.003147007167972</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>41695</v>
+        <v>41334</v>
       </c>
       <c r="B187">
-        <v>1.005476466498966</v>
+        <v>1.013938852988348</v>
       </c>
       <c r="C187">
-        <v>1.001220491805028</v>
+        <v>0.9974067225751142</v>
       </c>
       <c r="D187">
-        <v>0.9969603343438803</v>
+        <v>1.002404652361875</v>
       </c>
       <c r="E187">
-        <v>1.002115156317155</v>
+        <v>1.002973515364748</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>41696</v>
+        <v>41337</v>
       </c>
       <c r="B188">
-        <v>1.005225194949079</v>
+        <v>1.013914167039472</v>
       </c>
       <c r="C188">
-        <v>1.001463109076045</v>
+        <v>0.9986869027826991</v>
       </c>
       <c r="D188">
-        <v>0.9972765828908667</v>
+        <v>1.002423319833211</v>
       </c>
       <c r="E188">
-        <v>1.002443231167591</v>
+        <v>1.002674783031851</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>41697</v>
+        <v>41338</v>
       </c>
       <c r="B189">
-        <v>1.005137907441653</v>
+        <v>1.013863474278142</v>
       </c>
       <c r="C189">
-        <v>1.001122113962507</v>
+        <v>0.9986266249574057</v>
       </c>
       <c r="D189">
-        <v>0.9973396812857206</v>
+        <v>1.002574385788312</v>
       </c>
       <c r="E189">
-        <v>1.002203229405527</v>
+        <v>1.002420306262892</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>41698</v>
+        <v>41339</v>
       </c>
       <c r="B190">
-        <v>1.004793787705419</v>
+        <v>1.013786622494826</v>
       </c>
       <c r="C190">
-        <v>1.000919878945992</v>
+        <v>0.9972178487202825</v>
       </c>
       <c r="D190">
-        <v>0.9979835495880227</v>
+        <v>1.002756867944099</v>
       </c>
       <c r="E190">
-        <v>1.002285288087218</v>
+        <v>1.003036405473525</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>41701</v>
+        <v>41340</v>
       </c>
       <c r="B191">
-        <v>1.005180972677868</v>
+        <v>1.013758153758215</v>
       </c>
       <c r="C191">
-        <v>1.000770121528394</v>
+        <v>0.9974729514057438</v>
       </c>
       <c r="D191">
-        <v>0.9974843543181922</v>
+        <v>1.003153373225964</v>
       </c>
       <c r="E191">
-        <v>1.002016821945942</v>
+        <v>1.002670743432287</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>41702</v>
+        <v>41341</v>
       </c>
       <c r="B192">
-        <v>1.005074539809228</v>
+        <v>1.013700851612352</v>
       </c>
       <c r="C192">
-        <v>1.001322384184343</v>
+        <v>0.9970826552097075</v>
       </c>
       <c r="D192">
-        <v>0.9977173823094476</v>
+        <v>1.003257470687829</v>
       </c>
       <c r="E192">
-        <v>1.00204888967429</v>
+        <v>1.002490758226534</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>41703</v>
+        <v>41344</v>
       </c>
       <c r="B193">
-        <v>1.005253630927757</v>
+        <v>1.013661254223562</v>
       </c>
       <c r="C193">
-        <v>1.00087302949309</v>
+        <v>0.9971605308521913</v>
       </c>
       <c r="D193">
-        <v>0.9978298349290009</v>
+        <v>1.003855194211403</v>
       </c>
       <c r="E193">
-        <v>1.00211875163015</v>
+        <v>1.003745418778837</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>41704</v>
+        <v>41345</v>
       </c>
       <c r="B194">
-        <v>1.005317500393446</v>
+        <v>1.013580885811316</v>
       </c>
       <c r="C194">
-        <v>1.000481178266432</v>
+        <v>0.9962593011411214</v>
       </c>
       <c r="D194">
-        <v>0.9978338766796629</v>
+        <v>1.003140971905861</v>
       </c>
       <c r="E194">
-        <v>1.0021235076984</v>
+        <v>1.003647121544117</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>41705</v>
+        <v>41346</v>
       </c>
       <c r="B195">
-        <v>1.00482193081845</v>
+        <v>1.013580715650619</v>
       </c>
       <c r="C195">
-        <v>1.000984067652332</v>
+        <v>0.9973163009490327</v>
       </c>
       <c r="D195">
-        <v>0.9980570132717117</v>
+        <v>1.003215778095436</v>
       </c>
       <c r="E195">
-        <v>1.002507371548649</v>
+        <v>1.004526337537183</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>41708</v>
+        <v>41347</v>
       </c>
       <c r="B196">
-        <v>1.004574207970256</v>
+        <v>1.013538663333733</v>
       </c>
       <c r="C196">
-        <v>1.001038517494238</v>
+        <v>0.9969637974737645</v>
       </c>
       <c r="D196">
-        <v>0.9982054998252351</v>
+        <v>1.003327091718575</v>
       </c>
       <c r="E196">
-        <v>1.002393316376109</v>
+        <v>1.004047028128616</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>41709</v>
+        <v>41348</v>
       </c>
       <c r="B197">
-        <v>1.004387713016215</v>
+        <v>1.013494044884329</v>
       </c>
       <c r="C197">
-        <v>1.000316215420875</v>
+        <v>0.9968980074272541</v>
       </c>
       <c r="D197">
-        <v>0.9981934514943213</v>
+        <v>1.003417703681016</v>
       </c>
       <c r="E197">
-        <v>1.002457251148229</v>
+        <v>1.003926204700108</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>41710</v>
+        <v>41351</v>
       </c>
       <c r="B198">
-        <v>1.005541225113931</v>
+        <v>1.013446452691368</v>
       </c>
       <c r="C198">
-        <v>1.000290100464578</v>
+        <v>0.9968279154847967</v>
       </c>
       <c r="D198">
-        <v>0.9981619525522846</v>
+        <v>1.0028316140276</v>
       </c>
       <c r="E198">
-        <v>1.002435035589844</v>
+        <v>1.004174086927701</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>41711</v>
+        <v>41352</v>
       </c>
       <c r="B199">
-        <v>1.006217863694659</v>
+        <v>1.013410224614294</v>
       </c>
       <c r="C199">
-        <v>0.9993680426224499</v>
+        <v>0.9968117341356854</v>
       </c>
       <c r="D199">
-        <v>0.9980741428832504</v>
+        <v>1.002608426492514</v>
       </c>
       <c r="E199">
-        <v>1.002383164637844</v>
+        <v>1.004173396676508</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>41712</v>
+        <v>41353</v>
       </c>
       <c r="B200">
-        <v>1.006333079581814</v>
+        <v>1.013339934067218</v>
       </c>
       <c r="C200">
-        <v>0.9994052926034851</v>
+        <v>0.9967270025966396</v>
       </c>
       <c r="D200">
-        <v>0.9977587717953451</v>
+        <v>1.00333829531762</v>
       </c>
       <c r="E200">
-        <v>1.002242666287894</v>
+        <v>1.004710503065979</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>41715</v>
+        <v>41354</v>
       </c>
       <c r="B201">
-        <v>1.005266508080031</v>
+        <v>1.013296703409551</v>
       </c>
       <c r="C201">
-        <v>0.9997931027449867</v>
+        <v>0.9964689373753148</v>
       </c>
       <c r="D201">
-        <v>0.9981404024705205</v>
+        <v>1.002325312716895</v>
       </c>
       <c r="E201">
-        <v>1.002348702519517</v>
+        <v>1.005051909999862</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2">
-        <v>41716</v>
+        <v>41355</v>
       </c>
       <c r="B202">
-        <v>1.005350771372881</v>
+        <v>1.013249871487106</v>
       </c>
       <c r="C202">
-        <v>1.000779795429957</v>
+        <v>0.9964727719243239</v>
       </c>
       <c r="D202">
-        <v>0.9983873266167917</v>
+        <v>1.001937428748238</v>
       </c>
       <c r="E202">
-        <v>1.002303548539177</v>
+        <v>1.004351971028397</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2">
-        <v>41717</v>
+        <v>41358</v>
       </c>
       <c r="B203">
-        <v>1.004391059526433</v>
+        <v>1.013227026685331</v>
       </c>
       <c r="C203">
-        <v>1.00101034852577</v>
+        <v>0.9971171079640533</v>
       </c>
       <c r="D203">
-        <v>0.997976827211948</v>
+        <v>1.001442330242168</v>
       </c>
       <c r="E203">
-        <v>1.002351276112361</v>
+        <v>1.004089227050514</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2">
-        <v>41718</v>
+        <v>41359</v>
       </c>
       <c r="B204">
-        <v>1.004370430555047</v>
+        <v>1.013192048032446</v>
       </c>
       <c r="C204">
-        <v>1.001045495147611</v>
+        <v>0.9973873357851893</v>
       </c>
       <c r="D204">
-        <v>0.9981157056916989</v>
+        <v>1.001792998852198</v>
       </c>
       <c r="E204">
-        <v>1.002358345558861</v>
+        <v>1.00408241655434</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2">
-        <v>41719</v>
+        <v>41360</v>
       </c>
       <c r="B205">
-        <v>1.004416178092566</v>
+        <v>1.013142289951613</v>
       </c>
       <c r="C205">
-        <v>1.00092875884831</v>
+        <v>0.9969888651834342</v>
       </c>
       <c r="D205">
-        <v>0.9985331853283237</v>
+        <v>1.001426693691188</v>
       </c>
       <c r="E205">
-        <v>1.002157185854837</v>
+        <v>1.004279461556434</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="2">
-        <v>41722</v>
+        <v>41361</v>
       </c>
       <c r="B206">
-        <v>1.002964816136947</v>
+        <v>1.013086976018607</v>
       </c>
       <c r="C206">
-        <v>1.00093866681827</v>
+        <v>0.9969833950236749</v>
       </c>
       <c r="D206">
-        <v>0.9983496951448692</v>
+        <v>1.00179851469285</v>
       </c>
       <c r="E206">
-        <v>1.001946462792037</v>
+        <v>1.004337904492574</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="2">
-        <v>41723</v>
+        <v>41365</v>
       </c>
       <c r="B207">
-        <v>1.003058188461317</v>
+        <v>1.013074401843215</v>
       </c>
       <c r="C207">
-        <v>1.001052666610385</v>
+        <v>0.9975535938323287</v>
       </c>
       <c r="D207">
-        <v>0.9984782508399176</v>
+        <v>1.001523832773287</v>
       </c>
       <c r="E207">
-        <v>1.001996526788893</v>
+        <v>1.004663051752856</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2">
-        <v>41724</v>
+        <v>41366</v>
       </c>
       <c r="B208">
-        <v>1.001628495053972</v>
+        <v>1.013051138239695</v>
       </c>
       <c r="C208">
-        <v>1.000546235488973</v>
+        <v>0.9987868668806847</v>
       </c>
       <c r="D208">
-        <v>0.9986871973255212</v>
+        <v>1.002219702093886</v>
       </c>
       <c r="E208">
-        <v>1.001854514212907</v>
+        <v>1.004459655156765</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="2">
-        <v>41725</v>
+        <v>41367</v>
       </c>
       <c r="B209">
-        <v>1.001692941009767</v>
+        <v>1.013081708922084</v>
       </c>
       <c r="C209">
-        <v>1.000350571990389</v>
+        <v>1.000699622637899</v>
       </c>
       <c r="D209">
-        <v>0.9989136792592969</v>
+        <v>1.00131735696659</v>
       </c>
       <c r="E209">
-        <v>1.001538303292047</v>
+        <v>1.004768469205474</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="2">
-        <v>41726</v>
+        <v>41368</v>
       </c>
       <c r="B210">
-        <v>1.00241353015426</v>
+        <v>1.013021973685498</v>
       </c>
       <c r="C210">
-        <v>1.000398929367079</v>
+        <v>1.000236918925538</v>
       </c>
       <c r="D210">
-        <v>0.9997008525952285</v>
+        <v>1.000706863505873</v>
       </c>
       <c r="E210">
-        <v>1.00140992344208</v>
+        <v>1.004964463662562</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2">
-        <v>41729</v>
+        <v>41369</v>
       </c>
       <c r="B211">
-        <v>1.001731104078478</v>
+        <v>1.012984983342693</v>
       </c>
       <c r="C211">
-        <v>1.000928806139506</v>
+        <v>1.000131405995804</v>
       </c>
       <c r="D211">
-        <v>1.000219061371048</v>
+        <v>1.000647007636373</v>
       </c>
       <c r="E211">
-        <v>1.00153576903128</v>
+        <v>1.004783875800034</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2">
-        <v>41730</v>
+        <v>41372</v>
       </c>
       <c r="B212">
-        <v>1.001711985998749</v>
+        <v>1.012939231736535</v>
       </c>
       <c r="C212">
-        <v>1.001178651354776</v>
+        <v>1.000340248854258</v>
       </c>
       <c r="D212">
-        <v>1.00025233799784</v>
+        <v>1.00097893990825</v>
       </c>
       <c r="E212">
-        <v>1.001542741337774</v>
+        <v>1.004655698316982</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="2">
-        <v>41731</v>
+        <v>41373</v>
       </c>
       <c r="B213">
-        <v>1.002307192519848</v>
+        <v>1.012853935805071</v>
       </c>
       <c r="C213">
-        <v>1.001412315725514</v>
+        <v>0.9987908333890717</v>
       </c>
       <c r="D213">
-        <v>1.000173474542521</v>
+        <v>1.00132499862538</v>
       </c>
       <c r="E213">
-        <v>1.001678785989541</v>
+        <v>1.004579281163956</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2">
-        <v>41732</v>
+        <v>41374</v>
       </c>
       <c r="B214">
-        <v>1.002015616481395</v>
+        <v>1.012825583650211</v>
       </c>
       <c r="C214">
-        <v>1.001018229641133</v>
+        <v>0.9999176295046535</v>
       </c>
       <c r="D214">
-        <v>1.000061632682082</v>
+        <v>1.002297110341486</v>
       </c>
       <c r="E214">
-        <v>1.001579709297373</v>
+        <v>1.004170083803678</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2">
-        <v>41733</v>
+        <v>41375</v>
       </c>
       <c r="B215">
-        <v>1.002238706428424</v>
+        <v>1.012793309306798</v>
       </c>
       <c r="C215">
-        <v>1.00047460731098</v>
+        <v>1.000586211262188</v>
       </c>
       <c r="D215">
-        <v>1.000327495646661</v>
+        <v>1.001933664485205</v>
       </c>
       <c r="E215">
-        <v>1.001488500777604</v>
+        <v>1.003582566402815</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="2">
-        <v>41736</v>
+        <v>41376</v>
       </c>
       <c r="B216">
-        <v>1.001962085504527</v>
+        <v>1.012820857608066</v>
       </c>
       <c r="C216">
-        <v>0.999561633722037</v>
+        <v>1.002518504044536</v>
       </c>
       <c r="D216">
-        <v>1.000251938930135</v>
+        <v>1.001933906192577</v>
       </c>
       <c r="E216">
-        <v>1.001070692698906</v>
+        <v>1.003669279193546</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="2">
-        <v>41737</v>
+        <v>41379</v>
       </c>
       <c r="B217">
-        <v>1.00245663858585</v>
+        <v>1.012892687708899</v>
       </c>
       <c r="C217">
-        <v>0.9997615545052979</v>
+        <v>1.006026607072297</v>
       </c>
       <c r="D217">
-        <v>1.00022336039775</v>
+        <v>1.001248218744586</v>
       </c>
       <c r="E217">
-        <v>1.000803924660671</v>
+        <v>1.004240819025566</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2">
-        <v>41738</v>
+        <v>41380</v>
       </c>
       <c r="B218">
-        <v>1.002565114733392</v>
+        <v>1.012830187755234</v>
       </c>
       <c r="C218">
-        <v>1.000225972565232</v>
+        <v>1.00600785322181</v>
       </c>
       <c r="D218">
-        <v>1.000347822915272</v>
+        <v>1.002302521886824</v>
       </c>
       <c r="E218">
-        <v>1.001023244801689</v>
+        <v>1.004012052655241</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="2">
-        <v>41739</v>
+        <v>41381</v>
       </c>
       <c r="B219">
-        <v>1.002227563843409</v>
+        <v>1.012857372447803</v>
       </c>
       <c r="C219">
-        <v>0.9992239364052236</v>
+        <v>1.007958970741062</v>
       </c>
       <c r="D219">
-        <v>1.000503032228629</v>
+        <v>1.00161204577673</v>
       </c>
       <c r="E219">
-        <v>1.000658333954275</v>
+        <v>1.004424724325578</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="2">
-        <v>41740</v>
+        <v>41382</v>
       </c>
       <c r="B220">
-        <v>1.001941245654079</v>
+        <v>1.012787094932319</v>
       </c>
       <c r="C220">
-        <v>0.9987085238969673</v>
+        <v>1.006650152938559</v>
       </c>
       <c r="D220">
-        <v>1.000803451285869</v>
+        <v>1.001229509535189</v>
       </c>
       <c r="E220">
-        <v>1.000466073988259</v>
+        <v>1.004097471245878</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2">
-        <v>41743</v>
+        <v>41383</v>
       </c>
       <c r="B221">
-        <v>1.002409649811053</v>
+        <v>1.01271157251767</v>
       </c>
       <c r="C221">
-        <v>0.9987612755087709</v>
+        <v>1.00640061452055</v>
       </c>
       <c r="D221">
-        <v>1.001012162907072</v>
+        <v>1.001587319861555</v>
       </c>
       <c r="E221">
-        <v>1.000299278712517</v>
+        <v>1.00428802806953</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="2">
-        <v>41744</v>
+        <v>41386</v>
       </c>
       <c r="B222">
-        <v>1.001741385278707</v>
+        <v>1.012672855356701</v>
       </c>
       <c r="C222">
-        <v>0.9991931916312267</v>
+        <v>1.00564550161746</v>
       </c>
       <c r="D222">
-        <v>1.000932305956745</v>
+        <v>1.001289929822274</v>
       </c>
       <c r="E222">
-        <v>1.000294142151476</v>
+        <v>1.004451089050774</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="2">
-        <v>41745</v>
+        <v>41387</v>
       </c>
       <c r="B223">
-        <v>1.001487264433249</v>
+        <v>1.012629467060012</v>
       </c>
       <c r="C223">
-        <v>0.9999404781322945</v>
+        <v>1.006152088666995</v>
       </c>
       <c r="D223">
-        <v>1.001428909380125</v>
+        <v>1.001823211570004</v>
       </c>
       <c r="E223">
-        <v>1.000344466544419</v>
+        <v>1.004594853412869</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2">
-        <v>41746</v>
+        <v>41388</v>
       </c>
       <c r="B224">
-        <v>1.001362634748553</v>
+        <v>1.012503244775333</v>
       </c>
       <c r="C224">
-        <v>1.000051305902755</v>
+        <v>1.003939853755381</v>
       </c>
       <c r="D224">
-        <v>1.001516460145882</v>
+        <v>1.002098684511746</v>
       </c>
       <c r="E224">
-        <v>1.000292474715963</v>
+        <v>1.004781060436956</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2">
-        <v>41750</v>
+        <v>41389</v>
       </c>
       <c r="B225">
-        <v>1.000958618595545</v>
+        <v>1.012430061940497</v>
       </c>
       <c r="C225">
-        <v>1.000112307029064</v>
+        <v>1.003523192884227</v>
       </c>
       <c r="D225">
-        <v>1.00146036361922</v>
+        <v>1.00249011877744</v>
       </c>
       <c r="E225">
-        <v>1.000492236362027</v>
+        <v>1.004552176762288</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2">
-        <v>41751</v>
+        <v>41390</v>
       </c>
       <c r="B226">
-        <v>1.001547117220753</v>
+        <v>1.012438440256054</v>
       </c>
       <c r="C226">
-        <v>1.000577426696603</v>
+        <v>1.004983949782167</v>
       </c>
       <c r="D226">
-        <v>1.0012071854412</v>
+        <v>1.002272073530912</v>
       </c>
       <c r="E226">
-        <v>1.000573272031773</v>
+        <v>1.004753979031963</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="2">
-        <v>41752</v>
+        <v>41393</v>
       </c>
       <c r="B227">
-        <v>1.002022483291661</v>
+        <v>1.012373517885456</v>
       </c>
       <c r="C227">
-        <v>1.000332698259878</v>
+        <v>1.004656221343655</v>
       </c>
       <c r="D227">
-        <v>1.001097008265628</v>
+        <v>1.002710754348884</v>
       </c>
       <c r="E227">
-        <v>1.000502447596421</v>
+        <v>1.004971670191293</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2">
-        <v>41753</v>
+        <v>41394</v>
       </c>
       <c r="B228">
-        <v>1.001623199981504</v>
+        <v>1.012278921560348</v>
       </c>
       <c r="C228">
-        <v>1.000621043768744</v>
+        <v>1.003609160920345</v>
       </c>
       <c r="D228">
-        <v>1.001223918557335</v>
+        <v>1.003388861936278</v>
       </c>
       <c r="E228">
-        <v>1.000441204747338</v>
+        <v>1.005192218103979</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2">
-        <v>41754</v>
+        <v>41395</v>
       </c>
       <c r="B229">
-        <v>1.002140514714286</v>
+        <v>1.012258154240691</v>
       </c>
       <c r="C229">
-        <v>1.000155243979397</v>
+        <v>1.004536729511119</v>
       </c>
       <c r="D229">
-        <v>1.001024279515302</v>
+        <v>1.00287137085984</v>
       </c>
       <c r="E229">
-        <v>1.000284597083583</v>
+        <v>1.005003903421705</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2">
-        <v>41757</v>
+        <v>41396</v>
       </c>
       <c r="B230">
-        <v>1.001614445271196</v>
+        <v>1.012215382075953</v>
       </c>
       <c r="C230">
-        <v>1.000132623080084</v>
+        <v>1.004195943235641</v>
       </c>
       <c r="D230">
-        <v>1.000745462779121</v>
+        <v>1.002835262385011</v>
       </c>
       <c r="E230">
-        <v>1.000020321810181</v>
+        <v>1.004883751015041</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2">
-        <v>41758</v>
+        <v>41397</v>
       </c>
       <c r="B231">
-        <v>1.002130798919922</v>
+        <v>1.012148375417988</v>
       </c>
       <c r="C231">
-        <v>1.000060665852604</v>
+        <v>1.003750918016115</v>
       </c>
       <c r="D231">
-        <v>1.00066943043454</v>
+        <v>1.003115762124221</v>
       </c>
       <c r="E231">
-        <v>0.9996870642132154</v>
+        <v>1.004732504734794</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2">
-        <v>41759</v>
+        <v>41400</v>
       </c>
       <c r="B232">
-        <v>1.001950279076492</v>
+        <v>1.012115199331136</v>
       </c>
       <c r="C232">
-        <v>1.000522393575905</v>
+        <v>1.003887138181619</v>
       </c>
       <c r="D232">
-        <v>1.001054139082287</v>
+        <v>1.003314047067158</v>
       </c>
       <c r="E232">
-        <v>0.999071118911122</v>
+        <v>1.004641192001765</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2">
-        <v>41760</v>
+        <v>41401</v>
       </c>
       <c r="B233">
-        <v>1.001737656590778</v>
+        <v>1.012081424190252</v>
       </c>
       <c r="C233">
-        <v>1.001337722538256</v>
+        <v>1.004486558596994</v>
       </c>
       <c r="D233">
-        <v>1.000341505429332</v>
+        <v>1.003499274933908</v>
       </c>
       <c r="E233">
-        <v>1.000108200544189</v>
+        <v>1.004064542178131</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2">
-        <v>41761</v>
+        <v>41402</v>
       </c>
       <c r="B234">
-        <v>1.002696759203059</v>
+        <v>1.011950809922234</v>
       </c>
       <c r="C234">
-        <v>1.001718385156073</v>
+        <v>1.002366225816684</v>
       </c>
       <c r="D234">
-        <v>1.000310896217579</v>
+        <v>1.003154432083589</v>
       </c>
       <c r="E234">
-        <v>0.9999557658527765</v>
+        <v>1.004081640157935</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="2">
-        <v>41764</v>
+        <v>41403</v>
       </c>
       <c r="B235">
-        <v>1.002392106042499</v>
+        <v>1.0119345070068</v>
       </c>
       <c r="C235">
-        <v>1.001050334423837</v>
+        <v>1.002661498796917</v>
       </c>
       <c r="D235">
-        <v>1.000418021027372</v>
+        <v>1.003374020857327</v>
       </c>
       <c r="E235">
-        <v>0.9995923965114166</v>
+        <v>1.004401957327662</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2">
-        <v>41765</v>
+        <v>41404</v>
       </c>
       <c r="B236">
-        <v>1.002165726646376</v>
+        <v>1.011887233402652</v>
       </c>
       <c r="C236">
-        <v>1.000198223974574</v>
+        <v>1.002539461710478</v>
       </c>
       <c r="D236">
-        <v>1.000547526093882</v>
+        <v>1.004059636049157</v>
       </c>
       <c r="E236">
-        <v>0.999487627416068</v>
+        <v>1.004229320528544</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2">
-        <v>41766</v>
+        <v>41407</v>
       </c>
       <c r="B237">
-        <v>1.001596132538262</v>
+        <v>1.011870766001286</v>
       </c>
       <c r="C237">
-        <v>1.000276040503214</v>
+        <v>1.003404450926012</v>
       </c>
       <c r="D237">
-        <v>1.001138899890256</v>
+        <v>1.004273652481382</v>
       </c>
       <c r="E237">
-        <v>0.999451318285032</v>
+        <v>1.004377671651357</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2">
-        <v>41767</v>
+        <v>41408</v>
       </c>
       <c r="B238">
-        <v>1.001378917037065</v>
+        <v>1.011812802609433</v>
       </c>
       <c r="C238">
-        <v>0.9995878153139642</v>
+        <v>1.003375407565968</v>
       </c>
       <c r="D238">
-        <v>1.000943385938494</v>
+        <v>1.004577356704052</v>
       </c>
       <c r="E238">
-        <v>0.9993788352648574</v>
+        <v>1.003929886512311</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2">
-        <v>41768</v>
+        <v>41409</v>
       </c>
       <c r="B239">
-        <v>1.001564935225677</v>
+        <v>1.011799420030959</v>
       </c>
       <c r="C239">
-        <v>0.9996429581009124</v>
+        <v>1.004676814033717</v>
       </c>
       <c r="D239">
-        <v>1.000801224017264</v>
+        <v>1.004788285497109</v>
       </c>
       <c r="E239">
-        <v>0.9996589315637155</v>
+        <v>1.003808529636187</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2">
-        <v>41771</v>
+        <v>41410</v>
       </c>
       <c r="B240">
-        <v>1.002073834821773</v>
+        <v>1.011747314699624</v>
       </c>
       <c r="C240">
-        <v>1.000523604410591</v>
+        <v>1.004389805679002</v>
       </c>
       <c r="D240">
-        <v>1.000950743304089</v>
+        <v>1.004763134974649</v>
       </c>
       <c r="E240">
-        <v>0.9995833165709561</v>
+        <v>1.003598814519308</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="2">
-        <v>41772</v>
+        <v>41411</v>
       </c>
       <c r="B241">
-        <v>1.00190275536594</v>
+        <v>1.011725157963839</v>
       </c>
       <c r="C241">
-        <v>1.000730314044059</v>
+        <v>1.004940142730001</v>
       </c>
       <c r="D241">
-        <v>1.000948980115034</v>
+        <v>1.006005232174366</v>
       </c>
       <c r="E241">
-        <v>0.9996739453550723</v>
+        <v>1.003193695101708</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="2">
-        <v>41773</v>
+        <v>41414</v>
       </c>
       <c r="B242">
-        <v>1.002373081061634</v>
+        <v>1.011680483010623</v>
       </c>
       <c r="C242">
-        <v>1.000407715251665</v>
+        <v>1.004935524719441</v>
       </c>
       <c r="D242">
-        <v>1.001088274121921</v>
+        <v>1.005947708840001</v>
       </c>
       <c r="E242">
-        <v>0.9995142261250212</v>
+        <v>1.0032098434076</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2">
-        <v>41774</v>
+        <v>41415</v>
       </c>
       <c r="B243">
-        <v>1.001717128116985</v>
+        <v>1.011602810977023</v>
       </c>
       <c r="C243">
-        <v>0.9998190438083191</v>
+        <v>1.003696907139353</v>
       </c>
       <c r="D243">
-        <v>1.000780318082878</v>
+        <v>1.005996603512501</v>
       </c>
       <c r="E243">
-        <v>0.9997444781542874</v>
+        <v>1.003170075305358</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="2">
-        <v>41775</v>
+        <v>41416</v>
       </c>
       <c r="B244">
-        <v>1.001279942099912</v>
+        <v>1.011535092905066</v>
       </c>
       <c r="C244">
-        <v>0.9995751215933449</v>
+        <v>1.002698769694439</v>
       </c>
       <c r="D244">
-        <v>1.000773642071257</v>
+        <v>1.005520532723692</v>
       </c>
       <c r="E244">
-        <v>0.9999027007728306</v>
+        <v>1.003169458178438</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="2">
-        <v>41778</v>
+        <v>41417</v>
       </c>
       <c r="B245">
-        <v>1.001288699593814</v>
+        <v>1.011533755048331</v>
       </c>
       <c r="C245">
-        <v>0.9995246356508501</v>
+        <v>1.002962542110776</v>
       </c>
       <c r="D245">
-        <v>1.000742613898914</v>
+        <v>1.004815582163113</v>
       </c>
       <c r="E245">
-        <v>0.999871797728462</v>
+        <v>1.003265584359375</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="2">
-        <v>41779</v>
+        <v>41418</v>
       </c>
       <c r="B246">
-        <v>1.001495074292954</v>
+        <v>1.011480616220682</v>
       </c>
       <c r="C246">
-        <v>0.9994646627493167</v>
+        <v>1.003140036652325</v>
       </c>
       <c r="D246">
-        <v>1.000575865861203</v>
+        <v>1.004989818652303</v>
       </c>
       <c r="E246">
-        <v>0.9999392415996748</v>
+        <v>1.003280135934518</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="2">
-        <v>41780</v>
+        <v>41421</v>
       </c>
       <c r="B247">
-        <v>1.001749927616192</v>
+        <v>1.011409568289451</v>
       </c>
       <c r="C247">
-        <v>1.000135987686881</v>
+        <v>1.002898698204168</v>
       </c>
       <c r="D247">
-        <v>1.000708213943656</v>
+        <v>1.005008437254905</v>
       </c>
       <c r="E247">
-        <v>0.9998579510128233</v>
+        <v>1.003298014562896</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="2">
-        <v>41781</v>
+        <v>41422</v>
       </c>
       <c r="B248">
-        <v>1.001881859069822</v>
+        <v>1.011370704654875</v>
       </c>
       <c r="C248">
-        <v>1.000086317234428</v>
+        <v>1.002964572384468</v>
       </c>
       <c r="D248">
-        <v>1.000754237458682</v>
+        <v>1.005574151344779</v>
       </c>
       <c r="E248">
-        <v>0.9999999151404777</v>
+        <v>1.003060853894702</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="2">
-        <v>41782</v>
+        <v>41423</v>
       </c>
       <c r="B249">
-        <v>1.001636191294623</v>
+        <v>1.01129448464578</v>
       </c>
       <c r="C249">
-        <v>1.000107207714073</v>
+        <v>1.001900906835241</v>
       </c>
       <c r="D249">
-        <v>1.000798714104407</v>
+        <v>1.004757599448684</v>
       </c>
       <c r="E249">
-        <v>1.000006333908764</v>
+        <v>1.00314681283178</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="2">
-        <v>41785</v>
+        <v>41424</v>
       </c>
       <c r="B250">
-        <v>1.001550499023239</v>
+        <v>1.01120304350418</v>
       </c>
       <c r="C250">
-        <v>1.000213992978952</v>
+        <v>1.000535575384158</v>
       </c>
       <c r="D250">
-        <v>1.00072573917989</v>
+        <v>1.004141403373007</v>
       </c>
       <c r="E250">
-        <v>0.9999060777137517</v>
+        <v>1.003467450087399</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2">
-        <v>41786</v>
+        <v>41425</v>
       </c>
       <c r="B251">
-        <v>1.000425150430115</v>
+        <v>1.011176388434537</v>
       </c>
       <c r="C251">
-        <v>1.00019295328986</v>
+        <v>1.00093760176541</v>
       </c>
       <c r="D251">
-        <v>1.000812604336641</v>
+        <v>1.003471641579484</v>
       </c>
       <c r="E251">
-        <v>0.9999901633448364</v>
+        <v>1.00344307314886</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="2">
-        <v>41787</v>
+        <v>41428</v>
       </c>
       <c r="B252">
-        <v>0.9998118372410497</v>
+        <v>1.011126372071904</v>
       </c>
       <c r="C252">
-        <v>0.9998475571042453</v>
+        <v>1.000748695322622</v>
       </c>
       <c r="D252">
-        <v>1.000681241842015</v>
+        <v>1.002897282205087</v>
       </c>
       <c r="E252">
-        <v>0.9999587786533572</v>
+        <v>1.003275487346348</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="2">
+        <v>41429</v>
+      </c>
+      <c r="B253">
+        <v>1.011092934522863</v>
+      </c>
+      <c r="C253">
+        <v>1.001027614564295</v>
+      </c>
+      <c r="D253">
+        <v>1.002906635751688</v>
+      </c>
+      <c r="E253">
+        <v>1.00327743366984</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>41430</v>
+      </c>
+      <c r="B254">
+        <v>1.011064954161897</v>
+      </c>
+      <c r="C254">
+        <v>1.001215279523242</v>
+      </c>
+      <c r="D254">
+        <v>1.001799047629434</v>
+      </c>
+      <c r="E254">
+        <v>1.003799555251409</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>41431</v>
+      </c>
+      <c r="B255">
+        <v>1.011018232790508</v>
+      </c>
+      <c r="C255">
+        <v>1.001181860297285</v>
+      </c>
+      <c r="D255">
+        <v>1.001592312386177</v>
+      </c>
+      <c r="E255">
+        <v>1.003819614506069</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>41432</v>
+      </c>
+      <c r="B256">
+        <v>1.01100088917632</v>
+      </c>
+      <c r="C256">
+        <v>1.002660916305563</v>
+      </c>
+      <c r="D256">
+        <v>1.002319773096205</v>
+      </c>
+      <c r="E256">
+        <v>1.003679642000427</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>41435</v>
+      </c>
+      <c r="B257">
+        <v>1.010958596324717</v>
+      </c>
+      <c r="C257">
+        <v>1.002534420482519</v>
+      </c>
+      <c r="D257">
+        <v>1.002257012837095</v>
+      </c>
+      <c r="E257">
+        <v>1.003756202851038</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>41436</v>
+      </c>
+      <c r="B258">
+        <v>1.01094996605598</v>
+      </c>
+      <c r="C258">
+        <v>1.004014933989061</v>
+      </c>
+      <c r="D258">
+        <v>1.002156188505614</v>
+      </c>
+      <c r="E258">
+        <v>1.003666089207719</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>41437</v>
+      </c>
+      <c r="B259">
+        <v>1.010913647985931</v>
+      </c>
+      <c r="C259">
+        <v>1.003986507568834</v>
+      </c>
+      <c r="D259">
+        <v>1.001199401413791</v>
+      </c>
+      <c r="E259">
+        <v>1.003968606224683</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>41438</v>
+      </c>
+      <c r="B260">
+        <v>1.010825535243458</v>
+      </c>
+      <c r="C260">
+        <v>1.003353888798969</v>
+      </c>
+      <c r="D260">
+        <v>1.002323241317326</v>
+      </c>
+      <c r="E260">
+        <v>1.004162742608878</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>41439</v>
+      </c>
+      <c r="B261">
+        <v>1.010818516993233</v>
+      </c>
+      <c r="C261">
+        <v>1.004076806524467</v>
+      </c>
+      <c r="D261">
+        <v>1.001894397237758</v>
+      </c>
+      <c r="E261">
+        <v>1.004295680829921</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>41442</v>
+      </c>
+      <c r="B262">
+        <v>1.01076267766419</v>
+      </c>
+      <c r="C262">
+        <v>1.003598094723136</v>
+      </c>
+      <c r="D262">
+        <v>1.002412626708648</v>
+      </c>
+      <c r="E262">
+        <v>1.004013016445731</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>41443</v>
+      </c>
+      <c r="B263">
+        <v>1.010742695424138</v>
+      </c>
+      <c r="C263">
+        <v>1.00425199685494</v>
+      </c>
+      <c r="D263">
+        <v>1.003420669082736</v>
+      </c>
+      <c r="E263">
+        <v>1.004050314210322</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>41444</v>
+      </c>
+      <c r="B264">
+        <v>1.010727661890787</v>
+      </c>
+      <c r="C264">
+        <v>1.005155326525801</v>
+      </c>
+      <c r="D264">
+        <v>1.003260875652967</v>
+      </c>
+      <c r="E264">
+        <v>1.003785335387061</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>41445</v>
+      </c>
+      <c r="B265">
+        <v>1.010782225158668</v>
+      </c>
+      <c r="C265">
+        <v>1.008082241336003</v>
+      </c>
+      <c r="D265">
+        <v>1.002741085781996</v>
+      </c>
+      <c r="E265">
+        <v>1.004092338979421</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>41446</v>
+      </c>
+      <c r="B266">
+        <v>1.010724296226021</v>
+      </c>
+      <c r="C266">
+        <v>1.007513197970055</v>
+      </c>
+      <c r="D266">
+        <v>1.002376495419357</v>
+      </c>
+      <c r="E266">
+        <v>1.004101731284383</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>41449</v>
+      </c>
+      <c r="B267">
+        <v>1.01075845113237</v>
+      </c>
+      <c r="C267">
+        <v>1.009322199440073</v>
+      </c>
+      <c r="D267">
+        <v>1.001812207398825</v>
+      </c>
+      <c r="E267">
+        <v>1.004679394162628</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>41450</v>
+      </c>
+      <c r="B268">
+        <v>1.010680062567656</v>
+      </c>
+      <c r="C268">
+        <v>1.008650509110091</v>
+      </c>
+      <c r="D268">
+        <v>1.002893557988141</v>
+      </c>
+      <c r="E268">
+        <v>1.004659868374364</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>41451</v>
+      </c>
+      <c r="B269">
+        <v>1.010681274264367</v>
+      </c>
+      <c r="C269">
+        <v>1.010215958812287</v>
+      </c>
+      <c r="D269">
+        <v>1.003657306576049</v>
+      </c>
+      <c r="E269">
+        <v>1.004721241337378</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>41452</v>
+      </c>
+      <c r="B270">
+        <v>1.01058633856978</v>
+      </c>
+      <c r="C270">
+        <v>1.009384832554505</v>
+      </c>
+      <c r="D270">
+        <v>1.003644520576727</v>
+      </c>
+      <c r="E270">
+        <v>1.004287757834978</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>41453</v>
+      </c>
+      <c r="B271">
+        <v>1.010464409431188</v>
+      </c>
+      <c r="C271">
+        <v>1.007088663640372</v>
+      </c>
+      <c r="D271">
+        <v>1.002130162588893</v>
+      </c>
+      <c r="E271">
+        <v>1.001844524112609</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B272">
+        <v>1.010419707787059</v>
+      </c>
+      <c r="C272">
+        <v>1.00708514302456</v>
+      </c>
+      <c r="D272">
+        <v>1.00207088094729</v>
+      </c>
+      <c r="E272">
+        <v>1.001861920532085</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>41457</v>
+      </c>
+      <c r="B273">
+        <v>1.010409084350875</v>
+      </c>
+      <c r="C273">
+        <v>1.007874524517001</v>
+      </c>
+      <c r="D273">
+        <v>1.002639411361442</v>
+      </c>
+      <c r="E273">
+        <v>1.000803430675945</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>41458</v>
+      </c>
+      <c r="B274">
+        <v>1.01035313852276</v>
+      </c>
+      <c r="C274">
+        <v>1.007549382151308</v>
+      </c>
+      <c r="D274">
+        <v>1.002099984945485</v>
+      </c>
+      <c r="E274">
+        <v>1.000936532793918</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>41459</v>
+      </c>
+      <c r="B275">
+        <v>1.010302832133825</v>
+      </c>
+      <c r="C275">
+        <v>1.007533378750369</v>
+      </c>
+      <c r="D275">
+        <v>1.002206766051343</v>
+      </c>
+      <c r="E275">
+        <v>1.00089423814288</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>41460</v>
+      </c>
+      <c r="B276">
+        <v>1.010292735545848</v>
+      </c>
+      <c r="C276">
+        <v>1.008399530892136</v>
+      </c>
+      <c r="D276">
+        <v>1.002176208700504</v>
+      </c>
+      <c r="E276">
+        <v>1.000849341232244</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>41463</v>
+      </c>
+      <c r="B277">
+        <v>1.010233315140518</v>
+      </c>
+      <c r="C277">
+        <v>1.008427841249052</v>
+      </c>
+      <c r="D277">
+        <v>1.002835102898155</v>
+      </c>
+      <c r="E277">
+        <v>1.000622757247964</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>41464</v>
+      </c>
+      <c r="B278">
+        <v>1.010166908821917</v>
+      </c>
+      <c r="C278">
+        <v>1.007822074844721</v>
+      </c>
+      <c r="D278">
+        <v>1.003234919188776</v>
+      </c>
+      <c r="E278">
+        <v>1.000513533392764</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>41465</v>
+      </c>
+      <c r="B279">
+        <v>1.010119854245162</v>
+      </c>
+      <c r="C279">
+        <v>1.007723065812126</v>
+      </c>
+      <c r="D279">
+        <v>1.003119727988041</v>
+      </c>
+      <c r="E279">
+        <v>1.000133466440734</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>41466</v>
+      </c>
+      <c r="B280">
+        <v>1.009974993535635</v>
+      </c>
+      <c r="C280">
+        <v>1.005367538965438</v>
+      </c>
+      <c r="D280">
+        <v>1.00300243037138</v>
+      </c>
+      <c r="E280">
+        <v>0.9999518069461649</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>41467</v>
+      </c>
+      <c r="B281">
+        <v>1.00994804148814</v>
+      </c>
+      <c r="C281">
+        <v>1.00613206637776</v>
+      </c>
+      <c r="D281">
+        <v>1.002966314812755</v>
+      </c>
+      <c r="E281">
+        <v>0.9998905575961968</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>41470</v>
+      </c>
+      <c r="B282">
+        <v>1.009886442592749</v>
+      </c>
+      <c r="C282">
+        <v>1.0058572820784</v>
+      </c>
+      <c r="D282">
+        <v>1.003251050965717</v>
+      </c>
+      <c r="E282">
+        <v>0.9999692221663314</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>41471</v>
+      </c>
+      <c r="B283">
+        <v>1.009802559967639</v>
+      </c>
+      <c r="C283">
+        <v>1.004448168879805</v>
+      </c>
+      <c r="D283">
+        <v>1.002079356972421</v>
+      </c>
+      <c r="E283">
+        <v>0.999977156866656</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>41472</v>
+      </c>
+      <c r="B284">
+        <v>1.009762659894622</v>
+      </c>
+      <c r="C284">
+        <v>1.005027628112214</v>
+      </c>
+      <c r="D284">
+        <v>1.002785731618518</v>
+      </c>
+      <c r="E284">
+        <v>0.9999260886953679</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>41473</v>
+      </c>
+      <c r="B285">
+        <v>1.009694511288724</v>
+      </c>
+      <c r="C285">
+        <v>1.00508847506166</v>
+      </c>
+      <c r="D285">
+        <v>1.003229869945893</v>
+      </c>
+      <c r="E285">
+        <v>0.9995591915231427</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>41474</v>
+      </c>
+      <c r="B286">
+        <v>1.009629563720104</v>
+      </c>
+      <c r="C286">
+        <v>1.003883087155969</v>
+      </c>
+      <c r="D286">
+        <v>1.002686356945683</v>
+      </c>
+      <c r="E286">
+        <v>0.9995214980908541</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>41477</v>
+      </c>
+      <c r="B287">
+        <v>1.009514450129789</v>
+      </c>
+      <c r="C287">
+        <v>1.001749041028513</v>
+      </c>
+      <c r="D287">
+        <v>1.001938340336392</v>
+      </c>
+      <c r="E287">
+        <v>0.9998145393631459</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>41478</v>
+      </c>
+      <c r="B288">
+        <v>1.009443787935392</v>
+      </c>
+      <c r="C288">
+        <v>1.000900409184168</v>
+      </c>
+      <c r="D288">
+        <v>1.001605847789507</v>
+      </c>
+      <c r="E288">
+        <v>0.9997525900215415</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>41479</v>
+      </c>
+      <c r="B289">
+        <v>1.009422244122953</v>
+      </c>
+      <c r="C289">
+        <v>1.002385071819943</v>
+      </c>
+      <c r="D289">
+        <v>1.001973956666631</v>
+      </c>
+      <c r="E289">
+        <v>0.9997275417213756</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>41480</v>
+      </c>
+      <c r="B290">
+        <v>1.009368864828613</v>
+      </c>
+      <c r="C290">
+        <v>1.00218707092179</v>
+      </c>
+      <c r="D290">
+        <v>1.001848643356237</v>
+      </c>
+      <c r="E290">
+        <v>0.9997596983926063</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>41481</v>
+      </c>
+      <c r="B291">
+        <v>1.009301104051861</v>
+      </c>
+      <c r="C291">
+        <v>1.001793249184259</v>
+      </c>
+      <c r="D291">
+        <v>1.001528754000888</v>
+      </c>
+      <c r="E291">
+        <v>0.9997440536653975</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>41484</v>
+      </c>
+      <c r="B292">
+        <v>1.009261430929878</v>
+      </c>
+      <c r="C292">
+        <v>1.002033301946447</v>
+      </c>
+      <c r="D292">
+        <v>1.00143911998276</v>
+      </c>
+      <c r="E292">
+        <v>0.9994832906596325</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>41485</v>
+      </c>
+      <c r="B293">
+        <v>1.00923501898658</v>
+      </c>
+      <c r="C293">
+        <v>1.002401089958745</v>
+      </c>
+      <c r="D293">
+        <v>1.001270705845523</v>
+      </c>
+      <c r="E293">
+        <v>0.9995652879635019</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>41486</v>
+      </c>
+      <c r="B294">
+        <v>1.009210466244196</v>
+      </c>
+      <c r="C294">
+        <v>1.003131662868151</v>
+      </c>
+      <c r="D294">
+        <v>1.001049322918593</v>
+      </c>
+      <c r="E294">
+        <v>0.999796975698184</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B295">
+        <v>1.009135156454703</v>
+      </c>
+      <c r="C295">
+        <v>1.003386882434394</v>
+      </c>
+      <c r="D295">
+        <v>1.002402989036402</v>
+      </c>
+      <c r="E295">
+        <v>0.9994436215846653</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>41488</v>
+      </c>
+      <c r="B296">
+        <v>1.009100061407592</v>
+      </c>
+      <c r="C296">
+        <v>1.003713628923507</v>
+      </c>
+      <c r="D296">
+        <v>1.002655461159128</v>
+      </c>
+      <c r="E296">
+        <v>0.9996196425077767</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>41491</v>
+      </c>
+      <c r="B297">
+        <v>1.009055223492609</v>
+      </c>
+      <c r="C297">
+        <v>1.003712758256581</v>
+      </c>
+      <c r="D297">
+        <v>1.002591412876397</v>
+      </c>
+      <c r="E297">
+        <v>0.9996400291948482</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>41492</v>
+      </c>
+      <c r="B298">
+        <v>1.009073451520301</v>
+      </c>
+      <c r="C298">
+        <v>1.005461343695013</v>
+      </c>
+      <c r="D298">
+        <v>1.002966399303354</v>
+      </c>
+      <c r="E298">
+        <v>1.000315920606302</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>41493</v>
+      </c>
+      <c r="B299">
+        <v>1.009034121391608</v>
+      </c>
+      <c r="C299">
+        <v>1.005602038065071</v>
+      </c>
+      <c r="D299">
+        <v>1.002411315671774</v>
+      </c>
+      <c r="E299">
+        <v>1.000185363052978</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>41494</v>
+      </c>
+      <c r="B300">
+        <v>1.008873964547046</v>
+      </c>
+      <c r="C300">
+        <v>1.002964263007047</v>
+      </c>
+      <c r="D300">
+        <v>1.002053059643163</v>
+      </c>
+      <c r="E300">
+        <v>1.000210835017025</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>41495</v>
+      </c>
+      <c r="B301">
+        <v>1.008817568038384</v>
+      </c>
+      <c r="C301">
+        <v>1.00240317824081</v>
+      </c>
+      <c r="D301">
+        <v>1.002096806841493</v>
+      </c>
+      <c r="E301">
+        <v>1.000781362340985</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>41498</v>
+      </c>
+      <c r="B302">
+        <v>1.008724515781622</v>
+      </c>
+      <c r="C302">
+        <v>1.000640491032688</v>
+      </c>
+      <c r="D302">
+        <v>1.001805776187607</v>
+      </c>
+      <c r="E302">
+        <v>1.001933365375325</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>41499</v>
+      </c>
+      <c r="B303">
+        <v>1.008658708048325</v>
+      </c>
+      <c r="C303">
+        <v>1.000893506291959</v>
+      </c>
+      <c r="D303">
+        <v>1.002277950304557</v>
+      </c>
+      <c r="E303">
+        <v>1.001952358758856</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>41500</v>
+      </c>
+      <c r="B304">
+        <v>1.008578001351357</v>
+      </c>
+      <c r="C304">
+        <v>0.9996897027150184</v>
+      </c>
+      <c r="D304">
+        <v>1.001496802862543</v>
+      </c>
+      <c r="E304">
+        <v>1.002277187362483</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>41501</v>
+      </c>
+      <c r="B305">
+        <v>1.008487401025263</v>
+      </c>
+      <c r="C305">
+        <v>0.9977881142926566</v>
+      </c>
+      <c r="D305">
+        <v>1.000491811345352</v>
+      </c>
+      <c r="E305">
+        <v>1.002388882182818</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>41502</v>
+      </c>
+      <c r="B306">
+        <v>1.008450064794354</v>
+      </c>
+      <c r="C306">
+        <v>0.9980515109657975</v>
+      </c>
+      <c r="D306">
+        <v>1.000696685286353</v>
+      </c>
+      <c r="E306">
+        <v>1.001908181212514</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>41505</v>
+      </c>
+      <c r="B307">
+        <v>1.008440770480321</v>
+      </c>
+      <c r="C307">
+        <v>0.9988283833185193</v>
+      </c>
+      <c r="D307">
+        <v>0.9997460278990312</v>
+      </c>
+      <c r="E307">
+        <v>1.002139050600781</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>41506</v>
+      </c>
+      <c r="B308">
+        <v>1.008364112730408</v>
+      </c>
+      <c r="C308">
+        <v>0.9977107838499985</v>
+      </c>
+      <c r="D308">
+        <v>0.9995913583574062</v>
+      </c>
+      <c r="E308">
+        <v>1.002271161249034</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>41507</v>
+      </c>
+      <c r="B309">
+        <v>1.008367710215936</v>
+      </c>
+      <c r="C309">
+        <v>0.9989780161521419</v>
+      </c>
+      <c r="D309">
+        <v>0.9994024840412316</v>
+      </c>
+      <c r="E309">
+        <v>1.002262561602859</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>41508</v>
+      </c>
+      <c r="B310">
+        <v>1.008276242471952</v>
+      </c>
+      <c r="C310">
+        <v>0.9978683954107342</v>
+      </c>
+      <c r="D310">
+        <v>0.9998371881652961</v>
+      </c>
+      <c r="E310">
+        <v>1.002067431935234</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>41509</v>
+      </c>
+      <c r="B311">
+        <v>1.008193201451375</v>
+      </c>
+      <c r="C311">
+        <v>0.9969000590307852</v>
+      </c>
+      <c r="D311">
+        <v>0.9997428817978539</v>
+      </c>
+      <c r="E311">
+        <v>1.002156154459433</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>41512</v>
+      </c>
+      <c r="B312">
+        <v>1.008143338531422</v>
+      </c>
+      <c r="C312">
+        <v>0.9965374681803144</v>
+      </c>
+      <c r="D312">
+        <v>0.9994092797749502</v>
+      </c>
+      <c r="E312">
+        <v>1.002345897473285</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>41513</v>
+      </c>
+      <c r="B313">
+        <v>1.008185996766507</v>
+      </c>
+      <c r="C313">
+        <v>0.9982355974271395</v>
+      </c>
+      <c r="D313">
+        <v>0.9987727438787287</v>
+      </c>
+      <c r="E313">
+        <v>1.00217654324184</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>41514</v>
+      </c>
+      <c r="B314">
+        <v>1.008172177801459</v>
+      </c>
+      <c r="C314">
+        <v>0.9987246170861678</v>
+      </c>
+      <c r="D314">
+        <v>0.9993400752553819</v>
+      </c>
+      <c r="E314">
+        <v>1.002302309852385</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>41515</v>
+      </c>
+      <c r="B315">
+        <v>1.008095492901596</v>
+      </c>
+      <c r="C315">
+        <v>0.9984899314259232</v>
+      </c>
+      <c r="D315">
+        <v>0.9993797424776348</v>
+      </c>
+      <c r="E315">
+        <v>1.002239412617457</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>41516</v>
+      </c>
+      <c r="B316">
+        <v>1.008066927801277</v>
+      </c>
+      <c r="C316">
+        <v>0.9989142314379217</v>
+      </c>
+      <c r="D316">
+        <v>0.9992542892821944</v>
+      </c>
+      <c r="E316">
+        <v>1.002170290449242</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>41520</v>
+      </c>
+      <c r="B317">
+        <v>1.007988056272905</v>
+      </c>
+      <c r="C317">
+        <v>0.9983337895241366</v>
+      </c>
+      <c r="D317">
+        <v>0.9995036612482114</v>
+      </c>
+      <c r="E317">
+        <v>1.002147034774761</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>41521</v>
+      </c>
+      <c r="B318">
+        <v>1.007935977359323</v>
+      </c>
+      <c r="C318">
+        <v>0.9982349092802845</v>
+      </c>
+      <c r="D318">
+        <v>0.999815507134442</v>
+      </c>
+      <c r="E318">
+        <v>1.002566792746776</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>41522</v>
+      </c>
+      <c r="B319">
+        <v>1.007915927414655</v>
+      </c>
+      <c r="C319">
+        <v>0.9988419191812373</v>
+      </c>
+      <c r="D319">
+        <v>1.001072988666841</v>
+      </c>
+      <c r="E319">
+        <v>1.002427999088005</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>41523</v>
+      </c>
+      <c r="B320">
+        <v>1.007872061670235</v>
+      </c>
+      <c r="C320">
+        <v>0.9987202650035021</v>
+      </c>
+      <c r="D320">
+        <v>1.000535782169723</v>
+      </c>
+      <c r="E320">
+        <v>1.002332085638797</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>41526</v>
+      </c>
+      <c r="B321">
+        <v>1.007832767931656</v>
+      </c>
+      <c r="C321">
+        <v>0.9989145262822597</v>
+      </c>
+      <c r="D321">
+        <v>1.001214880560409</v>
+      </c>
+      <c r="E321">
+        <v>1.002740469286713</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>41527</v>
+      </c>
+      <c r="B322">
+        <v>1.007806297714648</v>
+      </c>
+      <c r="C322">
+        <v>1.000123022116748</v>
+      </c>
+      <c r="D322">
+        <v>1.001688740107174</v>
+      </c>
+      <c r="E322">
+        <v>1.002112182667838</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>41528</v>
+      </c>
+      <c r="B323">
+        <v>1.00775989312923</v>
+      </c>
+      <c r="C323">
+        <v>1.000029222444776</v>
+      </c>
+      <c r="D323">
+        <v>1.001573880362662</v>
+      </c>
+      <c r="E323">
+        <v>1.001541776101527</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>41529</v>
+      </c>
+      <c r="B324">
+        <v>1.007791902170466</v>
+      </c>
+      <c r="C324">
+        <v>1.00178671882976</v>
+      </c>
+      <c r="D324">
+        <v>1.001641583571586</v>
+      </c>
+      <c r="E324">
+        <v>1.001624018082309</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>41530</v>
+      </c>
+      <c r="B325">
+        <v>1.007738529458481</v>
+      </c>
+      <c r="C325">
+        <v>1.001205202442835</v>
+      </c>
+      <c r="D325">
+        <v>1.001247693905253</v>
+      </c>
+      <c r="E325">
+        <v>1.001548429858624</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>41533</v>
+      </c>
+      <c r="B326">
+        <v>1.007682342490805</v>
+      </c>
+      <c r="C326">
+        <v>1.001149534342879</v>
+      </c>
+      <c r="D326">
+        <v>1.001896323646201</v>
+      </c>
+      <c r="E326">
+        <v>1.001381930647132</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>41534</v>
+      </c>
+      <c r="B327">
+        <v>1.007620108928348</v>
+      </c>
+      <c r="C327">
+        <v>1.000691436073617</v>
+      </c>
+      <c r="D327">
+        <v>1.001777518046871</v>
+      </c>
+      <c r="E327">
+        <v>1.001594753371406</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>41535</v>
+      </c>
+      <c r="B328">
+        <v>1.007542057391277</v>
+      </c>
+      <c r="C328">
+        <v>0.9984299913214556</v>
+      </c>
+      <c r="D328">
+        <v>1.000451847054684</v>
+      </c>
+      <c r="E328">
+        <v>1.001630872385324</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>41536</v>
+      </c>
+      <c r="B329">
+        <v>1.007513194464955</v>
+      </c>
+      <c r="C329">
+        <v>0.9990915832539254</v>
+      </c>
+      <c r="D329">
+        <v>1.000823587451415</v>
+      </c>
+      <c r="E329">
+        <v>1.001717316529671</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>41537</v>
+      </c>
+      <c r="B330">
+        <v>1.007544986338882</v>
+      </c>
+      <c r="C330">
+        <v>1.001158651625567</v>
+      </c>
+      <c r="D330">
+        <v>1.000479915831276</v>
+      </c>
+      <c r="E330">
+        <v>1.000197096574416</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>41540</v>
+      </c>
+      <c r="B331">
+        <v>1.007529683431342</v>
+      </c>
+      <c r="C331">
+        <v>1.001767036899827</v>
+      </c>
+      <c r="D331">
+        <v>1.000602184925435</v>
+      </c>
+      <c r="E331">
+        <v>1.000136524733579</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>41541</v>
+      </c>
+      <c r="B332">
+        <v>1.007484511754057</v>
+      </c>
+      <c r="C332">
+        <v>1.001729180434283</v>
+      </c>
+      <c r="D332">
+        <v>1.000625380516915</v>
+      </c>
+      <c r="E332">
+        <v>0.9997449895001085</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>41542</v>
+      </c>
+      <c r="B333">
+        <v>1.007434535866871</v>
+      </c>
+      <c r="C333">
+        <v>1.00121619323187</v>
+      </c>
+      <c r="D333">
+        <v>1.000026058524967</v>
+      </c>
+      <c r="E333">
+        <v>0.999320120246172</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>41543</v>
+      </c>
+      <c r="B334">
+        <v>1.007391963668026</v>
+      </c>
+      <c r="C334">
+        <v>1.001648881101353</v>
+      </c>
+      <c r="D334">
+        <v>1.000431229187225</v>
+      </c>
+      <c r="E334">
+        <v>0.9991665480464508</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>41544</v>
+      </c>
+      <c r="B335">
+        <v>1.007362586853168</v>
+      </c>
+      <c r="C335">
+        <v>1.00170173885652</v>
+      </c>
+      <c r="D335">
+        <v>1.00025730633146</v>
+      </c>
+      <c r="E335">
+        <v>0.9992682829754849</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>41547</v>
+      </c>
+      <c r="B336">
+        <v>1.007340327184663</v>
+      </c>
+      <c r="C336">
+        <v>1.001806657178061</v>
+      </c>
+      <c r="D336">
+        <v>0.9995295410375546</v>
+      </c>
+      <c r="E336">
+        <v>0.9992659818099138</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B337">
+        <v>1.007315169586746</v>
+      </c>
+      <c r="C337">
+        <v>1.002323236322864</v>
+      </c>
+      <c r="D337">
+        <v>1.00049433526196</v>
+      </c>
+      <c r="E337">
+        <v>0.99907576206232</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>41549</v>
+      </c>
+      <c r="B338">
+        <v>1.007280198787904</v>
+      </c>
+      <c r="C338">
+        <v>1.002231759198761</v>
+      </c>
+      <c r="D338">
+        <v>1.000291220236655</v>
+      </c>
+      <c r="E338">
+        <v>0.9992859625220305</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>41550</v>
+      </c>
+      <c r="B339">
+        <v>1.007265222951618</v>
+      </c>
+      <c r="C339">
+        <v>1.002971274691158</v>
+      </c>
+      <c r="D339">
+        <v>0.9996521066459204</v>
+      </c>
+      <c r="E339">
+        <v>0.999160462737785</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>41551</v>
+      </c>
+      <c r="B340">
+        <v>1.007203764015407</v>
+      </c>
+      <c r="C340">
+        <v>1.003090291763807</v>
+      </c>
+      <c r="D340">
+        <v>1.000055039203481</v>
+      </c>
+      <c r="E340">
+        <v>0.998945810514708</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>41554</v>
+      </c>
+      <c r="B341">
+        <v>1.007167686535276</v>
+      </c>
+      <c r="C341">
+        <v>1.002610961871903</v>
+      </c>
+      <c r="D341">
+        <v>0.9998150274478116</v>
+      </c>
+      <c r="E341">
+        <v>0.999412676900057</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>41555</v>
+      </c>
+      <c r="B342">
+        <v>1.007161751405212</v>
+      </c>
+      <c r="C342">
+        <v>1.003733183829859</v>
+      </c>
+      <c r="D342">
+        <v>0.9997351074520819</v>
+      </c>
+      <c r="E342">
+        <v>0.9995249920621904</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>41556</v>
+      </c>
+      <c r="B343">
+        <v>1.00710231144002</v>
+      </c>
+      <c r="C343">
+        <v>1.00348222291651</v>
+      </c>
+      <c r="D343">
+        <v>0.9998376295208546</v>
+      </c>
+      <c r="E343">
+        <v>0.9997162439677201</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>41557</v>
+      </c>
+      <c r="B344">
+        <v>1.007019448164213</v>
+      </c>
+      <c r="C344">
+        <v>1.003256366043789</v>
+      </c>
+      <c r="D344">
+        <v>1.001066414854919</v>
+      </c>
+      <c r="E344">
+        <v>0.9993414949271121</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>41558</v>
+      </c>
+      <c r="B345">
+        <v>1.006994291869287</v>
+      </c>
+      <c r="C345">
+        <v>1.003952290025374</v>
+      </c>
+      <c r="D345">
+        <v>1.001440955115814</v>
+      </c>
+      <c r="E345">
+        <v>0.9990587514481482</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>41561</v>
+      </c>
+      <c r="B346">
+        <v>1.006949565804735</v>
+      </c>
+      <c r="C346">
+        <v>1.003951173269729</v>
+      </c>
+      <c r="D346">
+        <v>1.001377425140421</v>
+      </c>
+      <c r="E346">
+        <v>0.9990788446210436</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>41562</v>
+      </c>
+      <c r="B347">
+        <v>1.006872872306932</v>
+      </c>
+      <c r="C347">
+        <v>1.003137237973902</v>
+      </c>
+      <c r="D347">
+        <v>1.001117564468609</v>
+      </c>
+      <c r="E347">
+        <v>0.9993430923590608</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>41563</v>
+      </c>
+      <c r="B348">
+        <v>1.006842836356193</v>
+      </c>
+      <c r="C348">
+        <v>1.003742654923536</v>
+      </c>
+      <c r="D348">
+        <v>1.001596831081677</v>
+      </c>
+      <c r="E348">
+        <v>0.999096804632514</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>41564</v>
+      </c>
+      <c r="B349">
+        <v>1.006737897701637</v>
+      </c>
+      <c r="C349">
+        <v>1.002263082406631</v>
+      </c>
+      <c r="D349">
+        <v>1.001168849820877</v>
+      </c>
+      <c r="E349">
+        <v>0.9992107340071318</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>41565</v>
+      </c>
+      <c r="B350">
+        <v>1.00667449876354</v>
+      </c>
+      <c r="C350">
+        <v>1.002266548858809</v>
+      </c>
+      <c r="D350">
+        <v>1.00182117623174</v>
+      </c>
+      <c r="E350">
+        <v>0.9992494882391516</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>41568</v>
+      </c>
+      <c r="B351">
+        <v>1.00659101782622</v>
+      </c>
+      <c r="C351">
+        <v>1.001391604267003</v>
+      </c>
+      <c r="D351">
+        <v>1.001519086759826</v>
+      </c>
+      <c r="E351">
+        <v>0.999159662994805</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
+        <v>41569</v>
+      </c>
+      <c r="B352">
+        <v>1.00650969256996</v>
+      </c>
+      <c r="C352">
+        <v>1.000091491575253</v>
+      </c>
+      <c r="D352">
+        <v>1.001128454998095</v>
+      </c>
+      <c r="E352">
+        <v>0.9991407726300904</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
+        <v>41570</v>
+      </c>
+      <c r="B353">
+        <v>1.006468917027703</v>
+      </c>
+      <c r="C353">
+        <v>1.000651749305873</v>
+      </c>
+      <c r="D353">
+        <v>1.001324908092824</v>
+      </c>
+      <c r="E353">
+        <v>0.9991240792373701</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
+        <v>41571</v>
+      </c>
+      <c r="B354">
+        <v>1.006358527247284</v>
+      </c>
+      <c r="C354">
+        <v>0.9986914331814331</v>
+      </c>
+      <c r="D354">
+        <v>1.001042743585592</v>
+      </c>
+      <c r="E354">
+        <v>0.99932822968727</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>41572</v>
+      </c>
+      <c r="B355">
+        <v>1.006303800161422</v>
+      </c>
+      <c r="C355">
+        <v>0.9982643282585288</v>
+      </c>
+      <c r="D355">
+        <v>1.001169435655123</v>
+      </c>
+      <c r="E355">
+        <v>0.9992281972475516</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>41575</v>
+      </c>
+      <c r="B356">
+        <v>1.006254333136192</v>
+      </c>
+      <c r="C356">
+        <v>0.9982075032410727</v>
+      </c>
+      <c r="D356">
+        <v>1.000691724748904</v>
+      </c>
+      <c r="E356">
+        <v>0.9993376695576363</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>41576</v>
+      </c>
+      <c r="B357">
+        <v>1.006237326104452</v>
+      </c>
+      <c r="C357">
+        <v>0.9988287455726823</v>
+      </c>
+      <c r="D357">
+        <v>1.001407525260861</v>
+      </c>
+      <c r="E357">
+        <v>0.9993706519299509</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>41577</v>
+      </c>
+      <c r="B358">
+        <v>1.006163008474704</v>
+      </c>
+      <c r="C358">
+        <v>0.9982195136219121</v>
+      </c>
+      <c r="D358">
+        <v>1.000934956217469</v>
+      </c>
+      <c r="E358">
+        <v>0.9992904199815515</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>41578</v>
+      </c>
+      <c r="B359">
+        <v>1.006187701931023</v>
+      </c>
+      <c r="C359">
+        <v>0.9997064622294956</v>
+      </c>
+      <c r="D359">
+        <v>1.000620753402231</v>
+      </c>
+      <c r="E359">
+        <v>0.9989779576975869</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B360">
+        <v>1.006162524042809</v>
+      </c>
+      <c r="C360">
+        <v>1.000828400641075</v>
+      </c>
+      <c r="D360">
+        <v>1.00103597934021</v>
+      </c>
+      <c r="E360">
+        <v>0.9987474010783863</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>41582</v>
+      </c>
+      <c r="B361">
+        <v>1.006077015546514</v>
+      </c>
+      <c r="C361">
+        <v>0.9999804478428038</v>
+      </c>
+      <c r="D361">
+        <v>1.000337499331152</v>
+      </c>
+      <c r="E361">
+        <v>0.9972365080399836</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>41583</v>
+      </c>
+      <c r="B362">
+        <v>1.006024291546629</v>
+      </c>
+      <c r="C362">
+        <v>1.000232151418783</v>
+      </c>
+      <c r="D362">
+        <v>1.000795524440911</v>
+      </c>
+      <c r="E362">
+        <v>0.9974533523058016</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>41584</v>
+      </c>
+      <c r="B363">
+        <v>1.005963757209685</v>
+      </c>
+      <c r="C363">
+        <v>1.000148722885648</v>
+      </c>
+      <c r="D363">
+        <v>1.000375521387199</v>
+      </c>
+      <c r="E363">
+        <v>0.9975284506196814</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>41585</v>
+      </c>
+      <c r="B364">
+        <v>1.00595329642726</v>
+      </c>
+      <c r="C364">
+        <v>1.001358283868832</v>
+      </c>
+      <c r="D364">
+        <v>1.000057556757961</v>
+      </c>
+      <c r="E364">
+        <v>0.9974664932162306</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>41586</v>
+      </c>
+      <c r="B365">
+        <v>1.005898965459418</v>
+      </c>
+      <c r="C365">
+        <v>1.000977645835689</v>
+      </c>
+      <c r="D365">
+        <v>1.00049499324133</v>
+      </c>
+      <c r="E365">
+        <v>0.9973924947631756</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
+        <v>41589</v>
+      </c>
+      <c r="B366">
+        <v>1.005850346592524</v>
+      </c>
+      <c r="C366">
+        <v>1.000903162261501</v>
+      </c>
+      <c r="D366">
+        <v>1.000320738589795</v>
+      </c>
+      <c r="E366">
+        <v>0.9973179962323887</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
+        <v>41590</v>
+      </c>
+      <c r="B367">
+        <v>1.005813073029767</v>
+      </c>
+      <c r="C367">
+        <v>1.001405434193467</v>
+      </c>
+      <c r="D367">
+        <v>1.000256918590527</v>
+      </c>
+      <c r="E367">
+        <v>0.9973906496006935</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
+        <v>41591</v>
+      </c>
+      <c r="B368">
+        <v>1.005777924828598</v>
+      </c>
+      <c r="C368">
+        <v>1.001443925965472</v>
+      </c>
+      <c r="D368">
+        <v>1.000182178951064</v>
+      </c>
+      <c r="E368">
+        <v>0.9974328408627507</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
+        <v>41592</v>
+      </c>
+      <c r="B369">
+        <v>1.00571840272705</v>
+      </c>
+      <c r="C369">
+        <v>1.000673903615688</v>
+      </c>
+      <c r="D369">
+        <v>0.9999877562935227</v>
+      </c>
+      <c r="E369">
+        <v>0.9973922524537515</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
+        <v>41593</v>
+      </c>
+      <c r="B370">
+        <v>1.005693139844571</v>
+      </c>
+      <c r="C370">
+        <v>1.000930745726397</v>
+      </c>
+      <c r="D370">
+        <v>1.000347805583224</v>
+      </c>
+      <c r="E370">
+        <v>0.997211716236778</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
+        <v>41596</v>
+      </c>
+      <c r="B371">
+        <v>1.005662375912312</v>
+      </c>
+      <c r="C371">
+        <v>1.001731715988053</v>
+      </c>
+      <c r="D371">
+        <v>1.000287306190062</v>
+      </c>
+      <c r="E371">
+        <v>0.9967530240600112</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="2">
+        <v>41597</v>
+      </c>
+      <c r="B372">
+        <v>1.005622837995093</v>
+      </c>
+      <c r="C372">
+        <v>1.001638749378868</v>
+      </c>
+      <c r="D372">
+        <v>0.9999613318018932</v>
+      </c>
+      <c r="E372">
+        <v>0.9966655722953058</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
+        <v>41598</v>
+      </c>
+      <c r="B373">
+        <v>1.005611450240842</v>
+      </c>
+      <c r="C373">
+        <v>1.002559081755454</v>
+      </c>
+      <c r="D373">
+        <v>1.000293967352995</v>
+      </c>
+      <c r="E373">
+        <v>0.9966409946693573</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
+        <v>41599</v>
+      </c>
+      <c r="B374">
+        <v>1.005565748329339</v>
+      </c>
+      <c r="C374">
+        <v>1.002565126591997</v>
+      </c>
+      <c r="D374">
+        <v>1.000722292304287</v>
+      </c>
+      <c r="E374">
+        <v>0.996482218509872</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>41600</v>
+      </c>
+      <c r="B375">
+        <v>1.00552310571</v>
+      </c>
+      <c r="C375">
+        <v>1.002856928716761</v>
+      </c>
+      <c r="D375">
+        <v>1.000892632850714</v>
+      </c>
+      <c r="E375">
+        <v>0.9967228837102112</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
+        <v>41603</v>
+      </c>
+      <c r="B376">
+        <v>1.005472751589945</v>
+      </c>
+      <c r="C376">
+        <v>1.002688740283748</v>
+      </c>
+      <c r="D376">
+        <v>1.000683340032176</v>
+      </c>
+      <c r="E376">
+        <v>0.9969193117674836</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2">
+        <v>41604</v>
+      </c>
+      <c r="B377">
+        <v>1.005446552370283</v>
+      </c>
+      <c r="C377">
+        <v>1.003535588073151</v>
+      </c>
+      <c r="D377">
+        <v>1.00041266819955</v>
+      </c>
+      <c r="E377">
+        <v>0.9974799217830582</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2">
+        <v>41605</v>
+      </c>
+      <c r="B378">
+        <v>1.00538906437915</v>
+      </c>
+      <c r="C378">
+        <v>1.003186247219495</v>
+      </c>
+      <c r="D378">
+        <v>1.000150897183656</v>
+      </c>
+      <c r="E378">
+        <v>0.9974857315171939</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="2">
+        <v>41606</v>
+      </c>
+      <c r="B379">
+        <v>1.005317265102729</v>
+      </c>
+      <c r="C379">
+        <v>1.002825650156361</v>
+      </c>
+      <c r="D379">
+        <v>1.000155104817743</v>
+      </c>
+      <c r="E379">
+        <v>0.9974581297678161</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2">
+        <v>41607</v>
+      </c>
+      <c r="B380">
+        <v>1.005265013774377</v>
+      </c>
+      <c r="C380">
+        <v>1.002513507695947</v>
+      </c>
+      <c r="D380">
+        <v>0.9999346594869819</v>
+      </c>
+      <c r="E380">
+        <v>0.9975387844825399</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2">
+        <v>41610</v>
+      </c>
+      <c r="B381">
+        <v>1.005273409674364</v>
+      </c>
+      <c r="C381">
+        <v>1.003802918275171</v>
+      </c>
+      <c r="D381">
+        <v>1.000937471096742</v>
+      </c>
+      <c r="E381">
+        <v>0.9973835911564286</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="2">
+        <v>41611</v>
+      </c>
+      <c r="B382">
+        <v>1.005259063729745</v>
+      </c>
+      <c r="C382">
+        <v>1.004259763188254</v>
+      </c>
+      <c r="D382">
+        <v>1.000658278268798</v>
+      </c>
+      <c r="E382">
+        <v>0.9973528057953054</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="2">
+        <v>41612</v>
+      </c>
+      <c r="B383">
+        <v>1.005200083026057</v>
+      </c>
+      <c r="C383">
+        <v>1.003464285257137</v>
+      </c>
+      <c r="D383">
+        <v>1.000147358933414</v>
+      </c>
+      <c r="E383">
+        <v>0.9972292746433163</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="2">
+        <v>41613</v>
+      </c>
+      <c r="B384">
+        <v>1.005180612661663</v>
+      </c>
+      <c r="C384">
+        <v>1.004425849380489</v>
+      </c>
+      <c r="D384">
+        <v>0.9999317330501905</v>
+      </c>
+      <c r="E384">
+        <v>0.9968506478186591</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="2">
+        <v>41614</v>
+      </c>
+      <c r="B385">
+        <v>1.005117358500625</v>
+      </c>
+      <c r="C385">
+        <v>1.004346990783134</v>
+      </c>
+      <c r="D385">
+        <v>1.000169621789081</v>
+      </c>
+      <c r="E385">
+        <v>0.9967768440622299</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="2">
+        <v>41617</v>
+      </c>
+      <c r="B386">
+        <v>1.005055424778634</v>
+      </c>
+      <c r="C386">
+        <v>1.003768172114462</v>
+      </c>
+      <c r="D386">
+        <v>0.9997988216280491</v>
+      </c>
+      <c r="E386">
+        <v>0.9965871064619178</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="2">
+        <v>41618</v>
+      </c>
+      <c r="B387">
+        <v>1.004988962201935</v>
+      </c>
+      <c r="C387">
+        <v>1.002718787215582</v>
+      </c>
+      <c r="D387">
+        <v>0.9992465108535634</v>
+      </c>
+      <c r="E387">
+        <v>0.9971131122404326</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="2">
+        <v>41619</v>
+      </c>
+      <c r="B388">
+        <v>1.004993318060247</v>
+      </c>
+      <c r="C388">
+        <v>1.004244200013723</v>
+      </c>
+      <c r="D388">
+        <v>0.9986089382495167</v>
+      </c>
+      <c r="E388">
+        <v>0.9973760302410035</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="2">
+        <v>41620</v>
+      </c>
+      <c r="B389">
+        <v>1.004975797719563</v>
+      </c>
+      <c r="C389">
+        <v>1.004627834507158</v>
+      </c>
+      <c r="D389">
+        <v>0.998675631796794</v>
+      </c>
+      <c r="E389">
+        <v>0.9973571965192642</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="2">
+        <v>41621</v>
+      </c>
+      <c r="B390">
+        <v>1.004922201585748</v>
+      </c>
+      <c r="C390">
+        <v>1.004557719411704</v>
+      </c>
+      <c r="D390">
+        <v>0.9987724290389877</v>
+      </c>
+      <c r="E390">
+        <v>0.9975671703776297</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="2">
+        <v>41624</v>
+      </c>
+      <c r="B391">
+        <v>1.004846026475899</v>
+      </c>
+      <c r="C391">
+        <v>1.004273502652781</v>
+      </c>
+      <c r="D391">
+        <v>0.9989758162282963</v>
+      </c>
+      <c r="E391">
+        <v>0.9977297053289838</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="2">
+        <v>41625</v>
+      </c>
+      <c r="B392">
+        <v>1.004797679268703</v>
+      </c>
+      <c r="C392">
+        <v>1.004347613844524</v>
+      </c>
+      <c r="D392">
+        <v>0.9989405710642938</v>
+      </c>
+      <c r="E392">
+        <v>0.9976607930441634</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="2">
+        <v>41626</v>
+      </c>
+      <c r="B393">
+        <v>1.004729673433151</v>
+      </c>
+      <c r="C393">
+        <v>1.004248482234031</v>
+      </c>
+      <c r="D393">
+        <v>0.9998342921360254</v>
+      </c>
+      <c r="E393">
+        <v>0.9973103308827861</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="2">
+        <v>41627</v>
+      </c>
+      <c r="B394">
+        <v>1.004694486048519</v>
+      </c>
+      <c r="C394">
+        <v>1.004464538441082</v>
+      </c>
+      <c r="D394">
+        <v>1.000513057653962</v>
+      </c>
+      <c r="E394">
+        <v>0.9974049765840036</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="2">
+        <v>41628</v>
+      </c>
+      <c r="B395">
+        <v>1.004636645671806</v>
+      </c>
+      <c r="C395">
+        <v>1.004354346488014</v>
+      </c>
+      <c r="D395">
+        <v>1.001065278535809</v>
+      </c>
+      <c r="E395">
+        <v>0.9989134463362354</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="2">
+        <v>41631</v>
+      </c>
+      <c r="B396">
+        <v>1.004597339491377</v>
+      </c>
+      <c r="C396">
+        <v>1.004363676547717</v>
+      </c>
+      <c r="D396">
+        <v>1.00143046247885</v>
+      </c>
+      <c r="E396">
+        <v>0.9991011134064079</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="2">
+        <v>41632</v>
+      </c>
+      <c r="B397">
+        <v>1.004519765193468</v>
+      </c>
+      <c r="C397">
+        <v>1.003334629700513</v>
+      </c>
+      <c r="D397">
+        <v>1.001369483368407</v>
+      </c>
+      <c r="E397">
+        <v>0.999425011227933</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="2">
+        <v>41634</v>
+      </c>
+      <c r="B398">
+        <v>1.004475374745065</v>
+      </c>
+      <c r="C398">
+        <v>1.003330472640723</v>
+      </c>
+      <c r="D398">
+        <v>1.001311411664667</v>
+      </c>
+      <c r="E398">
+        <v>0.9994416197191146</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="2">
+        <v>41635</v>
+      </c>
+      <c r="B399">
+        <v>1.004393556369519</v>
+      </c>
+      <c r="C399">
+        <v>1.002589493122969</v>
+      </c>
+      <c r="D399">
+        <v>1.001216696250929</v>
+      </c>
+      <c r="E399">
+        <v>0.9989077393755585</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="2">
+        <v>41638</v>
+      </c>
+      <c r="B400">
+        <v>1.004369238530833</v>
+      </c>
+      <c r="C400">
+        <v>1.003559061352922</v>
+      </c>
+      <c r="D400">
+        <v>1.001523921340278</v>
+      </c>
+      <c r="E400">
+        <v>0.9987112449086368</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B401">
+        <v>1.004312540485028</v>
+      </c>
+      <c r="C401">
+        <v>1.002996779220358</v>
+      </c>
+      <c r="D401">
+        <v>1.001299699283758</v>
+      </c>
+      <c r="E401">
+        <v>0.9989981601424847</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="2">
+        <v>41641</v>
+      </c>
+      <c r="B402">
+        <v>1.004231671651119</v>
+      </c>
+      <c r="C402">
+        <v>1.001752935897805</v>
+      </c>
+      <c r="D402">
+        <v>1.000583663783085</v>
+      </c>
+      <c r="E402">
+        <v>0.9996176576765868</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="2">
+        <v>41642</v>
+      </c>
+      <c r="B403">
+        <v>1.004199635156931</v>
+      </c>
+      <c r="C403">
+        <v>1.0022526526058</v>
+      </c>
+      <c r="D403">
+        <v>1.000343455230619</v>
+      </c>
+      <c r="E403">
+        <v>0.999567399562351</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="2">
+        <v>41645</v>
+      </c>
+      <c r="B404">
+        <v>1.004161459973347</v>
+      </c>
+      <c r="C404">
+        <v>1.002065604755104</v>
+      </c>
+      <c r="D404">
+        <v>1.000045956612566</v>
+      </c>
+      <c r="E404">
+        <v>1.000188873508952</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="2">
+        <v>41646</v>
+      </c>
+      <c r="B405">
+        <v>1.004101746895739</v>
+      </c>
+      <c r="C405">
+        <v>1.001646984923114</v>
+      </c>
+      <c r="D405">
+        <v>1.000774212564974</v>
+      </c>
+      <c r="E405">
+        <v>1.000732352951321</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="2">
+        <v>41647</v>
+      </c>
+      <c r="B406">
+        <v>1.004038202136364</v>
+      </c>
+      <c r="C406">
+        <v>1.001621784293169</v>
+      </c>
+      <c r="D406">
+        <v>1.001054893800407</v>
+      </c>
+      <c r="E406">
+        <v>1.000712933116352</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="2">
+        <v>41648</v>
+      </c>
+      <c r="B407">
+        <v>1.004004104421783</v>
+      </c>
+      <c r="C407">
+        <v>1.001987999299277</v>
+      </c>
+      <c r="D407">
+        <v>1.001336915227547</v>
+      </c>
+      <c r="E407">
+        <v>1.000928438023388</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="2">
+        <v>41649</v>
+      </c>
+      <c r="B408">
+        <v>1.003919988904539</v>
+      </c>
+      <c r="C408">
+        <v>1.000772182674913</v>
+      </c>
+      <c r="D408">
+        <v>1.001492986440649</v>
+      </c>
+      <c r="E408">
+        <v>1.000907282935779</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="2">
+        <v>41652</v>
+      </c>
+      <c r="B409">
+        <v>1.003847992465804</v>
+      </c>
+      <c r="C409">
+        <v>1.000194415442588</v>
+      </c>
+      <c r="D409">
+        <v>1.000499670843038</v>
+      </c>
+      <c r="E409">
+        <v>1.000739147627434</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="2">
+        <v>41653</v>
+      </c>
+      <c r="B410">
+        <v>1.003807721179756</v>
+      </c>
+      <c r="C410">
+        <v>1.000445517950924</v>
+      </c>
+      <c r="D410">
+        <v>1.000806098767743</v>
+      </c>
+      <c r="E410">
+        <v>1.000661434179593</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="2">
+        <v>41654</v>
+      </c>
+      <c r="B411">
+        <v>1.003728925105129</v>
+      </c>
+      <c r="C411">
+        <v>0.9997461556649813</v>
+      </c>
+      <c r="D411">
+        <v>1.001326000040948</v>
+      </c>
+      <c r="E411">
+        <v>1.000768781058384</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="2">
+        <v>41655</v>
+      </c>
+      <c r="B412">
+        <v>1.003651949412853</v>
+      </c>
+      <c r="C412">
+        <v>0.9992087382036612</v>
+      </c>
+      <c r="D412">
+        <v>1.001542747604929</v>
+      </c>
+      <c r="E412">
+        <v>1.000719980036415</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="2">
+        <v>41656</v>
+      </c>
+      <c r="B413">
+        <v>1.00358523062106</v>
+      </c>
+      <c r="C413">
+        <v>0.9980786530115903</v>
+      </c>
+      <c r="D413">
+        <v>1.001268888232148</v>
+      </c>
+      <c r="E413">
+        <v>1.001439290421428</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="2">
+        <v>41659</v>
+      </c>
+      <c r="B414">
+        <v>1.003508200957679</v>
+      </c>
+      <c r="C414">
+        <v>0.9972158164608119</v>
+      </c>
+      <c r="D414">
+        <v>1.001592791257471</v>
+      </c>
+      <c r="E414">
+        <v>1.00216026610228</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="2">
+        <v>41660</v>
+      </c>
+      <c r="B415">
+        <v>1.003487206856772</v>
+      </c>
+      <c r="C415">
+        <v>0.9975876505947311</v>
+      </c>
+      <c r="D415">
+        <v>1.001400119975971</v>
+      </c>
+      <c r="E415">
+        <v>1.002278870385612</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="2">
+        <v>41661</v>
+      </c>
+      <c r="B416">
+        <v>1.003478434324048</v>
+      </c>
+      <c r="C416">
+        <v>0.9983372550874736</v>
+      </c>
+      <c r="D416">
+        <v>1.002127124272467</v>
+      </c>
+      <c r="E416">
+        <v>1.00312160016488</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="2">
+        <v>41662</v>
+      </c>
+      <c r="B417">
+        <v>1.003423675490407</v>
+      </c>
+      <c r="C417">
+        <v>0.9978181497544985</v>
+      </c>
+      <c r="D417">
+        <v>1.001230140782849</v>
+      </c>
+      <c r="E417">
+        <v>1.003081596344912</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="2">
+        <v>41663</v>
+      </c>
+      <c r="B418">
+        <v>1.003410885262615</v>
+      </c>
+      <c r="C418">
+        <v>0.998405171027512</v>
+      </c>
+      <c r="D418">
+        <v>1.000110980630634</v>
+      </c>
+      <c r="E418">
+        <v>1.002875640037289</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="2">
+        <v>41666</v>
+      </c>
+      <c r="B419">
+        <v>1.00339439078394</v>
+      </c>
+      <c r="C419">
+        <v>0.999242072767752</v>
+      </c>
+      <c r="D419">
+        <v>1.00003486160798</v>
+      </c>
+      <c r="E419">
+        <v>1.002858143438126</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="2">
+        <v>41667</v>
+      </c>
+      <c r="B420">
+        <v>1.00331988498893</v>
+      </c>
+      <c r="C420">
+        <v>0.9983977574108671</v>
+      </c>
+      <c r="D420">
+        <v>1.000464980717714</v>
+      </c>
+      <c r="E420">
+        <v>1.002978410299325</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="2">
+        <v>41668</v>
+      </c>
+      <c r="B421">
+        <v>1.003259270639371</v>
+      </c>
+      <c r="C421">
+        <v>0.9976697676693688</v>
+      </c>
+      <c r="D421">
+        <v>0.9995350818693163</v>
+      </c>
+      <c r="E421">
+        <v>1.003198739628419</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="2">
+        <v>41669</v>
+      </c>
+      <c r="B422">
+        <v>1.003213618863869</v>
+      </c>
+      <c r="C422">
+        <v>0.9980947926852539</v>
+      </c>
+      <c r="D422">
+        <v>1.000304513779865</v>
+      </c>
+      <c r="E422">
+        <v>1.002735988329639</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B423">
+        <v>1.003186035741054</v>
+      </c>
+      <c r="C423">
+        <v>0.9981809705423521</v>
+      </c>
+      <c r="D423">
+        <v>0.9999007390061527</v>
+      </c>
+      <c r="E423">
+        <v>1.002447127630291</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="2">
+        <v>41673</v>
+      </c>
+      <c r="B424">
+        <v>1.003194005441423</v>
+      </c>
+      <c r="C424">
+        <v>0.9990292561083124</v>
+      </c>
+      <c r="D424">
+        <v>0.9984822152797651</v>
+      </c>
+      <c r="E424">
+        <v>1.002496043753627</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="2">
+        <v>41674</v>
+      </c>
+      <c r="B425">
+        <v>1.003144663343016</v>
+      </c>
+      <c r="C425">
+        <v>0.998652827565448</v>
+      </c>
+      <c r="D425">
+        <v>0.9987986588666289</v>
+      </c>
+      <c r="E425">
+        <v>1.002947649263705</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="2">
+        <v>41675</v>
+      </c>
+      <c r="B426">
+        <v>1.00310970355893</v>
+      </c>
+      <c r="C426">
+        <v>0.9989609914500572</v>
+      </c>
+      <c r="D426">
+        <v>0.9993879358811576</v>
+      </c>
+      <c r="E426">
+        <v>1.002830756608245</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="2">
+        <v>41676</v>
+      </c>
+      <c r="B427">
+        <v>1.003044915167378</v>
+      </c>
+      <c r="C427">
+        <v>0.9987110432603563</v>
+      </c>
+      <c r="D427">
+        <v>1.000281000494319</v>
+      </c>
+      <c r="E427">
+        <v>1.002746092112743</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="2">
+        <v>41677</v>
+      </c>
+      <c r="B428">
+        <v>1.002948759484766</v>
+      </c>
+      <c r="C428">
+        <v>0.9976499968481858</v>
+      </c>
+      <c r="D428">
+        <v>0.9999623200182385</v>
+      </c>
+      <c r="E428">
+        <v>1.002681239814051</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B429">
+        <v>1.002869704117334</v>
+      </c>
+      <c r="C429">
+        <v>0.9965487516249851</v>
+      </c>
+      <c r="D429">
+        <v>0.9992652489464425</v>
+      </c>
+      <c r="E429">
+        <v>1.002937475435435</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="2">
+        <v>41681</v>
+      </c>
+      <c r="B430">
+        <v>1.002784878872054</v>
+      </c>
+      <c r="C430">
+        <v>0.9956092326329158</v>
+      </c>
+      <c r="D430">
+        <v>0.9992288938425413</v>
+      </c>
+      <c r="E430">
+        <v>1.002759458595001</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="2">
+        <v>41682</v>
+      </c>
+      <c r="B431">
+        <v>1.002755163425476</v>
+      </c>
+      <c r="C431">
+        <v>0.9963256376971321</v>
+      </c>
+      <c r="D431">
+        <v>0.9999877198249063</v>
+      </c>
+      <c r="E431">
+        <v>1.002464679240401</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="2">
+        <v>41683</v>
+      </c>
+      <c r="B432">
+        <v>1.002674840489178</v>
+      </c>
+      <c r="C432">
+        <v>0.995479934045549</v>
+      </c>
+      <c r="D432">
+        <v>0.9994879901253912</v>
+      </c>
+      <c r="E432">
+        <v>1.002114304531627</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="2">
+        <v>41684</v>
+      </c>
+      <c r="B433">
+        <v>1.002594815133801</v>
+      </c>
+      <c r="C433">
+        <v>0.9949788324358655</v>
+      </c>
+      <c r="D433">
+        <v>0.9992762828910065</v>
+      </c>
+      <c r="E433">
+        <v>1.001807632793289</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="2">
+        <v>41688</v>
+      </c>
+      <c r="B434">
+        <v>1.002551294557283</v>
+      </c>
+      <c r="C434">
+        <v>0.9949177423728547</v>
+      </c>
+      <c r="D434">
+        <v>0.9993771330771403</v>
+      </c>
+      <c r="E434">
+        <v>1.002304041862771</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="2">
+        <v>41689</v>
+      </c>
+      <c r="B435">
+        <v>1.002527832019214</v>
+      </c>
+      <c r="C435">
+        <v>0.9954238996116663</v>
+      </c>
+      <c r="D435">
+        <v>0.999718657564856</v>
+      </c>
+      <c r="E435">
+        <v>1.001837938907027</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="2">
+        <v>41690</v>
+      </c>
+      <c r="B436">
+        <v>1.002446926885223</v>
+      </c>
+      <c r="C436">
+        <v>0.9942406128000102</v>
+      </c>
+      <c r="D436">
+        <v>0.9995709177753965</v>
+      </c>
+      <c r="E436">
+        <v>1.002286162202494</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="2">
+        <v>41691</v>
+      </c>
+      <c r="B437">
+        <v>1.002417643301917</v>
+      </c>
+      <c r="C437">
+        <v>0.9944840302081994</v>
+      </c>
+      <c r="D437">
+        <v>0.999425238863819</v>
+      </c>
+      <c r="E437">
+        <v>1.002083731335106</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="2">
+        <v>41694</v>
+      </c>
+      <c r="B438">
+        <v>1.002389392277515</v>
+      </c>
+      <c r="C438">
+        <v>0.9945530648451077</v>
+      </c>
+      <c r="D438">
+        <v>0.9997970241878732</v>
+      </c>
+      <c r="E438">
+        <v>1.002639670826501</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="2">
+        <v>41695</v>
+      </c>
+      <c r="B439">
+        <v>1.002347117559451</v>
+      </c>
+      <c r="C439">
+        <v>0.9948613191992419</v>
+      </c>
+      <c r="D439">
+        <v>1.000041277853256</v>
+      </c>
+      <c r="E439">
+        <v>1.003443706396238</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="2">
+        <v>41696</v>
+      </c>
+      <c r="B440">
+        <v>1.002302149329544</v>
+      </c>
+      <c r="C440">
+        <v>0.9950510619392876</v>
+      </c>
+      <c r="D440">
+        <v>1.000257317899313</v>
+      </c>
+      <c r="E440">
+        <v>1.003167606604179</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="2">
+        <v>41697</v>
+      </c>
+      <c r="B441">
+        <v>1.002284451069397</v>
+      </c>
+      <c r="C441">
+        <v>0.9951928486995739</v>
+      </c>
+      <c r="D441">
+        <v>1.000005670682376</v>
+      </c>
+      <c r="E441">
+        <v>1.003380955724769</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B442">
+        <v>1.002268945663307</v>
+      </c>
+      <c r="C442">
+        <v>0.9955143510844113</v>
+      </c>
+      <c r="D442">
+        <v>0.9999422757618166</v>
+      </c>
+      <c r="E442">
+        <v>1.002776851375033</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="2">
+        <v>41701</v>
+      </c>
+      <c r="B443">
+        <v>1.00222442137728</v>
+      </c>
+      <c r="C443">
+        <v>0.9951894880787545</v>
+      </c>
+      <c r="D443">
+        <v>0.9996906448094595</v>
+      </c>
+      <c r="E443">
+        <v>1.003281259147705</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="2">
+        <v>41702</v>
+      </c>
+      <c r="B444">
+        <v>1.002161800731838</v>
+      </c>
+      <c r="C444">
+        <v>0.9951630807618501</v>
+      </c>
+      <c r="D444">
+        <v>1.000238285430686</v>
+      </c>
+      <c r="E444">
+        <v>1.003087293231792</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="2">
+        <v>41703</v>
+      </c>
+      <c r="B445">
+        <v>1.002109434846846</v>
+      </c>
+      <c r="C445">
+        <v>0.9950906497121064</v>
+      </c>
+      <c r="D445">
+        <v>0.9997446274906273</v>
+      </c>
+      <c r="E445">
+        <v>1.002968320126421</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="2">
+        <v>41704</v>
+      </c>
+      <c r="B446">
+        <v>1.002072703318129</v>
+      </c>
+      <c r="C446">
+        <v>0.9950857981262801</v>
+      </c>
+      <c r="D446">
+        <v>0.9994132335005972</v>
+      </c>
+      <c r="E446">
+        <v>1.002949321088915</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="2">
+        <v>41705</v>
+      </c>
+      <c r="B447">
+        <v>1.002047438592409</v>
+      </c>
+      <c r="C447">
+        <v>0.9954468958307723</v>
+      </c>
+      <c r="D447">
+        <v>0.9998888297518252</v>
+      </c>
+      <c r="E447">
+        <v>1.002737293797641</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="2">
+        <v>41708</v>
+      </c>
+      <c r="B448">
+        <v>1.002016041037225</v>
+      </c>
+      <c r="C448">
+        <v>0.99566474005358</v>
+      </c>
+      <c r="D448">
+        <v>0.9999453071101975</v>
+      </c>
+      <c r="E448">
+        <v>1.002474987577767</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="2">
+        <v>41709</v>
+      </c>
+      <c r="B449">
+        <v>1.001974893050819</v>
+      </c>
+      <c r="C449">
+        <v>0.9960256655314341</v>
+      </c>
+      <c r="D449">
+        <v>0.9992153728260135</v>
+      </c>
+      <c r="E449">
+        <v>1.002350557182819</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="2">
+        <v>41710</v>
+      </c>
+      <c r="B450">
+        <v>1.001882536707736</v>
+      </c>
+      <c r="C450">
+        <v>0.9949410599641594</v>
+      </c>
+      <c r="D450">
+        <v>0.9988993616581318</v>
+      </c>
+      <c r="E450">
+        <v>1.002372273144741</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="2">
+        <v>41711</v>
+      </c>
+      <c r="B451">
+        <v>1.001836514925506</v>
+      </c>
+      <c r="C451">
+        <v>0.994472003041071</v>
+      </c>
+      <c r="D451">
+        <v>0.9978429482833414</v>
+      </c>
+      <c r="E451">
+        <v>1.002427251836596</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="2">
+        <v>41712</v>
+      </c>
+      <c r="B452">
+        <v>1.001802502817045</v>
+      </c>
+      <c r="C452">
+        <v>0.9943699450043528</v>
+      </c>
+      <c r="D452">
+        <v>0.9978294166397135</v>
+      </c>
+      <c r="E452">
+        <v>1.002746261044564</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="2">
+        <v>41715</v>
+      </c>
+      <c r="B453">
+        <v>1.001776757469535</v>
+      </c>
+      <c r="C453">
+        <v>0.995288084750505</v>
+      </c>
+      <c r="D453">
+        <v>0.9984920052535936</v>
+      </c>
+      <c r="E453">
+        <v>1.002374830087708</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="2">
+        <v>41716</v>
+      </c>
+      <c r="B454">
+        <v>1.001713014776511</v>
+      </c>
+      <c r="C454">
+        <v>0.9949920444650827</v>
+      </c>
+      <c r="D454">
+        <v>0.9994091386912993</v>
+      </c>
+      <c r="E454">
+        <v>1.002166731778232</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="2">
+        <v>41717</v>
+      </c>
+      <c r="B455">
+        <v>1.001702274294062</v>
+      </c>
+      <c r="C455">
+        <v>0.9958807965847613</v>
+      </c>
+      <c r="D455">
+        <v>0.9998107467997106</v>
+      </c>
+      <c r="E455">
+        <v>1.002563900578566</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="2">
+        <v>41718</v>
+      </c>
+      <c r="B456">
+        <v>1.001657827064099</v>
+      </c>
+      <c r="C456">
+        <v>0.9958463368271289</v>
+      </c>
+      <c r="D456">
+        <v>0.9998998764244064</v>
+      </c>
+      <c r="E456">
+        <v>1.002396610909301</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="2">
+        <v>41719</v>
+      </c>
+      <c r="B457">
+        <v>1.001617587675737</v>
+      </c>
+      <c r="C457">
+        <v>0.9957739400469126</v>
+      </c>
+      <c r="D457">
+        <v>0.9998557756171351</v>
+      </c>
+      <c r="E457">
+        <v>1.001968539311312</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="2">
+        <v>41722</v>
+      </c>
+      <c r="B458">
+        <v>1.001628821294223</v>
+      </c>
+      <c r="C458">
+        <v>0.9971541603769146</v>
+      </c>
+      <c r="D458">
+        <v>1.00023830861112</v>
+      </c>
+      <c r="E458">
+        <v>1.002204917890931</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="2">
+        <v>41723</v>
+      </c>
+      <c r="B459">
+        <v>1.001571232957231</v>
+      </c>
+      <c r="C459">
+        <v>0.9970220745349569</v>
+      </c>
+      <c r="D459">
+        <v>1.000345016644806</v>
+      </c>
+      <c r="E459">
+        <v>1.002115810472048</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="2">
+        <v>41724</v>
+      </c>
+      <c r="B460">
+        <v>1.001587944596187</v>
+      </c>
+      <c r="C460">
+        <v>0.9984938961806679</v>
+      </c>
+      <c r="D460">
+        <v>1.000216603159381</v>
+      </c>
+      <c r="E460">
+        <v>1.001897932623416</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="2">
+        <v>41725</v>
+      </c>
+      <c r="B461">
+        <v>1.001553755635143</v>
+      </c>
+      <c r="C461">
+        <v>0.998451113236015</v>
+      </c>
+      <c r="D461">
+        <v>1.000063908596281</v>
+      </c>
+      <c r="E461">
+        <v>1.001719187188932</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="2">
+        <v>41726</v>
+      </c>
+      <c r="B462">
+        <v>1.001485714881998</v>
+      </c>
+      <c r="C462">
+        <v>0.9977042625174829</v>
+      </c>
+      <c r="D462">
+        <v>0.9999826885965134</v>
+      </c>
+      <c r="E462">
+        <v>1.000980881507697</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B463">
+        <v>1.001453506726145</v>
+      </c>
+      <c r="C463">
+        <v>0.9982373068510356</v>
+      </c>
+      <c r="D463">
+        <v>1.000589302838712</v>
+      </c>
+      <c r="E463">
+        <v>1.000360890677204</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B464">
+        <v>1.00139364681376</v>
+      </c>
+      <c r="C464">
+        <v>0.9982095025948295</v>
+      </c>
+      <c r="D464">
+        <v>1.000783310340446</v>
+      </c>
+      <c r="E464">
+        <v>1.000304658418215</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="2">
+        <v>41731</v>
+      </c>
+      <c r="B465">
+        <v>1.001334982326185</v>
+      </c>
+      <c r="C465">
+        <v>0.9975873566195415</v>
+      </c>
+      <c r="D465">
+        <v>1.000823281800054</v>
+      </c>
+      <c r="E465">
+        <v>1.0003977058979</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="2">
+        <v>41732</v>
+      </c>
+      <c r="B466">
+        <v>1.001327543847464</v>
+      </c>
+      <c r="C466">
+        <v>0.9979095702040843</v>
+      </c>
+      <c r="D466">
+        <v>1.000563062501392</v>
+      </c>
+      <c r="E466">
+        <v>1.000513302690517</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="2">
+        <v>41733</v>
+      </c>
+      <c r="B467">
+        <v>1.001291003014077</v>
+      </c>
+      <c r="C467">
+        <v>0.9977705679482382</v>
+      </c>
+      <c r="D467">
+        <v>1.000046274847905</v>
+      </c>
+      <c r="E467">
+        <v>1.000311272382818</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="2">
+        <v>41736</v>
+      </c>
+      <c r="B468">
+        <v>1.001273527749826</v>
+      </c>
+      <c r="C468">
+        <v>0.9982061843623711</v>
+      </c>
+      <c r="D468">
+        <v>0.999297266308909</v>
+      </c>
+      <c r="E468">
+        <v>1.000368352574166</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="2">
+        <v>41737</v>
+      </c>
+      <c r="B469">
+        <v>1.001226534825213</v>
+      </c>
+      <c r="C469">
+        <v>0.9976516784958159</v>
+      </c>
+      <c r="D469">
+        <v>0.9994578198520255</v>
+      </c>
+      <c r="E469">
+        <v>1.000394059243925</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="2">
+        <v>41738</v>
+      </c>
+      <c r="B470">
+        <v>1.001158089036495</v>
+      </c>
+      <c r="C470">
+        <v>0.9974739931685455</v>
+      </c>
+      <c r="D470">
+        <v>0.9997595972810432</v>
+      </c>
+      <c r="E470">
+        <v>1.000220391354678</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="2">
+        <v>41739</v>
+      </c>
+      <c r="B471">
+        <v>1.001156252990496</v>
+      </c>
+      <c r="C471">
+        <v>0.9979432884484534</v>
+      </c>
+      <c r="D471">
+        <v>0.9989983439895781</v>
+      </c>
+      <c r="E471">
+        <v>1.000107147773961</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="2">
+        <v>41740</v>
+      </c>
+      <c r="B472">
+        <v>1.001134261179806</v>
+      </c>
+      <c r="C472">
+        <v>0.9982878354839874</v>
+      </c>
+      <c r="D472">
+        <v>0.9986334801928859</v>
+      </c>
+      <c r="E472">
+        <v>0.9997503966731147</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="2">
+        <v>41743</v>
+      </c>
+      <c r="B473">
+        <v>1.001067368882566</v>
+      </c>
+      <c r="C473">
+        <v>0.9977983206120573</v>
+      </c>
+      <c r="D473">
+        <v>0.998593232218733</v>
+      </c>
+      <c r="E473">
+        <v>0.9995222925633189</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="2">
+        <v>41744</v>
+      </c>
+      <c r="B474">
+        <v>1.001036356562605</v>
+      </c>
+      <c r="C474">
+        <v>0.9983643991933939</v>
+      </c>
+      <c r="D474">
+        <v>0.9991125600528005</v>
+      </c>
+      <c r="E474">
+        <v>0.9995414241293512</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="2">
+        <v>41745</v>
+      </c>
+      <c r="B475">
+        <v>1.000998417532259</v>
+      </c>
+      <c r="C475">
+        <v>0.9984300639865705</v>
+      </c>
+      <c r="D475">
+        <v>0.9999037553419338</v>
+      </c>
+      <c r="E475">
+        <v>0.9991359558115044</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="2">
+        <v>41746</v>
+      </c>
+      <c r="B476">
+        <v>1.0009675482756</v>
+      </c>
+      <c r="C476">
+        <v>0.9984762271178942</v>
+      </c>
+      <c r="D476">
+        <v>1.000108976336305</v>
+      </c>
+      <c r="E476">
+        <v>0.9990619620050147</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="2">
+        <v>41750</v>
+      </c>
+      <c r="B477">
+        <v>1.000924280448958</v>
+      </c>
+      <c r="C477">
+        <v>0.998857930702834</v>
+      </c>
+      <c r="D477">
+        <v>1.000205023358466</v>
+      </c>
+      <c r="E477">
+        <v>0.9991097090609671</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="2">
+        <v>41751</v>
+      </c>
+      <c r="B478">
+        <v>1.000854025616655</v>
+      </c>
+      <c r="C478">
+        <v>0.9982227529615881</v>
+      </c>
+      <c r="D478">
+        <v>1.000417974940793</v>
+      </c>
+      <c r="E478">
+        <v>0.9992926007915444</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="2">
+        <v>41752</v>
+      </c>
+      <c r="B479">
+        <v>1.000812472867238</v>
+      </c>
+      <c r="C479">
+        <v>0.9978034885562719</v>
+      </c>
+      <c r="D479">
+        <v>1.000099891061351</v>
+      </c>
+      <c r="E479">
+        <v>0.9994165158474303</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="2">
+        <v>41753</v>
+      </c>
+      <c r="B480">
+        <v>1.000759468187345</v>
+      </c>
+      <c r="C480">
+        <v>0.9981204522929142</v>
+      </c>
+      <c r="D480">
+        <v>1.000464017390006</v>
+      </c>
+      <c r="E480">
+        <v>0.9993068455932322</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="2">
+        <v>41754</v>
+      </c>
+      <c r="B481">
+        <v>1.000697477480866</v>
+      </c>
+      <c r="C481">
+        <v>0.9977379684671568</v>
+      </c>
+      <c r="D481">
+        <v>0.999869444101773</v>
+      </c>
+      <c r="E481">
+        <v>0.9994306681191314</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="2">
+        <v>41757</v>
+      </c>
+      <c r="B482">
+        <v>1.000671287844177</v>
+      </c>
+      <c r="C482">
+        <v>0.9982647326740121</v>
+      </c>
+      <c r="D482">
+        <v>0.9999876175441125</v>
+      </c>
+      <c r="E482">
+        <v>0.9997092408915687</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="2">
+        <v>41758</v>
+      </c>
+      <c r="B483">
+        <v>1.000617384180914</v>
+      </c>
+      <c r="C483">
+        <v>0.997728425222749</v>
+      </c>
+      <c r="D483">
+        <v>0.9999119615845592</v>
+      </c>
+      <c r="E483">
+        <v>0.9997881268892727</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="2">
+        <v>41759</v>
+      </c>
+      <c r="B484">
+        <v>1.000566223252787</v>
+      </c>
+      <c r="C484">
+        <v>0.9978348929704497</v>
+      </c>
+      <c r="D484">
+        <v>1.000355210297978</v>
+      </c>
+      <c r="E484">
+        <v>0.9995941352266571</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B485">
+        <v>1.000470281715369</v>
+      </c>
+      <c r="C485">
+        <v>0.99795124520322</v>
+      </c>
+      <c r="D485">
+        <v>1.000938359106354</v>
+      </c>
+      <c r="E485">
+        <v>0.9999819457142285</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="2">
+        <v>41761</v>
+      </c>
+      <c r="B486">
+        <v>1.000395030396975</v>
+      </c>
+      <c r="C486">
+        <v>0.9969352370594314</v>
+      </c>
+      <c r="D486">
+        <v>1.001089265024161</v>
+      </c>
+      <c r="E486">
+        <v>1.000095364777905</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="2">
+        <v>41764</v>
+      </c>
+      <c r="B487">
+        <v>1.000379593265505</v>
+      </c>
+      <c r="C487">
+        <v>0.9973718983409864</v>
+      </c>
+      <c r="D487">
+        <v>1.000472370170426</v>
+      </c>
+      <c r="E487">
+        <v>0.9999476115649008</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="2">
+        <v>41765</v>
+      </c>
+      <c r="B488">
+        <v>1.000366013086922</v>
+      </c>
+      <c r="C488">
+        <v>0.9977458056170138</v>
+      </c>
+      <c r="D488">
+        <v>0.9997677688350811</v>
+      </c>
+      <c r="E488">
+        <v>0.9997818923391172</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="2">
+        <v>41766</v>
+      </c>
+      <c r="B489">
+        <v>1.000371673723603</v>
+      </c>
+      <c r="C489">
+        <v>0.9982366985471164</v>
+      </c>
+      <c r="D489">
+        <v>0.9999997431892089</v>
+      </c>
+      <c r="E489">
+        <v>0.9991876626632789</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="2">
+        <v>41767</v>
+      </c>
+      <c r="B490">
+        <v>1.000330226058159</v>
+      </c>
+      <c r="C490">
+        <v>0.9986230085768962</v>
+      </c>
+      <c r="D490">
+        <v>0.9993504961045442</v>
+      </c>
+      <c r="E490">
+        <v>0.9994291585105286</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="2">
+        <v>41768</v>
+      </c>
+      <c r="B491">
+        <v>1.000258614850766</v>
+      </c>
+      <c r="C491">
+        <v>0.998466564855169</v>
+      </c>
+      <c r="D491">
+        <v>0.9992801324374402</v>
+      </c>
+      <c r="E491">
+        <v>0.9994846134777663</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="2">
+        <v>41771</v>
+      </c>
+      <c r="B492">
+        <v>1.000181087405043</v>
+      </c>
+      <c r="C492">
+        <v>0.9977398995815469</v>
+      </c>
+      <c r="D492">
+        <v>1.000068542840234</v>
+      </c>
+      <c r="E492">
+        <v>0.9993759512091988</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="2">
+        <v>41772</v>
+      </c>
+      <c r="B493">
+        <v>1.000140749166195</v>
+      </c>
+      <c r="C493">
+        <v>0.9978441556318252</v>
+      </c>
+      <c r="D493">
+        <v>1.00030939831183</v>
+      </c>
+      <c r="E493">
+        <v>0.9993346819350786</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="2">
+        <v>41773</v>
+      </c>
+      <c r="B494">
+        <v>1.00008656701624</v>
+      </c>
+      <c r="C494">
+        <v>0.9974257463245862</v>
+      </c>
+      <c r="D494">
+        <v>0.9999379564125528</v>
+      </c>
+      <c r="E494">
+        <v>0.9992505436983747</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="2">
+        <v>41774</v>
+      </c>
+      <c r="B495">
+        <v>1.000072611533433</v>
+      </c>
+      <c r="C495">
+        <v>0.9981808403297391</v>
+      </c>
+      <c r="D495">
+        <v>0.9995219762986646</v>
+      </c>
+      <c r="E495">
+        <v>0.9994738420422694</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="2">
+        <v>41775</v>
+      </c>
+      <c r="B496">
+        <v>1.000039344291207</v>
+      </c>
+      <c r="C496">
+        <v>0.9986691047442228</v>
+      </c>
+      <c r="D496">
+        <v>0.9993329556748679</v>
+      </c>
+      <c r="E496">
+        <v>0.9993854045658126</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="2">
+        <v>41778</v>
+      </c>
+      <c r="B497">
+        <v>0.9999950052993516</v>
+      </c>
+      <c r="C497">
+        <v>0.9986669409330048</v>
+      </c>
+      <c r="D497">
+        <v>0.9992714527286376</v>
+      </c>
+      <c r="E497">
+        <v>0.9994042895987116</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="2">
+        <v>41779</v>
+      </c>
+      <c r="B498">
+        <v>0.9999505209218318</v>
+      </c>
+      <c r="C498">
+        <v>0.998488039709246</v>
+      </c>
+      <c r="D498">
+        <v>0.9991499673684935</v>
+      </c>
+      <c r="E498">
+        <v>0.9994726441985935</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="2">
+        <v>41780</v>
+      </c>
+      <c r="B499">
+        <v>0.9998847353184269</v>
+      </c>
+      <c r="C499">
+        <v>0.9980863060689824</v>
+      </c>
+      <c r="D499">
+        <v>0.999726910429923</v>
+      </c>
+      <c r="E499">
+        <v>0.9993569674141385</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="2">
+        <v>41781</v>
+      </c>
+      <c r="B500">
+        <v>0.999818210791187</v>
+      </c>
+      <c r="C500">
+        <v>0.997969197953479</v>
+      </c>
+      <c r="D500">
+        <v>0.9996472853108284</v>
+      </c>
+      <c r="E500">
+        <v>0.9992770225689451</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="2">
+        <v>41782</v>
+      </c>
+      <c r="B501">
+        <v>0.9997745234854221</v>
+      </c>
+      <c r="C501">
+        <v>0.9982035542855525</v>
+      </c>
+      <c r="D501">
+        <v>0.9997137637508163</v>
+      </c>
+      <c r="E501">
+        <v>0.9992105236793668</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="2">
+        <v>41785</v>
+      </c>
+      <c r="B502">
+        <v>0.9997303161379667</v>
+      </c>
+      <c r="C502">
+        <v>0.9982520400037536</v>
+      </c>
+      <c r="D502">
+        <v>0.9998452346161312</v>
+      </c>
+      <c r="E502">
+        <v>0.9993100228899411</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="2">
+        <v>41786</v>
+      </c>
+      <c r="B503">
+        <v>0.999709808031089</v>
+      </c>
+      <c r="C503">
+        <v>0.9993352378874693</v>
+      </c>
+      <c r="D503">
+        <v>1.000059369314045</v>
+      </c>
+      <c r="E503">
+        <v>0.9992238748578885</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="2">
+        <v>41787</v>
+      </c>
+      <c r="B504">
+        <v>0.9997025757333187</v>
+      </c>
+      <c r="C504">
+        <v>0.9999800244039676</v>
+      </c>
+      <c r="D504">
+        <v>0.9998781923595279</v>
+      </c>
+      <c r="E504">
+        <v>0.999317985460105</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="2">
         <v>41788</v>
       </c>
-      <c r="B253">
-        <v>0.9999159992524734</v>
-      </c>
-      <c r="C253">
-        <v>0.9999694068655871</v>
-      </c>
-      <c r="D253">
-        <v>0.9999825540106742</v>
-      </c>
-      <c r="E253">
-        <v>0.9999891198930998</v>
+      <c r="B505">
+        <v>0.9996567111368174</v>
+      </c>
+      <c r="C505">
+        <v>0.9998481947508738</v>
+      </c>
+      <c r="D505">
+        <v>0.9999353565516348</v>
+      </c>
+      <c r="E505">
+        <v>0.9999600213475383</v>
       </c>
     </row>
   </sheetData>
